--- a/SimulationStudyData/Model5/SimCase32_Yobs_SimRun4.xlsx
+++ b/SimulationStudyData/Model5/SimCase32_Yobs_SimRun4.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.47403534730113</v>
+        <v>10.766209576324</v>
       </c>
       <c r="B2" t="n">
-        <v>2.78170610336415</v>
+        <v>9.48248769916841</v>
       </c>
       <c r="C2" t="n">
-        <v>4.51899399319598</v>
+        <v>13.3185879185427</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5798353594194</v>
+        <v>11.0644429874375</v>
       </c>
       <c r="E2" t="n">
-        <v>4.21581215680184</v>
+        <v>13.8825338598993</v>
       </c>
       <c r="F2" t="n">
-        <v>4.86297185459089</v>
+        <v>15.8195776903952</v>
       </c>
       <c r="G2" t="n">
-        <v>4.38448448011145</v>
+        <v>15.7689309145831</v>
       </c>
       <c r="H2" t="n">
-        <v>6.15269062797922</v>
+        <v>17.920720749687</v>
       </c>
       <c r="I2" t="n">
-        <v>6.78192745632877</v>
+        <v>19.296420909876</v>
       </c>
       <c r="J2" t="n">
-        <v>6.44690673039123</v>
+        <v>19.2802952714597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.0837932095006</v>
+        <v>10.503006872871</v>
       </c>
       <c r="B3" t="n">
-        <v>11.6666165804393</v>
+        <v>11.6924377913147</v>
       </c>
       <c r="C3" t="n">
-        <v>2.40444428483943</v>
+        <v>11.9315679236435</v>
       </c>
       <c r="D3" t="n">
-        <v>2.96107979320261</v>
+        <v>13.7688061537563</v>
       </c>
       <c r="E3" t="n">
-        <v>5.05218688498155</v>
+        <v>13.7733969664738</v>
       </c>
       <c r="F3" t="n">
-        <v>3.87214226576724</v>
+        <v>16.5250097201109</v>
       </c>
       <c r="G3" t="n">
-        <v>6.47004756176784</v>
+        <v>15.7704212733718</v>
       </c>
       <c r="H3" t="n">
-        <v>5.88214364220793</v>
+        <v>16.4522110045229</v>
       </c>
       <c r="I3" t="n">
-        <v>5.77156310313913</v>
+        <v>17.4782917592464</v>
       </c>
       <c r="J3" t="n">
-        <v>8.28545978021705</v>
+        <v>6.41083234730397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.1218527159698</v>
+        <v>2.7890175290838</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2253437782357</v>
+        <v>2.97002885679208</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4859132319055</v>
+        <v>2.64629590295137</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6362525010912</v>
+        <v>3.86200666861568</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5422643096718</v>
+        <v>4.47234562233987</v>
       </c>
       <c r="F4" t="n">
-        <v>14.1340780552663</v>
+        <v>5.2590479660849</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.70631283768317</v>
+        <v>5.15921327698723</v>
       </c>
       <c r="H4" t="n">
-        <v>6.38582957676607</v>
+        <v>6.3137307813564</v>
       </c>
       <c r="I4" t="n">
-        <v>6.89029476228576</v>
+        <v>5.99591652933419</v>
       </c>
       <c r="J4" t="n">
-        <v>7.15729758573717</v>
+        <v>6.51256056578011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.06464748907658</v>
+        <v>9.47493208187539</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.30339556764583</v>
+        <v>12.2879656897782</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.03690252922374</v>
+        <v>-5.87895796761821</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.55942937871172</v>
+        <v>-6.48931086960912</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.91050523208701</v>
+        <v>-7.09542810379678</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.20196516690274</v>
+        <v>-7.69508847850271</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.91487156131388</v>
+        <v>-8.18496752342918</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.91150317019027</v>
+        <v>-8.2018317055932</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.70752629750963</v>
+        <v>-8.98777898388986</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.77909745170183</v>
+        <v>-9.64859785443344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.19079100737908</v>
+        <v>7.54146533797195</v>
       </c>
       <c r="B6" t="n">
-        <v>2.86644804133677</v>
+        <v>9.83642934605009</v>
       </c>
       <c r="C6" t="n">
-        <v>3.25580320351809</v>
+        <v>12.0220295976855</v>
       </c>
       <c r="D6" t="n">
-        <v>3.96870704386597</v>
+        <v>13.4571676388394</v>
       </c>
       <c r="E6" t="n">
-        <v>4.23227795619562</v>
+        <v>13.4587864391441</v>
       </c>
       <c r="F6" t="n">
-        <v>4.12906173640554</v>
+        <v>15.5327480626394</v>
       </c>
       <c r="G6" t="n">
-        <v>5.91224639375287</v>
+        <v>16.0329942451558</v>
       </c>
       <c r="H6" t="n">
-        <v>6.3619578757905</v>
+        <v>15.6484540701679</v>
       </c>
       <c r="I6" t="n">
-        <v>6.3367474871225</v>
+        <v>18.0039709756666</v>
       </c>
       <c r="J6" t="n">
-        <v>7.47214321392073</v>
+        <v>18.5042015739766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.79713969263269</v>
+        <v>11.2285864960402</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1737781467878</v>
+        <v>11.0204525331114</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3239913755131</v>
+        <v>10.9675043433979</v>
       </c>
       <c r="D7" t="n">
-        <v>5.25562826530641</v>
+        <v>13.5490929015719</v>
       </c>
       <c r="E7" t="n">
-        <v>4.56109167484103</v>
+        <v>13.5118442526286</v>
       </c>
       <c r="F7" t="n">
-        <v>4.50325397624559</v>
+        <v>15.7100689758258</v>
       </c>
       <c r="G7" t="n">
-        <v>5.03852320062377</v>
+        <v>15.8616665308649</v>
       </c>
       <c r="H7" t="n">
-        <v>6.56438219320528</v>
+        <v>15.8379493331517</v>
       </c>
       <c r="I7" t="n">
-        <v>6.64074303638615</v>
+        <v>18.1150643060012</v>
       </c>
       <c r="J7" t="n">
-        <v>7.05065428452991</v>
+        <v>20.0586664071735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.86631099172426</v>
+        <v>2.96919108342068</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.41243123579934</v>
+        <v>2.99456804396273</v>
       </c>
       <c r="C8" t="n">
-        <v>2.79944634012772</v>
+        <v>3.30532774737013</v>
       </c>
       <c r="D8" t="n">
-        <v>3.82150088021145</v>
+        <v>4.57538525107961</v>
       </c>
       <c r="E8" t="n">
-        <v>13.7474158583189</v>
+        <v>4.87670473703978</v>
       </c>
       <c r="F8" t="n">
-        <v>14.5211198554748</v>
+        <v>5.63649555445953</v>
       </c>
       <c r="G8" t="n">
-        <v>15.8399043243859</v>
+        <v>5.66503642743211</v>
       </c>
       <c r="H8" t="n">
-        <v>17.6308057946632</v>
+        <v>6.81899146161733</v>
       </c>
       <c r="I8" t="n">
-        <v>18.3485825634798</v>
+        <v>5.69278840688637</v>
       </c>
       <c r="J8" t="n">
-        <v>18.414777964114</v>
+        <v>6.41009359803699</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.95105905121293</v>
+        <v>-5.5644815667743</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3009517684494</v>
+        <v>-5.18010450456114</v>
       </c>
       <c r="C9" t="n">
-        <v>11.2772690142747</v>
+        <v>-6.29203284365971</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8750057092419</v>
+        <v>-6.83252737041211</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1071860094489</v>
+        <v>-6.69903464598137</v>
       </c>
       <c r="F9" t="n">
-        <v>13.9674273355806</v>
+        <v>-7.34213735535292</v>
       </c>
       <c r="G9" t="n">
-        <v>5.05594314948876</v>
+        <v>-8.38915527762001</v>
       </c>
       <c r="H9" t="n">
-        <v>6.6932921158586</v>
+        <v>-8.67598664475622</v>
       </c>
       <c r="I9" t="n">
-        <v>5.72684288610731</v>
+        <v>-8.50638606095294</v>
       </c>
       <c r="J9" t="n">
-        <v>7.38029037552885</v>
+        <v>-9.5598988712158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.77862525773537</v>
+        <v>10.749229643903</v>
       </c>
       <c r="B10" t="n">
-        <v>3.1954934980926</v>
+        <v>10.1688379203405</v>
       </c>
       <c r="C10" t="n">
-        <v>3.8718331345562</v>
+        <v>12.7521712184789</v>
       </c>
       <c r="D10" t="n">
-        <v>4.25934262511431</v>
+        <v>11.3645735244075</v>
       </c>
       <c r="E10" t="n">
-        <v>4.70669873914767</v>
+        <v>14.1706765721205</v>
       </c>
       <c r="F10" t="n">
-        <v>5.37432962046548</v>
+        <v>15.6137867250091</v>
       </c>
       <c r="G10" t="n">
-        <v>6.03181261182274</v>
+        <v>16.5778675196949</v>
       </c>
       <c r="H10" t="n">
-        <v>6.00275052546891</v>
+        <v>6.33603756651274</v>
       </c>
       <c r="I10" t="n">
-        <v>6.86589782709318</v>
+        <v>6.71608064006508</v>
       </c>
       <c r="J10" t="n">
-        <v>7.00443366371011</v>
+        <v>6.44981448973361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.02401913755307</v>
+        <v>2.32724439905488</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.62540733068909</v>
+        <v>2.68742354702306</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.46643196356208</v>
+        <v>11.9162330458473</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.54698081308865</v>
+        <v>13.0544395696532</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.93261500517405</v>
+        <v>14.5263070071843</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.2338533925178</v>
+        <v>15.1048034953699</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.99520791392681</v>
+        <v>16.108267806915</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.35813305023253</v>
+        <v>17.9381037373981</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.06773300050689</v>
+        <v>-9.15715103232656</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.06123427839262</v>
+        <v>7.19109882952809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.54397318412519</v>
+        <v>10.0585021717238</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.47166931045748</v>
+        <v>11.4168115695498</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.33796435879751</v>
+        <v>11.6094051755015</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.4260033095921</v>
+        <v>13.0528996124777</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.14563355037894</v>
+        <v>-6.93732200399756</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.2166971107128</v>
+        <v>-7.5248955400525</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.42893711720289</v>
+        <v>-8.44583755467412</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.60549924150202</v>
+        <v>-8.80237961619214</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.73364971992589</v>
+        <v>-9.00697913185923</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.31494278402866</v>
+        <v>-9.44678206248091</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.61170890852913</v>
+        <v>9.86802519976054</v>
       </c>
       <c r="B13" t="n">
-        <v>3.14256947104568</v>
+        <v>3.01222828458811</v>
       </c>
       <c r="C13" t="n">
-        <v>3.39276928214734</v>
+        <v>3.72935414912151</v>
       </c>
       <c r="D13" t="n">
-        <v>4.85892596796608</v>
+        <v>3.57087153749757</v>
       </c>
       <c r="E13" t="n">
-        <v>4.25529596057133</v>
+        <v>4.92720317664414</v>
       </c>
       <c r="F13" t="n">
-        <v>5.82540614112753</v>
+        <v>5.4475484051918</v>
       </c>
       <c r="G13" t="n">
-        <v>5.01359601945241</v>
+        <v>5.33946872710574</v>
       </c>
       <c r="H13" t="n">
-        <v>5.40933404221161</v>
+        <v>5.83065517040108</v>
       </c>
       <c r="I13" t="n">
-        <v>6.32740750266127</v>
+        <v>18.1494137182912</v>
       </c>
       <c r="J13" t="n">
-        <v>6.58008051837924</v>
+        <v>18.8754574986583</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.79673318470183</v>
+        <v>9.25988461858294</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2304061775024</v>
+        <v>10.8351474795499</v>
       </c>
       <c r="C14" t="n">
-        <v>12.8921710327158</v>
+        <v>3.73164804189791</v>
       </c>
       <c r="D14" t="n">
-        <v>13.2896746870221</v>
+        <v>3.82547939913645</v>
       </c>
       <c r="E14" t="n">
-        <v>13.4021298731015</v>
+        <v>4.98136848790044</v>
       </c>
       <c r="F14" t="n">
-        <v>15.9024325312266</v>
+        <v>5.71524918585297</v>
       </c>
       <c r="G14" t="n">
-        <v>16.7664898391688</v>
+        <v>5.51368457455063</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.32840706635237</v>
+        <v>6.72890405361908</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.04362356867412</v>
+        <v>7.1040353764231</v>
       </c>
       <c r="J14" t="n">
-        <v>-9.58004188830811</v>
+        <v>6.82019106549348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.2571929858288</v>
+        <v>-5.19944088231792</v>
       </c>
       <c r="B15" t="n">
-        <v>11.1204561225415</v>
+        <v>-5.08599060160583</v>
       </c>
       <c r="C15" t="n">
-        <v>12.3595175475068</v>
+        <v>-5.49323514774228</v>
       </c>
       <c r="D15" t="n">
-        <v>13.9667368146119</v>
+        <v>-6.58572476179021</v>
       </c>
       <c r="E15" t="n">
-        <v>5.37690179145763</v>
+        <v>-7.37917525569022</v>
       </c>
       <c r="F15" t="n">
-        <v>5.47433439367075</v>
+        <v>-7.67654577367875</v>
       </c>
       <c r="G15" t="n">
-        <v>5.14484480409984</v>
+        <v>-8.21970780431562</v>
       </c>
       <c r="H15" t="n">
-        <v>5.76348358833997</v>
+        <v>-8.54644223564484</v>
       </c>
       <c r="I15" t="n">
-        <v>6.84097866153073</v>
+        <v>-9.03164054367651</v>
       </c>
       <c r="J15" t="n">
-        <v>6.37603361836066</v>
+        <v>18.498538941233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.64325498939571</v>
+        <v>3.181157490807</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.59143781539835</v>
+        <v>3.91205017423291</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.78332342760886</v>
+        <v>2.75884451963228</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.16887158721365</v>
+        <v>4.26680636853868</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.09477134569805</v>
+        <v>4.71084944729642</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.77068180335427</v>
+        <v>4.76779469569415</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.18673646259716</v>
+        <v>5.68426318626724</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.91332420902668</v>
+        <v>5.68250831201526</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.84199706744318</v>
+        <v>6.20070168099936</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.53550909346938</v>
+        <v>7.05588551301567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.3563835546295</v>
+        <v>-4.63856435811019</v>
       </c>
       <c r="B17" t="n">
-        <v>11.9703924935504</v>
+        <v>-5.6041866747947</v>
       </c>
       <c r="C17" t="n">
-        <v>12.889653989744</v>
+        <v>-5.89273556623041</v>
       </c>
       <c r="D17" t="n">
-        <v>13.0560523225671</v>
+        <v>-6.47826590403567</v>
       </c>
       <c r="E17" t="n">
-        <v>13.41186513857</v>
+        <v>-7.56365617723873</v>
       </c>
       <c r="F17" t="n">
-        <v>15.2267634067697</v>
+        <v>-7.33542522678359</v>
       </c>
       <c r="G17" t="n">
-        <v>16.7860624526139</v>
+        <v>-7.6796094028498</v>
       </c>
       <c r="H17" t="n">
-        <v>15.9480012707548</v>
+        <v>5.7170234554771</v>
       </c>
       <c r="I17" t="n">
-        <v>17.9598382021741</v>
+        <v>7.04649786798649</v>
       </c>
       <c r="J17" t="n">
-        <v>19.8980866908867</v>
+        <v>7.27733389862652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.54571780602514</v>
+        <v>-5.13080707110466</v>
       </c>
       <c r="B18" t="n">
-        <v>11.7878365883467</v>
+        <v>-5.46310592793211</v>
       </c>
       <c r="C18" t="n">
-        <v>13.0084281759997</v>
+        <v>-6.10543336065049</v>
       </c>
       <c r="D18" t="n">
-        <v>12.5051466559087</v>
+        <v>-6.38095561040739</v>
       </c>
       <c r="E18" t="n">
-        <v>13.5592409880914</v>
+        <v>-6.63169122637672</v>
       </c>
       <c r="F18" t="n">
-        <v>14.9048251892735</v>
+        <v>-7.59623882350713</v>
       </c>
       <c r="G18" t="n">
-        <v>16.7452436268782</v>
+        <v>-8.06593879539451</v>
       </c>
       <c r="H18" t="n">
-        <v>5.00429768581121</v>
+        <v>-8.2459769018439</v>
       </c>
       <c r="I18" t="n">
-        <v>6.47051436610729</v>
+        <v>-8.94007752476862</v>
       </c>
       <c r="J18" t="n">
-        <v>6.35063080565047</v>
+        <v>-9.24702929878088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.72451742764969</v>
+        <v>9.06033722396616</v>
       </c>
       <c r="B19" t="n">
-        <v>10.200072812402</v>
+        <v>10.0665412325239</v>
       </c>
       <c r="C19" t="n">
-        <v>12.3257037295975</v>
+        <v>12.6559103519407</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.40574004180859</v>
+        <v>13.9870095041016</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.0459243940001</v>
+        <v>15.4285961172418</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.85361941738248</v>
+        <v>16.4109122676866</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.17869894482518</v>
+        <v>16.2952528653593</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.23630224112574</v>
+        <v>18.0792651259937</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.86879665436033</v>
+        <v>18.5851547257179</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.35949843063286</v>
+        <v>19.0669253979211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-4.60117564329551</v>
+        <v>9.75892193851112</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.80886607082641</v>
+        <v>10.749265942652</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.01326006461</v>
+        <v>11.1756334012667</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.57936475249725</v>
+        <v>13.79471084414</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.58224581110109</v>
+        <v>14.0593277543552</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.60041409997054</v>
+        <v>16.4072398330533</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.87470275228962</v>
+        <v>16.2160929492689</v>
       </c>
       <c r="H20" t="n">
-        <v>5.57093704812038</v>
+        <v>16.8503554125801</v>
       </c>
       <c r="I20" t="n">
-        <v>6.28350803373636</v>
+        <v>18.5619888798788</v>
       </c>
       <c r="J20" t="n">
-        <v>7.07536570816224</v>
+        <v>20.2376507353347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.92474014140964</v>
+        <v>2.33106522451087</v>
       </c>
       <c r="B21" t="n">
-        <v>3.43466814710722</v>
+        <v>3.15142471586284</v>
       </c>
       <c r="C21" t="n">
-        <v>3.84830554400101</v>
+        <v>4.02995129754946</v>
       </c>
       <c r="D21" t="n">
-        <v>3.87998509338377</v>
+        <v>4.87228078571587</v>
       </c>
       <c r="E21" t="n">
-        <v>4.47612227217294</v>
+        <v>4.32851756513201</v>
       </c>
       <c r="F21" t="n">
-        <v>5.76161783290405</v>
+        <v>5.21575175310579</v>
       </c>
       <c r="G21" t="n">
-        <v>5.82694238857229</v>
+        <v>5.27422621519237</v>
       </c>
       <c r="H21" t="n">
-        <v>5.44865691539836</v>
+        <v>6.40411574768813</v>
       </c>
       <c r="I21" t="n">
-        <v>6.76915871563049</v>
+        <v>6.9653780300121</v>
       </c>
       <c r="J21" t="n">
-        <v>7.47079303489717</v>
+        <v>6.78078146013762</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.5636426550056</v>
+        <v>11.52602835512</v>
       </c>
       <c r="B22" t="n">
-        <v>11.8406507633417</v>
+        <v>10.3035913998842</v>
       </c>
       <c r="C22" t="n">
-        <v>12.2578704136258</v>
+        <v>12.8559025377928</v>
       </c>
       <c r="D22" t="n">
-        <v>13.3484580259935</v>
+        <v>12.4447913731414</v>
       </c>
       <c r="E22" t="n">
-        <v>14.1768175598383</v>
+        <v>13.6141320946531</v>
       </c>
       <c r="F22" t="n">
-        <v>13.8404841411998</v>
+        <v>13.312746921458</v>
       </c>
       <c r="G22" t="n">
-        <v>16.1259456383266</v>
+        <v>15.670056666336</v>
       </c>
       <c r="H22" t="n">
-        <v>17.1115855235416</v>
+        <v>16.4453507245363</v>
       </c>
       <c r="I22" t="n">
-        <v>18.3530399446837</v>
+        <v>17.5894625963581</v>
       </c>
       <c r="J22" t="n">
-        <v>19.567979303193</v>
+        <v>20.0242536835186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.06032433742675</v>
+        <v>9.98302410814544</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.71674258817493</v>
+        <v>10.5937040269269</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.79198956113542</v>
+        <v>12.2631118564523</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.81478927411984</v>
+        <v>12.5029923198672</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.91277047531521</v>
+        <v>14.2384042708796</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.60338065789547</v>
+        <v>13.8773821967264</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.56336443515529</v>
+        <v>15.8361814178322</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.65086961555414</v>
+        <v>18.6802000931193</v>
       </c>
       <c r="I23" t="n">
-        <v>-9.47224105954423</v>
+        <v>18.2375888782426</v>
       </c>
       <c r="J23" t="n">
-        <v>-9.55283311763589</v>
+        <v>20.4792855492365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.96904918976334</v>
+        <v>2.42960215504378</v>
       </c>
       <c r="B24" t="n">
-        <v>2.64333484400159</v>
+        <v>3.01329287391958</v>
       </c>
       <c r="C24" t="n">
-        <v>3.63281249470862</v>
+        <v>3.4080757439106</v>
       </c>
       <c r="D24" t="n">
-        <v>3.50461029750511</v>
+        <v>12.3619564656384</v>
       </c>
       <c r="E24" t="n">
-        <v>3.97343624490027</v>
+        <v>15.2451760269148</v>
       </c>
       <c r="F24" t="n">
-        <v>5.91590158726419</v>
+        <v>16.5237810137712</v>
       </c>
       <c r="G24" t="n">
-        <v>5.88044951795124</v>
+        <v>15.1138061953875</v>
       </c>
       <c r="H24" t="n">
-        <v>5.77382252647973</v>
+        <v>-8.66245142777931</v>
       </c>
       <c r="I24" t="n">
-        <v>7.43516566308521</v>
+        <v>-9.32838412483196</v>
       </c>
       <c r="J24" t="n">
-        <v>7.37872250378447</v>
+        <v>-9.24392858444571</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.650218537153</v>
+        <v>2.4558114796817</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0526751949283</v>
+        <v>3.66932559993894</v>
       </c>
       <c r="C25" t="n">
-        <v>11.6342534569302</v>
+        <v>3.46335658543908</v>
       </c>
       <c r="D25" t="n">
-        <v>11.7689759269115</v>
+        <v>4.01329124282329</v>
       </c>
       <c r="E25" t="n">
-        <v>12.8972173736908</v>
+        <v>4.34738335655242</v>
       </c>
       <c r="F25" t="n">
-        <v>15.1480602589074</v>
+        <v>5.05453646360027</v>
       </c>
       <c r="G25" t="n">
-        <v>15.9278001515955</v>
+        <v>5.18404975007113</v>
       </c>
       <c r="H25" t="n">
-        <v>17.5980488370324</v>
+        <v>4.96382018200669</v>
       </c>
       <c r="I25" t="n">
-        <v>18.9534579794082</v>
+        <v>6.10901519992427</v>
       </c>
       <c r="J25" t="n">
-        <v>18.8084943271585</v>
+        <v>7.45670864137113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.86590875488932</v>
+        <v>2.60510953607246</v>
       </c>
       <c r="B26" t="n">
-        <v>10.4296454190542</v>
+        <v>3.71055777019495</v>
       </c>
       <c r="C26" t="n">
-        <v>12.0502596020079</v>
+        <v>3.25855869895816</v>
       </c>
       <c r="D26" t="n">
-        <v>13.5574134121063</v>
+        <v>3.56581338580078</v>
       </c>
       <c r="E26" t="n">
-        <v>14.5899179319696</v>
+        <v>4.72623105999584</v>
       </c>
       <c r="F26" t="n">
-        <v>15.0764100887466</v>
+        <v>4.68681606606538</v>
       </c>
       <c r="G26" t="n">
-        <v>16.542359984364</v>
+        <v>6.5932725495578</v>
       </c>
       <c r="H26" t="n">
-        <v>16.6547952279736</v>
+        <v>5.38104063065553</v>
       </c>
       <c r="I26" t="n">
-        <v>18.442530638184</v>
+        <v>6.19085969389315</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.49380071961505</v>
+        <v>7.12398851691093</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.3530240986747</v>
+        <v>-4.68267381569367</v>
       </c>
       <c r="B27" t="n">
-        <v>10.2385636498383</v>
+        <v>-5.46258924763676</v>
       </c>
       <c r="C27" t="n">
-        <v>11.3816674297191</v>
+        <v>-6.18187308333914</v>
       </c>
       <c r="D27" t="n">
-        <v>13.3882160072319</v>
+        <v>-6.37352480173498</v>
       </c>
       <c r="E27" t="n">
-        <v>13.7214709217467</v>
+        <v>-6.75375446149863</v>
       </c>
       <c r="F27" t="n">
-        <v>15.082503145674</v>
+        <v>-7.1514341714152</v>
       </c>
       <c r="G27" t="n">
-        <v>17.2643964174656</v>
+        <v>-7.74208330501566</v>
       </c>
       <c r="H27" t="n">
-        <v>16.9364268238066</v>
+        <v>-8.51494187737236</v>
       </c>
       <c r="I27" t="n">
-        <v>-9.09482685693264</v>
+        <v>-8.73059748013928</v>
       </c>
       <c r="J27" t="n">
-        <v>-10.0010410725362</v>
+        <v>-9.50254650750858</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.0737397240725</v>
+        <v>10.3235390862175</v>
       </c>
       <c r="B28" t="n">
-        <v>10.4079749592852</v>
+        <v>10.5584203043255</v>
       </c>
       <c r="C28" t="n">
-        <v>12.6333705894293</v>
+        <v>10.970003732656</v>
       </c>
       <c r="D28" t="n">
-        <v>11.9657795637602</v>
+        <v>12.8051384553898</v>
       </c>
       <c r="E28" t="n">
-        <v>14.6298559539282</v>
+        <v>14.0917541756465</v>
       </c>
       <c r="F28" t="n">
-        <v>14.8503313358492</v>
+        <v>13.857043229942</v>
       </c>
       <c r="G28" t="n">
-        <v>15.4361604146238</v>
+        <v>16.0630942990544</v>
       </c>
       <c r="H28" t="n">
-        <v>18.0234334098809</v>
+        <v>16.8017522435172</v>
       </c>
       <c r="I28" t="n">
-        <v>18.9948968901741</v>
+        <v>16.7438099704831</v>
       </c>
       <c r="J28" t="n">
-        <v>19.065519630888</v>
+        <v>19.0654155207173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.41642824205047</v>
+        <v>9.07115022012704</v>
       </c>
       <c r="B29" t="n">
-        <v>9.66840264763153</v>
+        <v>11.5514246680197</v>
       </c>
       <c r="C29" t="n">
-        <v>11.8724804413141</v>
+        <v>12.2858081340226</v>
       </c>
       <c r="D29" t="n">
-        <v>13.6569289862404</v>
+        <v>14.0263583180753</v>
       </c>
       <c r="E29" t="n">
-        <v>12.8415820667765</v>
+        <v>13.6560465980806</v>
       </c>
       <c r="F29" t="n">
-        <v>16.0390128534216</v>
+        <v>-7.2511564057134</v>
       </c>
       <c r="G29" t="n">
-        <v>15.9182197360463</v>
+        <v>-8.21601230406339</v>
       </c>
       <c r="H29" t="n">
-        <v>16.5835846246484</v>
+        <v>-8.50967420638772</v>
       </c>
       <c r="I29" t="n">
-        <v>6.9387936078545</v>
+        <v>-9.26664478364228</v>
       </c>
       <c r="J29" t="n">
-        <v>8.25331234069742</v>
+        <v>-9.49252531794169</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.14834437664696</v>
+        <v>-4.896601660954</v>
       </c>
       <c r="B30" t="n">
-        <v>3.17521294133673</v>
+        <v>-5.56361998686325</v>
       </c>
       <c r="C30" t="n">
-        <v>2.62594008922686</v>
+        <v>-6.52972314097979</v>
       </c>
       <c r="D30" t="n">
-        <v>5.51453480643295</v>
+        <v>-6.46195265047153</v>
       </c>
       <c r="E30" t="n">
-        <v>4.87963494934973</v>
+        <v>-7.00205305701128</v>
       </c>
       <c r="F30" t="n">
-        <v>5.11052696926542</v>
+        <v>-7.37617278728645</v>
       </c>
       <c r="G30" t="n">
-        <v>5.41421925883073</v>
+        <v>-7.68096848308085</v>
       </c>
       <c r="H30" t="n">
-        <v>6.23639079074389</v>
+        <v>-7.8748226349378</v>
       </c>
       <c r="I30" t="n">
-        <v>7.16005390778211</v>
+        <v>-9.01710473338145</v>
       </c>
       <c r="J30" t="n">
-        <v>6.85815263029678</v>
+        <v>-9.71451086005172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.99117851919476</v>
+        <v>9.5096919477053</v>
       </c>
       <c r="B31" t="n">
-        <v>3.2075623000752</v>
+        <v>11.2866003414503</v>
       </c>
       <c r="C31" t="n">
-        <v>4.34450066025221</v>
+        <v>10.6701797467019</v>
       </c>
       <c r="D31" t="n">
-        <v>3.45350388928273</v>
+        <v>13.3487184156729</v>
       </c>
       <c r="E31" t="n">
-        <v>5.13701385549251</v>
+        <v>12.9814682235921</v>
       </c>
       <c r="F31" t="n">
-        <v>5.45083871951324</v>
+        <v>15.6891110034297</v>
       </c>
       <c r="G31" t="n">
-        <v>4.9599633571444</v>
+        <v>16.4653384540084</v>
       </c>
       <c r="H31" t="n">
-        <v>6.10121117309337</v>
+        <v>18.2630827903089</v>
       </c>
       <c r="I31" t="n">
-        <v>6.13664176812456</v>
+        <v>16.9608133234668</v>
       </c>
       <c r="J31" t="n">
-        <v>6.74690043425482</v>
+        <v>18.8290923671299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.6430566278169</v>
+        <v>10.4076844883294</v>
       </c>
       <c r="B32" t="n">
-        <v>11.4838141745201</v>
+        <v>9.97644189659336</v>
       </c>
       <c r="C32" t="n">
-        <v>13.2822478862857</v>
+        <v>11.6489370905228</v>
       </c>
       <c r="D32" t="n">
-        <v>13.1822661521738</v>
+        <v>13.4908892568673</v>
       </c>
       <c r="E32" t="n">
-        <v>13.4306983170725</v>
+        <v>13.2087090320131</v>
       </c>
       <c r="F32" t="n">
-        <v>15.728301727854</v>
+        <v>15.0751366399689</v>
       </c>
       <c r="G32" t="n">
-        <v>17.2243867864442</v>
+        <v>15.9633822477413</v>
       </c>
       <c r="H32" t="n">
-        <v>18.063842751897</v>
+        <v>16.8602182249257</v>
       </c>
       <c r="I32" t="n">
-        <v>-9.56662822523415</v>
+        <v>18.4370100484075</v>
       </c>
       <c r="J32" t="n">
-        <v>-9.04120599074375</v>
+        <v>19.1960783806099</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.9489916695771</v>
+        <v>-4.99683412793689</v>
       </c>
       <c r="B33" t="n">
-        <v>10.8432838093906</v>
+        <v>-5.62807544594216</v>
       </c>
       <c r="C33" t="n">
-        <v>13.3967675374601</v>
+        <v>-6.91633920169172</v>
       </c>
       <c r="D33" t="n">
-        <v>13.4819509587343</v>
+        <v>3.60758511683472</v>
       </c>
       <c r="E33" t="n">
-        <v>14.1090115889123</v>
+        <v>4.13307843148071</v>
       </c>
       <c r="F33" t="n">
-        <v>14.4991958945081</v>
+        <v>4.81063540224518</v>
       </c>
       <c r="G33" t="n">
-        <v>17.2054935123608</v>
+        <v>5.33014147500146</v>
       </c>
       <c r="H33" t="n">
-        <v>17.6869821131599</v>
+        <v>5.83432072472865</v>
       </c>
       <c r="I33" t="n">
-        <v>17.6001451229855</v>
+        <v>6.76518848577807</v>
       </c>
       <c r="J33" t="n">
-        <v>18.5058940482712</v>
+        <v>6.82050227882989</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.23350094468607</v>
+        <v>10.0914789357949</v>
       </c>
       <c r="B34" t="n">
-        <v>2.91661429931364</v>
+        <v>3.52023381134876</v>
       </c>
       <c r="C34" t="n">
-        <v>2.7091411299098</v>
+        <v>4.23742346457536</v>
       </c>
       <c r="D34" t="n">
-        <v>3.96427252574606</v>
+        <v>3.70823142966132</v>
       </c>
       <c r="E34" t="n">
-        <v>4.38313500351458</v>
+        <v>4.01113349103704</v>
       </c>
       <c r="F34" t="n">
-        <v>4.58641691096213</v>
+        <v>4.97704033365744</v>
       </c>
       <c r="G34" t="n">
-        <v>4.76215717676665</v>
+        <v>5.91047101447739</v>
       </c>
       <c r="H34" t="n">
-        <v>6.4424588121622</v>
+        <v>5.49352856265619</v>
       </c>
       <c r="I34" t="n">
-        <v>6.35044810151685</v>
+        <v>18.1737088848511</v>
       </c>
       <c r="J34" t="n">
-        <v>7.23996856559796</v>
+        <v>19.3740152446493</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-4.93010652886122</v>
+        <v>1.87510317951788</v>
       </c>
       <c r="B35" t="n">
-        <v>3.89580924441675</v>
+        <v>3.33431263645937</v>
       </c>
       <c r="C35" t="n">
-        <v>3.70993052796368</v>
+        <v>2.57729464480182</v>
       </c>
       <c r="D35" t="n">
-        <v>3.94946715786396</v>
+        <v>4.44762861892815</v>
       </c>
       <c r="E35" t="n">
-        <v>4.19794715431965</v>
+        <v>4.83927051270783</v>
       </c>
       <c r="F35" t="n">
-        <v>4.45277483882403</v>
+        <v>5.00475092485556</v>
       </c>
       <c r="G35" t="n">
-        <v>5.6307752332898</v>
+        <v>5.16465523219906</v>
       </c>
       <c r="H35" t="n">
-        <v>5.42079905695476</v>
+        <v>5.65064019904897</v>
       </c>
       <c r="I35" t="n">
-        <v>6.92230814878175</v>
+        <v>6.82463549580241</v>
       </c>
       <c r="J35" t="n">
-        <v>7.2678151909494</v>
+        <v>6.75184877622918</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.78259516130714</v>
+        <v>2.572929508866</v>
       </c>
       <c r="B36" t="n">
-        <v>2.87832008280604</v>
+        <v>3.48502893384669</v>
       </c>
       <c r="C36" t="n">
-        <v>2.79990940069669</v>
+        <v>3.55503240807843</v>
       </c>
       <c r="D36" t="n">
-        <v>3.79814654719331</v>
+        <v>3.55717574398504</v>
       </c>
       <c r="E36" t="n">
-        <v>4.90842832381996</v>
+        <v>4.32401193078194</v>
       </c>
       <c r="F36" t="n">
-        <v>4.35358092273849</v>
+        <v>5.11613922425301</v>
       </c>
       <c r="G36" t="n">
-        <v>4.96050887544189</v>
+        <v>5.68133643864752</v>
       </c>
       <c r="H36" t="n">
-        <v>5.28259646439799</v>
+        <v>5.60761411255795</v>
       </c>
       <c r="I36" t="n">
-        <v>6.65278230365588</v>
+        <v>6.5058306864614</v>
       </c>
       <c r="J36" t="n">
-        <v>6.44077606463913</v>
+        <v>6.99122673762272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.94176953250008</v>
+        <v>10.1957130234834</v>
       </c>
       <c r="B37" t="n">
-        <v>9.51875636185827</v>
+        <v>11.9500913071746</v>
       </c>
       <c r="C37" t="n">
-        <v>12.3204801914086</v>
+        <v>11.9854332962986</v>
       </c>
       <c r="D37" t="n">
-        <v>12.4195704065586</v>
+        <v>12.1903900602758</v>
       </c>
       <c r="E37" t="n">
-        <v>13.3017669672645</v>
+        <v>13.3904980763196</v>
       </c>
       <c r="F37" t="n">
-        <v>14.4369530508511</v>
+        <v>14.6223215221536</v>
       </c>
       <c r="G37" t="n">
-        <v>-8.11300495502498</v>
+        <v>15.4052124485336</v>
       </c>
       <c r="H37" t="n">
-        <v>-8.19976075081047</v>
+        <v>17.939015833686</v>
       </c>
       <c r="I37" t="n">
-        <v>-8.69799765755958</v>
+        <v>17.7958587752961</v>
       </c>
       <c r="J37" t="n">
-        <v>-9.36645960213853</v>
+        <v>20.3329992608972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-4.6069646404327</v>
+        <v>-5.27182231915316</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.46672994607901</v>
+        <v>-5.41037052980664</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.29445456927938</v>
+        <v>-6.25197773376548</v>
       </c>
       <c r="D38" t="n">
-        <v>12.6975389471575</v>
+        <v>-6.69812779352702</v>
       </c>
       <c r="E38" t="n">
-        <v>12.9077097331629</v>
+        <v>-7.6303741300058</v>
       </c>
       <c r="F38" t="n">
-        <v>15.3911010563106</v>
+        <v>-7.55460325790512</v>
       </c>
       <c r="G38" t="n">
-        <v>15.8518305662304</v>
+        <v>-7.95058492698649</v>
       </c>
       <c r="H38" t="n">
-        <v>18.249876081629</v>
+        <v>-8.36804043645667</v>
       </c>
       <c r="I38" t="n">
-        <v>17.077782131649</v>
+        <v>-9.14804083592903</v>
       </c>
       <c r="J38" t="n">
-        <v>18.5621664719746</v>
+        <v>-9.50821835898061</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.820383361131</v>
+        <v>-5.17498852534202</v>
       </c>
       <c r="B39" t="n">
-        <v>10.8927060084086</v>
+        <v>-5.9652092602914</v>
       </c>
       <c r="C39" t="n">
-        <v>12.71128083568</v>
+        <v>-5.51477222076953</v>
       </c>
       <c r="D39" t="n">
-        <v>13.383445351465</v>
+        <v>-6.46559985839892</v>
       </c>
       <c r="E39" t="n">
-        <v>14.1328714619005</v>
+        <v>-7.21814386418449</v>
       </c>
       <c r="F39" t="n">
-        <v>15.9578159490862</v>
+        <v>-7.41340202090503</v>
       </c>
       <c r="G39" t="n">
-        <v>16.6431705237597</v>
+        <v>-8.39525080813651</v>
       </c>
       <c r="H39" t="n">
-        <v>17.3359130759999</v>
+        <v>-8.86799471580996</v>
       </c>
       <c r="I39" t="n">
-        <v>17.3283009156085</v>
+        <v>-9.05467342761415</v>
       </c>
       <c r="J39" t="n">
-        <v>18.1635889215848</v>
+        <v>-10.1976144072243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.82620574711767</v>
+        <v>-4.68539110852759</v>
       </c>
       <c r="B40" t="n">
-        <v>11.2401663421431</v>
+        <v>-5.432370163584</v>
       </c>
       <c r="C40" t="n">
-        <v>12.0602910638059</v>
+        <v>-6.17286985405497</v>
       </c>
       <c r="D40" t="n">
-        <v>12.5150801263652</v>
+        <v>13.2409805141993</v>
       </c>
       <c r="E40" t="n">
-        <v>12.4015218783801</v>
+        <v>4.94044629696873</v>
       </c>
       <c r="F40" t="n">
-        <v>15.6661405177194</v>
+        <v>5.84699511817355</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.9071506696844</v>
+        <v>4.54750055957834</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.32569320231637</v>
+        <v>5.54006537134478</v>
       </c>
       <c r="I40" t="n">
-        <v>-8.7370038075869</v>
+        <v>6.94238476533601</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.42247305014184</v>
+        <v>6.61050243690863</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-4.79788771445819</v>
+        <v>9.45872317945873</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.26500027026414</v>
+        <v>10.9753285013929</v>
       </c>
       <c r="C41" t="n">
-        <v>-5.8566696100674</v>
+        <v>12.7272088136106</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.69574771761426</v>
+        <v>12.3948833310757</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.87547481972405</v>
+        <v>13.92931322417</v>
       </c>
       <c r="F41" t="n">
-        <v>-7.26126777714815</v>
+        <v>14.6113991261104</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.71075789079318</v>
+        <v>17.0023548605707</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.66582167202428</v>
+        <v>15.5973331081384</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.11553688253507</v>
+        <v>17.7245945987304</v>
       </c>
       <c r="J41" t="n">
-        <v>-9.5666522315685</v>
+        <v>18.7011684159022</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.9097429752275</v>
+        <v>8.69945568850371</v>
       </c>
       <c r="B42" t="n">
-        <v>9.59661388101388</v>
+        <v>10.9704399859759</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1759254969081</v>
+        <v>11.5512484316511</v>
       </c>
       <c r="D42" t="n">
-        <v>12.5132140949571</v>
+        <v>12.4146778689011</v>
       </c>
       <c r="E42" t="n">
-        <v>4.41239180439941</v>
+        <v>15.1594411263181</v>
       </c>
       <c r="F42" t="n">
-        <v>5.3860960153497</v>
+        <v>14.7357521251357</v>
       </c>
       <c r="G42" t="n">
-        <v>6.31738471114841</v>
+        <v>15.6364701467936</v>
       </c>
       <c r="H42" t="n">
-        <v>5.96210421293181</v>
+        <v>16.8285786484037</v>
       </c>
       <c r="I42" t="n">
-        <v>5.35890702718496</v>
+        <v>18.1304187456697</v>
       </c>
       <c r="J42" t="n">
-        <v>7.02885755691691</v>
+        <v>18.3747003129878</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-5.32128791894625</v>
+        <v>11.7042689712923</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.77965783980083</v>
+        <v>11.7875774904593</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.14364603909117</v>
+        <v>12.701384934603</v>
       </c>
       <c r="D43" t="n">
-        <v>-6.60459296186905</v>
+        <v>12.4675826949314</v>
       </c>
       <c r="E43" t="n">
-        <v>-6.83065279987122</v>
+        <v>14.3681343554574</v>
       </c>
       <c r="F43" t="n">
-        <v>-7.86943884419971</v>
+        <v>14.42535008826</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.94840924190118</v>
+        <v>16.4542967076446</v>
       </c>
       <c r="H43" t="n">
-        <v>-8.59401931110536</v>
+        <v>17.2461503526781</v>
       </c>
       <c r="I43" t="n">
-        <v>-9.215730287174</v>
+        <v>17.4255790550263</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.52493213479678</v>
+        <v>18.5310911573781</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.563228489187</v>
+        <v>-4.79764110391178</v>
       </c>
       <c r="B44" t="n">
-        <v>10.9965434600941</v>
+        <v>-5.715281103407</v>
       </c>
       <c r="C44" t="n">
-        <v>12.4540299278875</v>
+        <v>-6.1909038428848</v>
       </c>
       <c r="D44" t="n">
-        <v>13.5372830907955</v>
+        <v>-6.06552885929476</v>
       </c>
       <c r="E44" t="n">
-        <v>14.8811270850564</v>
+        <v>-6.88474783969289</v>
       </c>
       <c r="F44" t="n">
-        <v>14.30371347007</v>
+        <v>-7.7008368706076</v>
       </c>
       <c r="G44" t="n">
-        <v>15.0577140290617</v>
+        <v>-8.01354523288774</v>
       </c>
       <c r="H44" t="n">
-        <v>15.8788108232467</v>
+        <v>-8.78221364196736</v>
       </c>
       <c r="I44" t="n">
-        <v>17.0534931094049</v>
+        <v>-9.02727035307867</v>
       </c>
       <c r="J44" t="n">
-        <v>6.83069171794754</v>
+        <v>-9.51153599943797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.0847985636388</v>
+        <v>9.16967755419262</v>
       </c>
       <c r="B45" t="n">
-        <v>-5.3544695235554</v>
+        <v>10.4541347659271</v>
       </c>
       <c r="C45" t="n">
-        <v>-6.15249356992988</v>
+        <v>12.4028055103637</v>
       </c>
       <c r="D45" t="n">
-        <v>-6.49957278789358</v>
+        <v>13.580731860222</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.98267856792226</v>
+        <v>12.8354559593329</v>
       </c>
       <c r="F45" t="n">
-        <v>-7.51524791803715</v>
+        <v>15.4141626973181</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.58579836546697</v>
+        <v>14.962288970485</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.56035723996663</v>
+        <v>17.1673954456353</v>
       </c>
       <c r="I45" t="n">
-        <v>-8.66894865723081</v>
+        <v>17.2318258065372</v>
       </c>
       <c r="J45" t="n">
-        <v>-9.12627267388886</v>
+        <v>18.8705302281517</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.03717810487029</v>
+        <v>-4.83871206522866</v>
       </c>
       <c r="B46" t="n">
-        <v>3.28467330184215</v>
+        <v>-5.89498528887412</v>
       </c>
       <c r="C46" t="n">
-        <v>2.82699621109956</v>
+        <v>-6.11476045007642</v>
       </c>
       <c r="D46" t="n">
-        <v>4.12251682274129</v>
+        <v>-6.66875547309604</v>
       </c>
       <c r="E46" t="n">
-        <v>5.0235639933565</v>
+        <v>-6.60600636837477</v>
       </c>
       <c r="F46" t="n">
-        <v>4.47323170943664</v>
+        <v>-7.61262796002412</v>
       </c>
       <c r="G46" t="n">
-        <v>5.97607043699876</v>
+        <v>-7.63190924330416</v>
       </c>
       <c r="H46" t="n">
-        <v>6.00736003839799</v>
+        <v>-8.64177387943344</v>
       </c>
       <c r="I46" t="n">
-        <v>7.08828962426121</v>
+        <v>-8.93372716322476</v>
       </c>
       <c r="J46" t="n">
-        <v>6.40116592142889</v>
+        <v>-9.74697154263578</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.59332889816973</v>
+        <v>2.65674831595185</v>
       </c>
       <c r="B47" t="n">
-        <v>11.2178542721587</v>
+        <v>3.10785485652283</v>
       </c>
       <c r="C47" t="n">
-        <v>3.08153451409665</v>
+        <v>3.43928921377504</v>
       </c>
       <c r="D47" t="n">
-        <v>4.27608949118805</v>
+        <v>2.89491179875872</v>
       </c>
       <c r="E47" t="n">
-        <v>5.04978210204132</v>
+        <v>4.72177360173633</v>
       </c>
       <c r="F47" t="n">
-        <v>5.07241668752558</v>
+        <v>5.1706698696963</v>
       </c>
       <c r="G47" t="n">
-        <v>5.18641261287603</v>
+        <v>6.14263317015697</v>
       </c>
       <c r="H47" t="n">
-        <v>5.29014793038402</v>
+        <v>5.06205411041081</v>
       </c>
       <c r="I47" t="n">
-        <v>7.16832011049042</v>
+        <v>7.19875358925786</v>
       </c>
       <c r="J47" t="n">
-        <v>6.61630230991163</v>
+        <v>8.05154502027408</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.0497454235975</v>
+        <v>9.83431787340355</v>
       </c>
       <c r="B48" t="n">
-        <v>10.6889709122386</v>
+        <v>10.1555488132043</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.23621972250327</v>
+        <v>11.9535131716277</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.42198963320562</v>
+        <v>13.7243778584004</v>
       </c>
       <c r="E48" t="n">
-        <v>-6.6920827156705</v>
+        <v>14.7649760217588</v>
       </c>
       <c r="F48" t="n">
-        <v>-7.39351507582694</v>
+        <v>14.7946452255595</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.51083991726613</v>
+        <v>17.1323112102089</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.72348053745251</v>
+        <v>17.5252036485106</v>
       </c>
       <c r="I48" t="n">
-        <v>-8.72392351750461</v>
+        <v>17.5024881455518</v>
       </c>
       <c r="J48" t="n">
-        <v>-9.69789357266695</v>
+        <v>18.7952876228828</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.908580211788</v>
+        <v>2.53883144475769</v>
       </c>
       <c r="B49" t="n">
-        <v>11.8411967029224</v>
+        <v>3.22953745334077</v>
       </c>
       <c r="C49" t="n">
-        <v>11.3908523139496</v>
+        <v>3.91458903239498</v>
       </c>
       <c r="D49" t="n">
-        <v>4.04219660114346</v>
+        <v>4.57868600231453</v>
       </c>
       <c r="E49" t="n">
-        <v>4.25590163277619</v>
+        <v>4.87710841659383</v>
       </c>
       <c r="F49" t="n">
-        <v>5.89436985929464</v>
+        <v>5.05420673894001</v>
       </c>
       <c r="G49" t="n">
-        <v>5.72325413520231</v>
+        <v>5.38168708301286</v>
       </c>
       <c r="H49" t="n">
-        <v>5.77270674007192</v>
+        <v>5.63054119366717</v>
       </c>
       <c r="I49" t="n">
-        <v>7.16998268289646</v>
+        <v>7.24144324825579</v>
       </c>
       <c r="J49" t="n">
-        <v>7.1830013112641</v>
+        <v>7.41919498598838</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.91692253137481</v>
+        <v>-4.71031313198116</v>
       </c>
       <c r="B50" t="n">
-        <v>3.33330532225865</v>
+        <v>10.5000662587214</v>
       </c>
       <c r="C50" t="n">
-        <v>3.64457768180011</v>
+        <v>11.6089980675311</v>
       </c>
       <c r="D50" t="n">
-        <v>3.82586337099904</v>
+        <v>11.9856313433503</v>
       </c>
       <c r="E50" t="n">
-        <v>4.81786675632683</v>
+        <v>14.1363445106128</v>
       </c>
       <c r="F50" t="n">
-        <v>5.05600305544605</v>
+        <v>15.5342232081947</v>
       </c>
       <c r="G50" t="n">
-        <v>5.84511330625212</v>
+        <v>15.7709124515372</v>
       </c>
       <c r="H50" t="n">
-        <v>5.44152148585665</v>
+        <v>17.1037120642613</v>
       </c>
       <c r="I50" t="n">
-        <v>6.82035774038805</v>
+        <v>16.8707880015675</v>
       </c>
       <c r="J50" t="n">
-        <v>6.90037268360123</v>
+        <v>19.7251786046235</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.46986955595451</v>
+        <v>9.03891058303203</v>
       </c>
       <c r="B51" t="n">
-        <v>10.6137185464718</v>
+        <v>11.2970360259119</v>
       </c>
       <c r="C51" t="n">
-        <v>11.3955537955693</v>
+        <v>12.1271028266357</v>
       </c>
       <c r="D51" t="n">
-        <v>13.0865725789901</v>
+        <v>11.8195448643245</v>
       </c>
       <c r="E51" t="n">
-        <v>15.3978746772811</v>
+        <v>-6.81513744200653</v>
       </c>
       <c r="F51" t="n">
-        <v>13.5840588422106</v>
+        <v>-7.86504679397869</v>
       </c>
       <c r="G51" t="n">
-        <v>16.3886212018314</v>
+        <v>-8.21793026444682</v>
       </c>
       <c r="H51" t="n">
-        <v>17.7284130194166</v>
+        <v>-8.52451856644168</v>
       </c>
       <c r="I51" t="n">
-        <v>17.4334167496572</v>
+        <v>-8.635334950796</v>
       </c>
       <c r="J51" t="n">
-        <v>19.1488046685316</v>
+        <v>-9.18627829434474</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.1287813950076</v>
+        <v>10.1081843339632</v>
       </c>
       <c r="B52" t="n">
-        <v>3.40137404986804</v>
+        <v>10.6675096168038</v>
       </c>
       <c r="C52" t="n">
-        <v>4.80636778220716</v>
+        <v>11.6015552463135</v>
       </c>
       <c r="D52" t="n">
-        <v>3.8112755257058</v>
+        <v>12.7165514428424</v>
       </c>
       <c r="E52" t="n">
-        <v>4.89166173048681</v>
+        <v>13.4981758995987</v>
       </c>
       <c r="F52" t="n">
-        <v>5.99718454274774</v>
+        <v>14.7830756192712</v>
       </c>
       <c r="G52" t="n">
-        <v>4.9357552869704</v>
+        <v>16.2534826394357</v>
       </c>
       <c r="H52" t="n">
-        <v>6.40210541059956</v>
+        <v>17.8663820908301</v>
       </c>
       <c r="I52" t="n">
-        <v>6.36228485301285</v>
+        <v>17.3750184259001</v>
       </c>
       <c r="J52" t="n">
-        <v>7.7802278597246</v>
+        <v>19.5295623654351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.2665482865206</v>
+        <v>-4.99664953611788</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.45539557287743</v>
+        <v>-5.30749366068031</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.99694270112198</v>
+        <v>-5.86532361508012</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.14507785825168</v>
+        <v>-6.7841852653023</v>
       </c>
       <c r="E53" t="n">
-        <v>-7.02136499186413</v>
+        <v>-7.79526803253467</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.52580708105865</v>
+        <v>-7.73758254244014</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.59291033087805</v>
+        <v>-8.20217498466956</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.72334990684883</v>
+        <v>-8.38288499804972</v>
       </c>
       <c r="I53" t="n">
-        <v>-8.91229494687242</v>
+        <v>-9.25874567585549</v>
       </c>
       <c r="J53" t="n">
-        <v>-9.56120964002278</v>
+        <v>-9.15815925217577</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.11124397168041</v>
+        <v>9.64804182451334</v>
       </c>
       <c r="B54" t="n">
-        <v>10.5111041295</v>
+        <v>11.3111138554418</v>
       </c>
       <c r="C54" t="n">
-        <v>12.0444066000729</v>
+        <v>11.3341113325066</v>
       </c>
       <c r="D54" t="n">
-        <v>12.659136132585</v>
+        <v>12.6871356562675</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.07287895592292</v>
+        <v>14.7730305500533</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.25449260472295</v>
+        <v>15.7985379175595</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.312008138892</v>
+        <v>15.8995712413432</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.88340309147811</v>
+        <v>16.0924078511106</v>
       </c>
       <c r="I54" t="n">
-        <v>-8.95545334507907</v>
+        <v>6.86783085985446</v>
       </c>
       <c r="J54" t="n">
-        <v>-9.78101932959372</v>
+        <v>7.05441952866768</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8.85717974673461</v>
+        <v>-5.20276328842317</v>
       </c>
       <c r="B55" t="n">
-        <v>10.016646260839</v>
+        <v>-5.54652425248251</v>
       </c>
       <c r="C55" t="n">
-        <v>10.7482983351497</v>
+        <v>-5.60057876189001</v>
       </c>
       <c r="D55" t="n">
-        <v>12.6619033966673</v>
+        <v>-6.23982711891885</v>
       </c>
       <c r="E55" t="n">
-        <v>14.0965637354847</v>
+        <v>-6.70054165099258</v>
       </c>
       <c r="F55" t="n">
-        <v>16.1233812051283</v>
+        <v>-7.08893907677257</v>
       </c>
       <c r="G55" t="n">
-        <v>18.184264787365</v>
+        <v>-7.90687680697564</v>
       </c>
       <c r="H55" t="n">
-        <v>16.8445705444398</v>
+        <v>-8.32480652548546</v>
       </c>
       <c r="I55" t="n">
-        <v>18.3881073821893</v>
+        <v>-9.07911397224073</v>
       </c>
       <c r="J55" t="n">
-        <v>18.7435825534519</v>
+        <v>-9.8130652505766</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.8031400696526</v>
+        <v>9.8528355472843</v>
       </c>
       <c r="B56" t="n">
-        <v>10.7663092240098</v>
+        <v>11.1810428825734</v>
       </c>
       <c r="C56" t="n">
-        <v>12.1322896677209</v>
+        <v>12.0009337068542</v>
       </c>
       <c r="D56" t="n">
-        <v>13.4959184350827</v>
+        <v>11.6629481732617</v>
       </c>
       <c r="E56" t="n">
-        <v>14.0235232410837</v>
+        <v>13.9907450910846</v>
       </c>
       <c r="F56" t="n">
-        <v>15.0148241791775</v>
+        <v>14.3274712829361</v>
       </c>
       <c r="G56" t="n">
-        <v>15.0787079207613</v>
+        <v>16.7266502105859</v>
       </c>
       <c r="H56" t="n">
-        <v>16.3575641551436</v>
+        <v>16.4348206696433</v>
       </c>
       <c r="I56" t="n">
-        <v>17.0832310260889</v>
+        <v>18.4887856888226</v>
       </c>
       <c r="J56" t="n">
-        <v>19.3995869552974</v>
+        <v>19.6292422181091</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10.1039966038083</v>
+        <v>-4.8867432069424</v>
       </c>
       <c r="B57" t="n">
-        <v>10.9075068655977</v>
+        <v>-5.27283579570546</v>
       </c>
       <c r="C57" t="n">
-        <v>11.5319214083518</v>
+        <v>-6.32499628557358</v>
       </c>
       <c r="D57" t="n">
-        <v>14.2827529420836</v>
+        <v>-6.54229943511169</v>
       </c>
       <c r="E57" t="n">
-        <v>13.5730113230975</v>
+        <v>-6.83672097562595</v>
       </c>
       <c r="F57" t="n">
-        <v>-7.26621380592183</v>
+        <v>-7.72795842572982</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.85674454409894</v>
+        <v>-7.75067131825385</v>
       </c>
       <c r="H57" t="n">
-        <v>-8.82864504427171</v>
+        <v>-8.20220065868713</v>
       </c>
       <c r="I57" t="n">
-        <v>-8.70130478697966</v>
+        <v>-9.01052021949245</v>
       </c>
       <c r="J57" t="n">
-        <v>-9.51505153490174</v>
+        <v>-9.69504990795699</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.47363842637433</v>
+        <v>-4.87051349073871</v>
       </c>
       <c r="B58" t="n">
-        <v>2.83111902649075</v>
+        <v>-5.39738350197268</v>
       </c>
       <c r="C58" t="n">
-        <v>3.08219050370901</v>
+        <v>-6.41527569510748</v>
       </c>
       <c r="D58" t="n">
-        <v>2.88708447206772</v>
+        <v>3.99402906946904</v>
       </c>
       <c r="E58" t="n">
-        <v>4.99422770949013</v>
+        <v>5.0378635503441</v>
       </c>
       <c r="F58" t="n">
-        <v>4.62024587026048</v>
+        <v>4.21735079586879</v>
       </c>
       <c r="G58" t="n">
-        <v>5.18644561051782</v>
+        <v>4.27250739765333</v>
       </c>
       <c r="H58" t="n">
-        <v>4.49797991682983</v>
+        <v>6.08099401772176</v>
       </c>
       <c r="I58" t="n">
-        <v>7.10655736365836</v>
+        <v>6.57026004196021</v>
       </c>
       <c r="J58" t="n">
-        <v>6.69220364291776</v>
+        <v>6.49932242805922</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.96978736258651</v>
+        <v>2.09171719384854</v>
       </c>
       <c r="B59" t="n">
-        <v>11.8085477132279</v>
+        <v>3.35950677990714</v>
       </c>
       <c r="C59" t="n">
-        <v>13.1700368836146</v>
+        <v>3.46299517339959</v>
       </c>
       <c r="D59" t="n">
-        <v>12.5575187297098</v>
+        <v>3.29791883215063</v>
       </c>
       <c r="E59" t="n">
-        <v>15.5900554754752</v>
+        <v>4.09693759440397</v>
       </c>
       <c r="F59" t="n">
-        <v>16.9619409098255</v>
+        <v>5.77112038360583</v>
       </c>
       <c r="G59" t="n">
-        <v>15.8766040972485</v>
+        <v>5.41460043316285</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.09344377526257</v>
+        <v>6.59449462823259</v>
       </c>
       <c r="I59" t="n">
-        <v>-9.28970423398961</v>
+        <v>6.63917852683183</v>
       </c>
       <c r="J59" t="n">
-        <v>-9.42818755274323</v>
+        <v>6.5937406298072</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.72887880096417</v>
+        <v>-5.19267334312025</v>
       </c>
       <c r="B60" t="n">
-        <v>10.6110512937349</v>
+        <v>-5.78308715223084</v>
       </c>
       <c r="C60" t="n">
-        <v>12.0529031561503</v>
+        <v>-6.10875093229876</v>
       </c>
       <c r="D60" t="n">
-        <v>13.7395466233972</v>
+        <v>-6.87386388832108</v>
       </c>
       <c r="E60" t="n">
-        <v>12.5223839097693</v>
+        <v>-7.07918166523758</v>
       </c>
       <c r="F60" t="n">
-        <v>14.9463028591497</v>
+        <v>-7.8068989053383</v>
       </c>
       <c r="G60" t="n">
-        <v>15.5609875227424</v>
+        <v>-8.15703980796224</v>
       </c>
       <c r="H60" t="n">
-        <v>16.8059696186452</v>
+        <v>-8.69717870847604</v>
       </c>
       <c r="I60" t="n">
-        <v>17.7434207830367</v>
+        <v>-9.2841641762121</v>
       </c>
       <c r="J60" t="n">
-        <v>7.34953511032998</v>
+        <v>-9.35025838182977</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-5.16056597823381</v>
+        <v>-5.24591022809354</v>
       </c>
       <c r="B61" t="n">
-        <v>-5.21849717067972</v>
+        <v>-5.57194677420537</v>
       </c>
       <c r="C61" t="n">
-        <v>-6.10668453741186</v>
+        <v>-5.88943363075995</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.25491312269743</v>
+        <v>-6.57034305238848</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.26761307703806</v>
+        <v>-7.04682044739392</v>
       </c>
       <c r="F61" t="n">
-        <v>-7.36688211345331</v>
+        <v>-7.21263655523476</v>
       </c>
       <c r="G61" t="n">
-        <v>5.76431561464704</v>
+        <v>-8.06074027269759</v>
       </c>
       <c r="H61" t="n">
-        <v>6.57996217467783</v>
+        <v>-9.08067154180192</v>
       </c>
       <c r="I61" t="n">
-        <v>6.08607347458446</v>
+        <v>-8.51188563744968</v>
       </c>
       <c r="J61" t="n">
-        <v>7.97283780611349</v>
+        <v>-8.97006093625041</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-5.01060441422695</v>
+        <v>10.3325432629948</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.51879971173185</v>
+        <v>10.4757684945774</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.03263913145304</v>
+        <v>11.6175589301153</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.633529934192</v>
+        <v>13.0097752767806</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.80782559011523</v>
+        <v>12.9960924478559</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.45241194518466</v>
+        <v>14.0404887595975</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.0653520287179</v>
+        <v>15.7416556884106</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.29818253409041</v>
+        <v>16.4268629735517</v>
       </c>
       <c r="I62" t="n">
-        <v>-8.55416500660623</v>
+        <v>17.7758499881424</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.40257190729368</v>
+        <v>18.1609612861342</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-4.6865635974407</v>
+        <v>9.88911687803898</v>
       </c>
       <c r="B63" t="n">
-        <v>-5.32854257771331</v>
+        <v>10.8113819924838</v>
       </c>
       <c r="C63" t="n">
-        <v>-6.00516012370594</v>
+        <v>9.91252595305996</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.54457487585811</v>
+        <v>13.4357201458567</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.79167211167935</v>
+        <v>13.7467609668598</v>
       </c>
       <c r="F63" t="n">
-        <v>-7.3698857409741</v>
+        <v>14.8670817151602</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.94879962820615</v>
+        <v>16.0629266224826</v>
       </c>
       <c r="H63" t="n">
-        <v>-8.69482677774003</v>
+        <v>17.2144259079873</v>
       </c>
       <c r="I63" t="n">
-        <v>-9.2723892024032</v>
+        <v>17.6696058988665</v>
       </c>
       <c r="J63" t="n">
-        <v>6.85389409940625</v>
+        <v>19.7552638106235</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.90820122428311</v>
+        <v>2.52153563371692</v>
       </c>
       <c r="B64" t="n">
-        <v>3.64424583659808</v>
+        <v>2.1660979839426</v>
       </c>
       <c r="C64" t="n">
-        <v>3.69554790745049</v>
+        <v>3.38609957047438</v>
       </c>
       <c r="D64" t="n">
-        <v>3.78240545334414</v>
+        <v>3.41592643922112</v>
       </c>
       <c r="E64" t="n">
-        <v>5.52146137013589</v>
+        <v>5.2976337566501</v>
       </c>
       <c r="F64" t="n">
-        <v>5.06613345770811</v>
+        <v>5.00321760764206</v>
       </c>
       <c r="G64" t="n">
-        <v>5.02102932941646</v>
+        <v>6.00692264261516</v>
       </c>
       <c r="H64" t="n">
-        <v>5.66837976065337</v>
+        <v>6.4899007831964</v>
       </c>
       <c r="I64" t="n">
-        <v>6.85022287125487</v>
+        <v>7.15190206718023</v>
       </c>
       <c r="J64" t="n">
-        <v>7.67034370037548</v>
+        <v>7.80466250979011</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.50117987671989</v>
+        <v>11.1302885972153</v>
       </c>
       <c r="B65" t="n">
-        <v>2.77785224739432</v>
+        <v>11.4183144246244</v>
       </c>
       <c r="C65" t="n">
-        <v>4.06955474175779</v>
+        <v>-6.15346856221848</v>
       </c>
       <c r="D65" t="n">
-        <v>3.45250776030615</v>
+        <v>-6.54229427176513</v>
       </c>
       <c r="E65" t="n">
-        <v>4.14623598967147</v>
+        <v>-7.06925927943558</v>
       </c>
       <c r="F65" t="n">
-        <v>4.76492549132487</v>
+        <v>-7.30037969774615</v>
       </c>
       <c r="G65" t="n">
-        <v>5.4946046214176</v>
+        <v>-7.89807359785538</v>
       </c>
       <c r="H65" t="n">
-        <v>6.15622619231384</v>
+        <v>-8.76473296636892</v>
       </c>
       <c r="I65" t="n">
-        <v>5.89856724734277</v>
+        <v>-8.75735855195709</v>
       </c>
       <c r="J65" t="n">
-        <v>6.85557528885297</v>
+        <v>-9.27499337362056</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.0552762546225</v>
+        <v>-4.96376505944465</v>
       </c>
       <c r="B66" t="n">
-        <v>11.6164760263974</v>
+        <v>-5.9071576190561</v>
       </c>
       <c r="C66" t="n">
-        <v>3.07556076349271</v>
+        <v>-5.59174125856938</v>
       </c>
       <c r="D66" t="n">
-        <v>3.46539228690189</v>
+        <v>-6.62567529168055</v>
       </c>
       <c r="E66" t="n">
-        <v>4.10475398137015</v>
+        <v>-7.30723691530503</v>
       </c>
       <c r="F66" t="n">
-        <v>5.11769117699598</v>
+        <v>-7.56135670528552</v>
       </c>
       <c r="G66" t="n">
-        <v>5.6970275698992</v>
+        <v>-8.14145583236981</v>
       </c>
       <c r="H66" t="n">
-        <v>5.60493893191331</v>
+        <v>-8.33767625281562</v>
       </c>
       <c r="I66" t="n">
-        <v>6.52126531742981</v>
+        <v>-8.55247890133017</v>
       </c>
       <c r="J66" t="n">
-        <v>7.34614645071796</v>
+        <v>-9.64290516308345</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-5.48029228617993</v>
+        <v>9.82893891236807</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.35124790472037</v>
+        <v>10.6943849013196</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.98066360072499</v>
+        <v>11.9456610292228</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.39519952318977</v>
+        <v>12.6878764191588</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.65663441514266</v>
+        <v>14.0069721471889</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.78045857302139</v>
+        <v>14.6871276889944</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.94055031034553</v>
+        <v>15.7037968838133</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.33185219535291</v>
+        <v>18.3984271073985</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.00955628920352</v>
+        <v>20.4726663462134</v>
       </c>
       <c r="J67" t="n">
-        <v>-10.0277562647431</v>
+        <v>18.7487716663002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.90503640807931</v>
+        <v>-5.02882528218284</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.56799701474651</v>
+        <v>-5.36283549433769</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.81424619242904</v>
+        <v>-6.00600624530886</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.73188093469751</v>
+        <v>-6.4310205427585</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.51094261006664</v>
+        <v>-7.28898871498036</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.27273783401933</v>
+        <v>-7.16431651447024</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.93895008074959</v>
+        <v>-7.97339209385126</v>
       </c>
       <c r="H68" t="n">
-        <v>-9.11738198998725</v>
+        <v>-8.39938712979046</v>
       </c>
       <c r="I68" t="n">
-        <v>-9.11169661963425</v>
+        <v>-9.15901433022009</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.51518827259843</v>
+        <v>-9.67068956441463</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10.9575501769007</v>
+        <v>-5.23236044881029</v>
       </c>
       <c r="B69" t="n">
-        <v>11.6282503401402</v>
+        <v>-5.57104426415245</v>
       </c>
       <c r="C69" t="n">
-        <v>12.2219319272854</v>
+        <v>-5.61530337309056</v>
       </c>
       <c r="D69" t="n">
-        <v>4.20113544895383</v>
+        <v>11.7301033211443</v>
       </c>
       <c r="E69" t="n">
-        <v>4.88495351294869</v>
+        <v>14.425431960977</v>
       </c>
       <c r="F69" t="n">
-        <v>5.28100949397543</v>
+        <v>14.7485608190676</v>
       </c>
       <c r="G69" t="n">
-        <v>5.71350808855552</v>
+        <v>15.338553470218</v>
       </c>
       <c r="H69" t="n">
-        <v>5.20565781740482</v>
+        <v>16.6717343491941</v>
       </c>
       <c r="I69" t="n">
-        <v>7.2759583816819</v>
+        <v>18.0804783575482</v>
       </c>
       <c r="J69" t="n">
-        <v>6.76954408349971</v>
+        <v>18.3832699706142</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.46798662545527</v>
+        <v>10.2727605491459</v>
       </c>
       <c r="B70" t="n">
-        <v>10.0704908369947</v>
+        <v>10.969124160332</v>
       </c>
       <c r="C70" t="n">
-        <v>11.5379790900351</v>
+        <v>11.3763845784706</v>
       </c>
       <c r="D70" t="n">
-        <v>12.5203229755982</v>
+        <v>12.4744509835062</v>
       </c>
       <c r="E70" t="n">
-        <v>13.3999340769513</v>
+        <v>14.7861775729103</v>
       </c>
       <c r="F70" t="n">
-        <v>14.8109973762995</v>
+        <v>15.9620164751411</v>
       </c>
       <c r="G70" t="n">
-        <v>16.0121150169732</v>
+        <v>15.6609699362888</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.35089945332943</v>
+        <v>15.8926266954937</v>
       </c>
       <c r="I70" t="n">
-        <v>-9.38371291245475</v>
+        <v>17.3873765838733</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.62324276309569</v>
+        <v>18.872674943731</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-4.71687729614408</v>
+        <v>-4.89837692251736</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.77534712186961</v>
+        <v>-5.40496910285747</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.19268492724362</v>
+        <v>-6.20859764091063</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.15159232622758</v>
+        <v>-6.81055196902737</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.8674877877556</v>
+        <v>-6.96814213364969</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.51244356085135</v>
+        <v>-7.61135127480024</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.14868081226665</v>
+        <v>-7.99766847759322</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.45553125119307</v>
+        <v>-9.12874396486949</v>
       </c>
       <c r="I71" t="n">
-        <v>-9.27899569435224</v>
+        <v>-8.84115240619446</v>
       </c>
       <c r="J71" t="n">
-        <v>19.4402699426869</v>
+        <v>-9.70524057343069</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.24628237663094</v>
+        <v>10.2454510360266</v>
       </c>
       <c r="B72" t="n">
-        <v>3.10560853033193</v>
+        <v>8.82984025201366</v>
       </c>
       <c r="C72" t="n">
-        <v>3.33079025488085</v>
+        <v>11.0856196593767</v>
       </c>
       <c r="D72" t="n">
-        <v>4.35762314730687</v>
+        <v>13.4790101687489</v>
       </c>
       <c r="E72" t="n">
-        <v>4.40870211574308</v>
+        <v>14.9325147110299</v>
       </c>
       <c r="F72" t="n">
-        <v>5.32397061193057</v>
+        <v>14.8440400076613</v>
       </c>
       <c r="G72" t="n">
-        <v>4.9715491063684</v>
+        <v>16.1981816749387</v>
       </c>
       <c r="H72" t="n">
-        <v>5.68846276331829</v>
+        <v>16.6080620187779</v>
       </c>
       <c r="I72" t="n">
-        <v>6.55888460361841</v>
+        <v>17.6253511808027</v>
       </c>
       <c r="J72" t="n">
-        <v>7.64757234615076</v>
+        <v>18.0107697891323</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.49931476610356</v>
+        <v>1.44278171595295</v>
       </c>
       <c r="B73" t="n">
-        <v>11.5648299763107</v>
+        <v>10.313031172209</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8614109078592</v>
+        <v>10.9248885819637</v>
       </c>
       <c r="D73" t="n">
-        <v>12.6708164650072</v>
+        <v>12.2694469194393</v>
       </c>
       <c r="E73" t="n">
-        <v>4.63922141635381</v>
+        <v>13.278229546352</v>
       </c>
       <c r="F73" t="n">
-        <v>5.26613611899831</v>
+        <v>15.7697447160215</v>
       </c>
       <c r="G73" t="n">
-        <v>5.25275874557349</v>
+        <v>15.2460897934629</v>
       </c>
       <c r="H73" t="n">
-        <v>4.80526409174319</v>
+        <v>6.40744961995136</v>
       </c>
       <c r="I73" t="n">
-        <v>6.30343217160841</v>
+        <v>6.73281916306891</v>
       </c>
       <c r="J73" t="n">
-        <v>7.46732229473939</v>
+        <v>7.21913439397447</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.60726754379407</v>
+        <v>-4.71677953081565</v>
       </c>
       <c r="B74" t="n">
-        <v>2.9628697328985</v>
+        <v>-5.60472970585166</v>
       </c>
       <c r="C74" t="n">
-        <v>3.47676798361457</v>
+        <v>-6.05202610488232</v>
       </c>
       <c r="D74" t="n">
-        <v>3.7614970627806</v>
+        <v>-6.77156619283802</v>
       </c>
       <c r="E74" t="n">
-        <v>5.28850133571278</v>
+        <v>-6.77832426666393</v>
       </c>
       <c r="F74" t="n">
-        <v>4.70604727196797</v>
+        <v>-7.64124637573106</v>
       </c>
       <c r="G74" t="n">
-        <v>5.33653571785403</v>
+        <v>-8.06183104944037</v>
       </c>
       <c r="H74" t="n">
-        <v>5.56534657994767</v>
+        <v>-8.64482731821609</v>
       </c>
       <c r="I74" t="n">
-        <v>6.99705164970258</v>
+        <v>-9.37463797599967</v>
       </c>
       <c r="J74" t="n">
-        <v>7.28030650659913</v>
+        <v>-9.90700740407908</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.9128769922779</v>
+        <v>-4.93220910309223</v>
       </c>
       <c r="B75" t="n">
-        <v>11.0038499771102</v>
+        <v>-5.44530563417091</v>
       </c>
       <c r="C75" t="n">
-        <v>13.2854951623869</v>
+        <v>-5.91543225364179</v>
       </c>
       <c r="D75" t="n">
-        <v>14.3468822488772</v>
+        <v>-6.87046648101574</v>
       </c>
       <c r="E75" t="n">
-        <v>14.9533423044584</v>
+        <v>-6.96554812486294</v>
       </c>
       <c r="F75" t="n">
-        <v>14.077131848162</v>
+        <v>-7.22623592529482</v>
       </c>
       <c r="G75" t="n">
-        <v>15.0734497497414</v>
+        <v>-8.40713275789765</v>
       </c>
       <c r="H75" t="n">
-        <v>17.4020454509091</v>
+        <v>-8.86203826337806</v>
       </c>
       <c r="I75" t="n">
-        <v>18.4184923910905</v>
+        <v>17.3931455289064</v>
       </c>
       <c r="J75" t="n">
-        <v>19.7601589201143</v>
+        <v>19.0665911820605</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.97941480569573</v>
+        <v>10.4197185645473</v>
       </c>
       <c r="B76" t="n">
-        <v>11.9206388900042</v>
+        <v>10.1052020047034</v>
       </c>
       <c r="C76" t="n">
-        <v>4.36798352962684</v>
+        <v>12.5159234250335</v>
       </c>
       <c r="D76" t="n">
-        <v>4.06932075753311</v>
+        <v>12.0804986648459</v>
       </c>
       <c r="E76" t="n">
-        <v>4.91421789549782</v>
+        <v>14.346201470925</v>
       </c>
       <c r="F76" t="n">
-        <v>5.30468699144717</v>
+        <v>5.31853523617387</v>
       </c>
       <c r="G76" t="n">
-        <v>5.7886672902748</v>
+        <v>6.01271103885276</v>
       </c>
       <c r="H76" t="n">
-        <v>6.01187523886194</v>
+        <v>6.12765986205312</v>
       </c>
       <c r="I76" t="n">
-        <v>5.64006224218756</v>
+        <v>6.24554356451303</v>
       </c>
       <c r="J76" t="n">
-        <v>7.56541093651644</v>
+        <v>7.46379199170225</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.1455115596761</v>
+        <v>-4.64965199837541</v>
       </c>
       <c r="B77" t="n">
-        <v>11.3637604964869</v>
+        <v>-5.3916979926134</v>
       </c>
       <c r="C77" t="n">
-        <v>10.8698914843794</v>
+        <v>-5.66968308939907</v>
       </c>
       <c r="D77" t="n">
-        <v>12.4957038687609</v>
+        <v>-6.9282008617327</v>
       </c>
       <c r="E77" t="n">
-        <v>14.70140882297</v>
+        <v>-6.60335898517619</v>
       </c>
       <c r="F77" t="n">
-        <v>4.51708639454088</v>
+        <v>-7.50224792859443</v>
       </c>
       <c r="G77" t="n">
-        <v>5.233383328051</v>
+        <v>-8.04594810476748</v>
       </c>
       <c r="H77" t="n">
-        <v>5.58550400038772</v>
+        <v>-8.84994785580963</v>
       </c>
       <c r="I77" t="n">
-        <v>6.72222944927254</v>
+        <v>-9.05240278104558</v>
       </c>
       <c r="J77" t="n">
-        <v>6.96235325487975</v>
+        <v>-9.71654444603427</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-5.19856511887267</v>
+        <v>2.63239364459367</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.34956059027498</v>
+        <v>2.54163584866692</v>
       </c>
       <c r="C78" t="n">
-        <v>-6.06781293260661</v>
+        <v>3.34793960347614</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.61159273880038</v>
+        <v>3.95534967176573</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.23701097713245</v>
+        <v>4.06384362323274</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.69461361305051</v>
+        <v>4.75455901092132</v>
       </c>
       <c r="G78" t="n">
-        <v>16.2340117442694</v>
+        <v>4.82129026822211</v>
       </c>
       <c r="H78" t="n">
-        <v>17.6488809050674</v>
+        <v>6.70820925490846</v>
       </c>
       <c r="I78" t="n">
-        <v>17.4577877843602</v>
+        <v>6.0527788408421</v>
       </c>
       <c r="J78" t="n">
-        <v>19.2937239694178</v>
+        <v>6.70657401785849</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.65709084340866</v>
+        <v>-5.06630212203511</v>
       </c>
       <c r="B79" t="n">
-        <v>9.42361651991735</v>
+        <v>-5.06828060507932</v>
       </c>
       <c r="C79" t="n">
-        <v>12.6530149383457</v>
+        <v>-5.83624311023182</v>
       </c>
       <c r="D79" t="n">
-        <v>11.5603629252868</v>
+        <v>-6.95024135518238</v>
       </c>
       <c r="E79" t="n">
-        <v>5.35797387084089</v>
+        <v>-6.94771127703872</v>
       </c>
       <c r="F79" t="n">
-        <v>4.73620065488739</v>
+        <v>-7.34183216469479</v>
       </c>
       <c r="G79" t="n">
-        <v>5.24128370686311</v>
+        <v>-7.88118735573196</v>
       </c>
       <c r="H79" t="n">
-        <v>5.72802023267356</v>
+        <v>-8.45369749086442</v>
       </c>
       <c r="I79" t="n">
-        <v>5.89094447281357</v>
+        <v>-8.82612148280598</v>
       </c>
       <c r="J79" t="n">
-        <v>6.49174874098652</v>
+        <v>-9.62919144085815</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.6169246308108</v>
+        <v>2.05978474034648</v>
       </c>
       <c r="B80" t="n">
-        <v>10.8528209776296</v>
+        <v>2.60988998832837</v>
       </c>
       <c r="C80" t="n">
-        <v>11.226770754554</v>
+        <v>3.36509687380063</v>
       </c>
       <c r="D80" t="n">
-        <v>13.6562364460252</v>
+        <v>3.99307257363781</v>
       </c>
       <c r="E80" t="n">
-        <v>14.7764342256467</v>
+        <v>4.55343941450645</v>
       </c>
       <c r="F80" t="n">
-        <v>15.6069962414477</v>
+        <v>4.74886252854334</v>
       </c>
       <c r="G80" t="n">
-        <v>14.9394384481413</v>
+        <v>5.76279846623885</v>
       </c>
       <c r="H80" t="n">
-        <v>16.6131247458699</v>
+        <v>5.28633780692371</v>
       </c>
       <c r="I80" t="n">
-        <v>18.7335621886436</v>
+        <v>6.92476240185002</v>
       </c>
       <c r="J80" t="n">
-        <v>18.9154577792529</v>
+        <v>6.55571417698132</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.13913849044728</v>
+        <v>2.6458559218617</v>
       </c>
       <c r="B81" t="n">
-        <v>11.1910695299002</v>
+        <v>3.58568603552801</v>
       </c>
       <c r="C81" t="n">
-        <v>13.528301983806</v>
+        <v>3.49365975084928</v>
       </c>
       <c r="D81" t="n">
-        <v>13.4879809629803</v>
+        <v>4.3749202257926</v>
       </c>
       <c r="E81" t="n">
-        <v>15.7229159062114</v>
+        <v>4.41327197518618</v>
       </c>
       <c r="F81" t="n">
-        <v>15.3320396479728</v>
+        <v>-7.99277514881805</v>
       </c>
       <c r="G81" t="n">
-        <v>16.5423778597625</v>
+        <v>-7.73628794224688</v>
       </c>
       <c r="H81" t="n">
-        <v>6.32536171057242</v>
+        <v>-8.96055117044557</v>
       </c>
       <c r="I81" t="n">
-        <v>6.60596338057552</v>
+        <v>17.9268020979969</v>
       </c>
       <c r="J81" t="n">
-        <v>7.49675672147494</v>
+        <v>19.5312142645678</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.5300613060782</v>
+        <v>8.77957535955852</v>
       </c>
       <c r="B82" t="n">
-        <v>10.8605092949922</v>
+        <v>10.3262835834093</v>
       </c>
       <c r="C82" t="n">
-        <v>11.8800296375875</v>
+        <v>11.5569348145311</v>
       </c>
       <c r="D82" t="n">
-        <v>13.4976714924518</v>
+        <v>12.6984619051772</v>
       </c>
       <c r="E82" t="n">
-        <v>13.2799324919476</v>
+        <v>14.2752558179604</v>
       </c>
       <c r="F82" t="n">
-        <v>14.3651586601098</v>
+        <v>15.6627716385073</v>
       </c>
       <c r="G82" t="n">
-        <v>16.6865378684919</v>
+        <v>15.3482368838492</v>
       </c>
       <c r="H82" t="n">
-        <v>16.0555398358314</v>
+        <v>15.7557612582666</v>
       </c>
       <c r="I82" t="n">
-        <v>17.9291898408459</v>
+        <v>17.4773198350062</v>
       </c>
       <c r="J82" t="n">
-        <v>20.1825152869206</v>
+        <v>19.770832299746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-4.92285599762211</v>
+        <v>11.7815261183347</v>
       </c>
       <c r="B83" t="n">
-        <v>-5.51026486840334</v>
+        <v>11.469855166951</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.85708456196357</v>
+        <v>12.6278827781203</v>
       </c>
       <c r="D83" t="n">
-        <v>-6.52501699553037</v>
+        <v>12.5512368755528</v>
       </c>
       <c r="E83" t="n">
-        <v>-7.02401865551933</v>
+        <v>13.3797607331078</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.54581212767128</v>
+        <v>14.404341137638</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.79425549503988</v>
+        <v>17.4289428157003</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.01816787357317</v>
+        <v>17.2131120941662</v>
       </c>
       <c r="I83" t="n">
-        <v>-9.13284787736984</v>
+        <v>17.1842712093826</v>
       </c>
       <c r="J83" t="n">
-        <v>-9.27839786011882</v>
+        <v>18.4112871918142</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10.8291554827648</v>
+        <v>10.94402670597</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.88228477811793</v>
+        <v>9.58805995263664</v>
       </c>
       <c r="C84" t="n">
-        <v>-6.13800680100674</v>
+        <v>12.7463649027996</v>
       </c>
       <c r="D84" t="n">
-        <v>-6.7067184381001</v>
+        <v>12.2117060822049</v>
       </c>
       <c r="E84" t="n">
-        <v>-6.57596096224275</v>
+        <v>15.6734125803721</v>
       </c>
       <c r="F84" t="n">
-        <v>-7.63244276546351</v>
+        <v>14.0394245999409</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.93430019583766</v>
+        <v>16.995281020885</v>
       </c>
       <c r="H84" t="n">
-        <v>-8.70064469239122</v>
+        <v>16.5965901653222</v>
       </c>
       <c r="I84" t="n">
-        <v>-9.21817994932222</v>
+        <v>16.9337758613821</v>
       </c>
       <c r="J84" t="n">
-        <v>-9.65038876024611</v>
+        <v>18.8233447059813</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.92049243089924</v>
+        <v>-4.96688073179289</v>
       </c>
       <c r="B85" t="n">
-        <v>3.03152805962398</v>
+        <v>-5.45156749914435</v>
       </c>
       <c r="C85" t="n">
-        <v>3.2764515402359</v>
+        <v>-5.35632060074529</v>
       </c>
       <c r="D85" t="n">
-        <v>4.209221611677</v>
+        <v>-6.71638105639908</v>
       </c>
       <c r="E85" t="n">
-        <v>4.4334046768962</v>
+        <v>-7.10549124520167</v>
       </c>
       <c r="F85" t="n">
-        <v>5.12308822465067</v>
+        <v>-7.35115540921876</v>
       </c>
       <c r="G85" t="n">
-        <v>16.2914518325428</v>
+        <v>-7.89468215103065</v>
       </c>
       <c r="H85" t="n">
-        <v>16.0263427425588</v>
+        <v>-8.70375666386263</v>
       </c>
       <c r="I85" t="n">
-        <v>18.7156798555832</v>
+        <v>-8.76338653477598</v>
       </c>
       <c r="J85" t="n">
-        <v>19.8499360908763</v>
+        <v>-9.71041833829809</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-4.86419410580383</v>
+        <v>2.55168502619059</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.43361744963674</v>
+        <v>3.02405039988062</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.77631853613098</v>
+        <v>3.25133871519089</v>
       </c>
       <c r="D86" t="n">
-        <v>3.77782715592143</v>
+        <v>4.53360949525666</v>
       </c>
       <c r="E86" t="n">
-        <v>4.45806632298772</v>
+        <v>3.85302695146104</v>
       </c>
       <c r="F86" t="n">
-        <v>5.11261361780212</v>
+        <v>5.19525720787013</v>
       </c>
       <c r="G86" t="n">
-        <v>5.03085024449531</v>
+        <v>5.89176915465848</v>
       </c>
       <c r="H86" t="n">
-        <v>5.62525507111965</v>
+        <v>5.99574759693389</v>
       </c>
       <c r="I86" t="n">
-        <v>6.05626076705465</v>
+        <v>6.07383887141021</v>
       </c>
       <c r="J86" t="n">
-        <v>7.0048670001649</v>
+        <v>6.69898100141451</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-4.99653801504866</v>
+        <v>9.12578010476814</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.89706816020992</v>
+        <v>11.848308743277</v>
       </c>
       <c r="C87" t="n">
-        <v>-6.17459846937569</v>
+        <v>12.7554033962895</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.7880534636892</v>
+        <v>13.7293673596047</v>
       </c>
       <c r="E87" t="n">
-        <v>-7.12801351525297</v>
+        <v>13.5125559156775</v>
       </c>
       <c r="F87" t="n">
-        <v>-7.6249866155504</v>
+        <v>15.2057536755395</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.50640412030678</v>
+        <v>17.246435735384</v>
       </c>
       <c r="H87" t="n">
-        <v>-8.40162787637576</v>
+        <v>17.4625603360832</v>
       </c>
       <c r="I87" t="n">
-        <v>-9.42487273346006</v>
+        <v>18.0100441790073</v>
       </c>
       <c r="J87" t="n">
-        <v>-9.34957281266088</v>
+        <v>17.9125262306748</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>9.95917452659473</v>
+        <v>-5.29833880395206</v>
       </c>
       <c r="B88" t="n">
-        <v>10.2400153244512</v>
+        <v>-5.68386675494055</v>
       </c>
       <c r="C88" t="n">
-        <v>12.5163716501325</v>
+        <v>-6.16487644282953</v>
       </c>
       <c r="D88" t="n">
-        <v>12.7828201626751</v>
+        <v>5.26721019924228</v>
       </c>
       <c r="E88" t="n">
-        <v>14.6406987922268</v>
+        <v>4.20824149719452</v>
       </c>
       <c r="F88" t="n">
-        <v>15.7677315920636</v>
+        <v>14.3656963324166</v>
       </c>
       <c r="G88" t="n">
-        <v>15.2848087857549</v>
+        <v>15.8777305959077</v>
       </c>
       <c r="H88" t="n">
-        <v>17.9074135508285</v>
+        <v>16.6667948604957</v>
       </c>
       <c r="I88" t="n">
-        <v>17.5998129380712</v>
+        <v>17.3843560359854</v>
       </c>
       <c r="J88" t="n">
-        <v>19.1211288972645</v>
+        <v>-8.75450197690001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-5.22695347834517</v>
+        <v>10.6332782377914</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.51938852996642</v>
+        <v>10.3640360727159</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.680081253599</v>
+        <v>11.4727078206785</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.42941460074269</v>
+        <v>13.433562287834</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.26992776366552</v>
+        <v>14.0897105209304</v>
       </c>
       <c r="F89" t="n">
-        <v>-7.24819504161926</v>
+        <v>15.8476669264449</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.13027094194696</v>
+        <v>15.4069164648778</v>
       </c>
       <c r="H89" t="n">
-        <v>-8.8510076165247</v>
+        <v>18.2760208222943</v>
       </c>
       <c r="I89" t="n">
-        <v>-8.86738825596246</v>
+        <v>18.6671318169833</v>
       </c>
       <c r="J89" t="n">
-        <v>-9.6635107178191</v>
+        <v>18.5964621677845</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>10.4259982018045</v>
+        <v>2.4940928069547</v>
       </c>
       <c r="B90" t="n">
-        <v>9.91405478768302</v>
+        <v>3.35731146838715</v>
       </c>
       <c r="C90" t="n">
-        <v>4.28983618667062</v>
+        <v>3.10484421098646</v>
       </c>
       <c r="D90" t="n">
-        <v>4.05914356496705</v>
+        <v>4.58720651610464</v>
       </c>
       <c r="E90" t="n">
-        <v>4.76060689201531</v>
+        <v>4.54413369967975</v>
       </c>
       <c r="F90" t="n">
-        <v>4.98767798546382</v>
+        <v>5.31051223134969</v>
       </c>
       <c r="G90" t="n">
-        <v>6.25703934216619</v>
+        <v>5.02543417997554</v>
       </c>
       <c r="H90" t="n">
-        <v>5.83770381498673</v>
+        <v>6.48382632471092</v>
       </c>
       <c r="I90" t="n">
-        <v>6.27925146047216</v>
+        <v>7.31780852084534</v>
       </c>
       <c r="J90" t="n">
-        <v>7.15049791644743</v>
+        <v>19.0425731648077</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10.0497559087422</v>
+        <v>8.93001735496846</v>
       </c>
       <c r="B91" t="n">
-        <v>9.63829666423615</v>
+        <v>11.8746863303757</v>
       </c>
       <c r="C91" t="n">
-        <v>11.5890210525276</v>
+        <v>12.3080201338993</v>
       </c>
       <c r="D91" t="n">
-        <v>14.0451601987578</v>
+        <v>13.6540204243267</v>
       </c>
       <c r="E91" t="n">
-        <v>14.261112676144</v>
+        <v>14.8783863409972</v>
       </c>
       <c r="F91" t="n">
-        <v>13.9241448012358</v>
+        <v>14.6164612249275</v>
       </c>
       <c r="G91" t="n">
-        <v>16.1596269610754</v>
+        <v>15.6523283531478</v>
       </c>
       <c r="H91" t="n">
-        <v>16.1172107751955</v>
+        <v>18.3132447423378</v>
       </c>
       <c r="I91" t="n">
-        <v>19.3939656787913</v>
+        <v>17.3862954968939</v>
       </c>
       <c r="J91" t="n">
-        <v>18.2423667984455</v>
+        <v>18.527536841188</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10.4966237215736</v>
+        <v>11.1978233801011</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.1933649156579</v>
+        <v>10.7375538895739</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.90219840562863</v>
+        <v>10.7246938738109</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.42967390742208</v>
+        <v>13.0589526183897</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.25167739728993</v>
+        <v>15.4951638424273</v>
       </c>
       <c r="F92" t="n">
-        <v>-7.9063760879943</v>
+        <v>14.3643190543598</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.25755256575063</v>
+        <v>14.6799582830213</v>
       </c>
       <c r="H92" t="n">
-        <v>-8.87897025495827</v>
+        <v>17.1706284121543</v>
       </c>
       <c r="I92" t="n">
-        <v>-9.0441214084273</v>
+        <v>18.2304610829134</v>
       </c>
       <c r="J92" t="n">
-        <v>-9.62306949415532</v>
+        <v>17.4345813331016</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.6295664655522</v>
+        <v>2.91903317205831</v>
       </c>
       <c r="B93" t="n">
-        <v>13.0255355280166</v>
+        <v>2.66629723713791</v>
       </c>
       <c r="C93" t="n">
-        <v>11.2166651884055</v>
+        <v>3.58075522200274</v>
       </c>
       <c r="D93" t="n">
-        <v>13.7522873944565</v>
+        <v>3.774006851423</v>
       </c>
       <c r="E93" t="n">
-        <v>13.2330339169522</v>
+        <v>4.01427199769521</v>
       </c>
       <c r="F93" t="n">
-        <v>13.9743482025294</v>
+        <v>4.43001523875544</v>
       </c>
       <c r="G93" t="n">
-        <v>16.2531733913104</v>
+        <v>5.38521489640408</v>
       </c>
       <c r="H93" t="n">
-        <v>15.5428362375712</v>
+        <v>6.63587679908461</v>
       </c>
       <c r="I93" t="n">
-        <v>17.6776909278627</v>
+        <v>6.42518413815179</v>
       </c>
       <c r="J93" t="n">
-        <v>19.3399923666827</v>
+        <v>7.67443737468643</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9.48490844516891</v>
+        <v>-4.99092697958374</v>
       </c>
       <c r="B94" t="n">
-        <v>9.6896488504707</v>
+        <v>-5.68898869635318</v>
       </c>
       <c r="C94" t="n">
-        <v>12.2347372544427</v>
+        <v>-6.3112682469066</v>
       </c>
       <c r="D94" t="n">
-        <v>13.575375416767</v>
+        <v>-6.53048848314338</v>
       </c>
       <c r="E94" t="n">
-        <v>14.2362286682154</v>
+        <v>-7.47439398633757</v>
       </c>
       <c r="F94" t="n">
-        <v>15.133293042005</v>
+        <v>-7.56750453442381</v>
       </c>
       <c r="G94" t="n">
-        <v>14.9101478682207</v>
+        <v>-7.87754855132126</v>
       </c>
       <c r="H94" t="n">
-        <v>18.0995350457855</v>
+        <v>-8.35274146311847</v>
       </c>
       <c r="I94" t="n">
-        <v>17.5123285434612</v>
+        <v>-9.1130563317311</v>
       </c>
       <c r="J94" t="n">
-        <v>19.267378718846</v>
+        <v>-9.52323183911864</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-4.92340789566805</v>
+        <v>-5.08107763404764</v>
       </c>
       <c r="B95" t="n">
-        <v>-5.49213910923353</v>
+        <v>-5.30037717759035</v>
       </c>
       <c r="C95" t="n">
-        <v>-6.12845815164481</v>
+        <v>-6.05276532734871</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.52463346836531</v>
+        <v>-6.38092926362834</v>
       </c>
       <c r="E95" t="n">
-        <v>-7.36686545200975</v>
+        <v>-7.32108821936598</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.83653636953946</v>
+        <v>-6.93867834912368</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.82790532919499</v>
+        <v>-8.40486203207071</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.64709760000218</v>
+        <v>-8.58772498524093</v>
       </c>
       <c r="I95" t="n">
-        <v>-8.6008394525577</v>
+        <v>-8.70681316060127</v>
       </c>
       <c r="J95" t="n">
-        <v>-9.57510249923957</v>
+        <v>-10.0432628632266</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.8291629493784</v>
+        <v>8.80527382450023</v>
       </c>
       <c r="B96" t="n">
-        <v>10.6645366030621</v>
+        <v>11.0077146906671</v>
       </c>
       <c r="C96" t="n">
-        <v>11.1653018951773</v>
+        <v>12.0246992289496</v>
       </c>
       <c r="D96" t="n">
-        <v>13.0997227364827</v>
+        <v>12.0349316045263</v>
       </c>
       <c r="E96" t="n">
-        <v>14.2631514003356</v>
+        <v>13.2623460976404</v>
       </c>
       <c r="F96" t="n">
-        <v>16.3344020909826</v>
+        <v>14.3727074450908</v>
       </c>
       <c r="G96" t="n">
-        <v>15.8060746102334</v>
+        <v>16.7933357251902</v>
       </c>
       <c r="H96" t="n">
-        <v>16.2271755662899</v>
+        <v>17.3488100512004</v>
       </c>
       <c r="I96" t="n">
-        <v>19.0026417548364</v>
+        <v>17.1448594846261</v>
       </c>
       <c r="J96" t="n">
-        <v>19.4480509302358</v>
+        <v>19.7673199094915</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.79707268893039</v>
+        <v>9.98710455957003</v>
       </c>
       <c r="B97" t="n">
-        <v>11.6924300954022</v>
+        <v>10.853696052737</v>
       </c>
       <c r="C97" t="n">
-        <v>11.6718234745977</v>
+        <v>10.9117041838884</v>
       </c>
       <c r="D97" t="n">
-        <v>11.5595434116672</v>
+        <v>-6.46534256528585</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.39625856007826</v>
+        <v>14.7418540539345</v>
       </c>
       <c r="F97" t="n">
-        <v>-8.00976633242259</v>
+        <v>5.26910562820081</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.2236242979921</v>
+        <v>5.65068320825202</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.11910551775385</v>
+        <v>6.17662938428848</v>
       </c>
       <c r="I97" t="n">
-        <v>-8.93388283627317</v>
+        <v>6.71765356831851</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.51392184832214</v>
+        <v>6.82047686450542</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.565920284691</v>
+        <v>10.491423538381</v>
       </c>
       <c r="B98" t="n">
-        <v>12.1045808496843</v>
+        <v>10.989815948415</v>
       </c>
       <c r="C98" t="n">
-        <v>11.7870798183937</v>
+        <v>10.3293567177237</v>
       </c>
       <c r="D98" t="n">
-        <v>13.8040793195032</v>
+        <v>-6.83626740143011</v>
       </c>
       <c r="E98" t="n">
-        <v>4.80110700144106</v>
+        <v>-7.61887133541498</v>
       </c>
       <c r="F98" t="n">
-        <v>4.86140114823763</v>
+        <v>-7.30172932901977</v>
       </c>
       <c r="G98" t="n">
-        <v>5.87695236892923</v>
+        <v>-7.82103345204091</v>
       </c>
       <c r="H98" t="n">
-        <v>6.42426915003678</v>
+        <v>-8.30129707152623</v>
       </c>
       <c r="I98" t="n">
-        <v>6.424274057818</v>
+        <v>-9.05753877836495</v>
       </c>
       <c r="J98" t="n">
-        <v>6.59401522716451</v>
+        <v>18.207978315993</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.6887551939796</v>
+        <v>3.30232363319145</v>
       </c>
       <c r="B99" t="n">
-        <v>10.7998084000077</v>
+        <v>1.87601352372386</v>
       </c>
       <c r="C99" t="n">
-        <v>12.3609818841309</v>
+        <v>3.17013636041593</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5365035742282</v>
+        <v>4.21957022939218</v>
       </c>
       <c r="E99" t="n">
-        <v>12.374545935537</v>
+        <v>4.13642422381121</v>
       </c>
       <c r="F99" t="n">
-        <v>15.1903866439687</v>
+        <v>5.02221698763883</v>
       </c>
       <c r="G99" t="n">
-        <v>15.2576306460887</v>
+        <v>5.98678903557575</v>
       </c>
       <c r="H99" t="n">
-        <v>16.6980417635209</v>
+        <v>6.38885243743722</v>
       </c>
       <c r="I99" t="n">
-        <v>17.1210657333043</v>
+        <v>6.5781551790622</v>
       </c>
       <c r="J99" t="n">
-        <v>7.0953870205016</v>
+        <v>7.13911739887482</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.2784563115245</v>
+        <v>11.0990718389004</v>
       </c>
       <c r="B100" t="n">
-        <v>11.5436478456718</v>
+        <v>10.4882871815782</v>
       </c>
       <c r="C100" t="n">
-        <v>3.60782461660685</v>
+        <v>12.3851922260488</v>
       </c>
       <c r="D100" t="n">
-        <v>4.20231346977241</v>
+        <v>12.4640844230475</v>
       </c>
       <c r="E100" t="n">
-        <v>4.37851770131562</v>
+        <v>14.4115688947807</v>
       </c>
       <c r="F100" t="n">
-        <v>4.50492715069076</v>
+        <v>15.294290689215</v>
       </c>
       <c r="G100" t="n">
-        <v>4.10573249579942</v>
+        <v>15.8545377655136</v>
       </c>
       <c r="H100" t="n">
-        <v>5.97607048546617</v>
+        <v>17.8208731257662</v>
       </c>
       <c r="I100" t="n">
-        <v>6.531784506534</v>
+        <v>17.7954867942367</v>
       </c>
       <c r="J100" t="n">
-        <v>6.93444415609483</v>
+        <v>19.2597946502012</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.8273014426124</v>
+        <v>2.57261068281488</v>
       </c>
       <c r="B101" t="n">
-        <v>11.7002015547789</v>
+        <v>3.32291356879063</v>
       </c>
       <c r="C101" t="n">
-        <v>13.0528497120985</v>
+        <v>3.12365188831068</v>
       </c>
       <c r="D101" t="n">
-        <v>13.3602628044666</v>
+        <v>3.94041183213766</v>
       </c>
       <c r="E101" t="n">
-        <v>13.154882947465</v>
+        <v>4.72285719412198</v>
       </c>
       <c r="F101" t="n">
-        <v>14.9116086755352</v>
+        <v>5.22952445903079</v>
       </c>
       <c r="G101" t="n">
-        <v>17.8203214260565</v>
+        <v>5.23411083949051</v>
       </c>
       <c r="H101" t="n">
-        <v>16.222064484748</v>
+        <v>6.66905061490963</v>
       </c>
       <c r="I101" t="n">
-        <v>17.4552803540847</v>
+        <v>7.2559839513637</v>
       </c>
       <c r="J101" t="n">
-        <v>19.7118224621557</v>
+        <v>7.1419743625626</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.1306657319293</v>
+        <v>2.3908763016906</v>
       </c>
       <c r="B102" t="n">
-        <v>9.97627802060444</v>
+        <v>2.81597636988122</v>
       </c>
       <c r="C102" t="n">
-        <v>12.965918136702</v>
+        <v>3.59911652838187</v>
       </c>
       <c r="D102" t="n">
-        <v>4.47532960579286</v>
+        <v>4.79094824096384</v>
       </c>
       <c r="E102" t="n">
-        <v>4.47619175802788</v>
+        <v>3.22770461858066</v>
       </c>
       <c r="F102" t="n">
-        <v>5.47358133687613</v>
+        <v>5.46602014817608</v>
       </c>
       <c r="G102" t="n">
-        <v>5.07100745220774</v>
+        <v>5.16102769390614</v>
       </c>
       <c r="H102" t="n">
-        <v>6.90717758619347</v>
+        <v>7.00723329879138</v>
       </c>
       <c r="I102" t="n">
-        <v>5.76659678777692</v>
+        <v>5.30779318212431</v>
       </c>
       <c r="J102" t="n">
-        <v>6.41864420347404</v>
+        <v>6.74888426448759</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2.02151845211552</v>
+        <v>8.49678854682659</v>
       </c>
       <c r="B103" t="n">
-        <v>3.16842974035709</v>
+        <v>11.1326390325908</v>
       </c>
       <c r="C103" t="n">
-        <v>3.3434247319027</v>
+        <v>12.5341684103092</v>
       </c>
       <c r="D103" t="n">
-        <v>4.46435246874511</v>
+        <v>12.2937631504776</v>
       </c>
       <c r="E103" t="n">
-        <v>4.48663586825404</v>
+        <v>16.2896488335853</v>
       </c>
       <c r="F103" t="n">
-        <v>5.14285499120507</v>
+        <v>14.08673165126</v>
       </c>
       <c r="G103" t="n">
-        <v>5.0780250706603</v>
+        <v>15.1822883690639</v>
       </c>
       <c r="H103" t="n">
-        <v>5.98102478563339</v>
+        <v>16.1416017814502</v>
       </c>
       <c r="I103" t="n">
-        <v>6.40940954109068</v>
+        <v>17.8727873574723</v>
       </c>
       <c r="J103" t="n">
-        <v>7.57014320500241</v>
+        <v>17.1926331296128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.62627980466442</v>
+        <v>9.33399821599759</v>
       </c>
       <c r="B104" t="n">
-        <v>2.35586861256232</v>
+        <v>10.5702237575016</v>
       </c>
       <c r="C104" t="n">
-        <v>2.17588887751771</v>
+        <v>10.9118257063305</v>
       </c>
       <c r="D104" t="n">
-        <v>3.87482909291002</v>
+        <v>13.4721320068621</v>
       </c>
       <c r="E104" t="n">
-        <v>4.40948141422736</v>
+        <v>14.5662199006828</v>
       </c>
       <c r="F104" t="n">
-        <v>5.02336135972743</v>
+        <v>14.2246687611871</v>
       </c>
       <c r="G104" t="n">
-        <v>5.51915634922861</v>
+        <v>17.0151008347072</v>
       </c>
       <c r="H104" t="n">
-        <v>4.76899731905879</v>
+        <v>17.0968614186117</v>
       </c>
       <c r="I104" t="n">
-        <v>6.60307685993864</v>
+        <v>17.7908986119994</v>
       </c>
       <c r="J104" t="n">
-        <v>7.13431139912877</v>
+        <v>18.8490096233188</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>10.8875842355319</v>
+        <v>-4.70299095301784</v>
       </c>
       <c r="B105" t="n">
-        <v>9.94285936345015</v>
+        <v>-5.41956079730585</v>
       </c>
       <c r="C105" t="n">
-        <v>12.4524207465374</v>
+        <v>-5.37086450680695</v>
       </c>
       <c r="D105" t="n">
-        <v>13.2390609814849</v>
+        <v>-6.18918013591032</v>
       </c>
       <c r="E105" t="n">
-        <v>13.5107497026</v>
+        <v>-7.1205741435714</v>
       </c>
       <c r="F105" t="n">
-        <v>14.6703541636752</v>
+        <v>-7.54308300727007</v>
       </c>
       <c r="G105" t="n">
-        <v>16.1048139606333</v>
+        <v>-8.40693731791207</v>
       </c>
       <c r="H105" t="n">
-        <v>16.7391643938556</v>
+        <v>-8.18857747799757</v>
       </c>
       <c r="I105" t="n">
-        <v>18.7071057379485</v>
+        <v>-9.1884302042198</v>
       </c>
       <c r="J105" t="n">
-        <v>18.7306223642929</v>
+        <v>-9.21465147543576</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-5.37800576814998</v>
+        <v>10.9292089104282</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.19939043941174</v>
+        <v>10.8028360386795</v>
       </c>
       <c r="C106" t="n">
-        <v>-5.86805900418205</v>
+        <v>12.4387439226908</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.63913077699385</v>
+        <v>13.8700390437556</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.84329968311441</v>
+        <v>12.9273969396025</v>
       </c>
       <c r="F106" t="n">
-        <v>-7.16714518597236</v>
+        <v>15.1776811130598</v>
       </c>
       <c r="G106" t="n">
-        <v>-8.04774332006496</v>
+        <v>15.5404091652523</v>
       </c>
       <c r="H106" t="n">
-        <v>-8.29115431207859</v>
+        <v>16.9065661124245</v>
       </c>
       <c r="I106" t="n">
-        <v>-8.71816143453092</v>
+        <v>17.7581575137109</v>
       </c>
       <c r="J106" t="n">
-        <v>-9.57823580026126</v>
+        <v>18.8782965228721</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>9.6385540566501</v>
+        <v>-4.89093923248762</v>
       </c>
       <c r="B107" t="n">
-        <v>10.4498545736067</v>
+        <v>-5.48374616332187</v>
       </c>
       <c r="C107" t="n">
-        <v>11.5525400201742</v>
+        <v>-6.02417455210815</v>
       </c>
       <c r="D107" t="n">
-        <v>12.1878386806726</v>
+        <v>-6.56755481638625</v>
       </c>
       <c r="E107" t="n">
-        <v>4.43407032465612</v>
+        <v>-7.06713944326694</v>
       </c>
       <c r="F107" t="n">
-        <v>4.37482438735917</v>
+        <v>-7.35717654487951</v>
       </c>
       <c r="G107" t="n">
-        <v>6.39554180062509</v>
+        <v>-7.88207655799069</v>
       </c>
       <c r="H107" t="n">
-        <v>5.89904183147063</v>
+        <v>-8.72630903760385</v>
       </c>
       <c r="I107" t="n">
-        <v>6.116613179889</v>
+        <v>-8.65154943421241</v>
       </c>
       <c r="J107" t="n">
-        <v>6.66087604741965</v>
+        <v>-9.69161131502501</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.6381826776029</v>
+        <v>9.64101706000909</v>
       </c>
       <c r="B108" t="n">
-        <v>9.21292862056722</v>
+        <v>10.6570752799868</v>
       </c>
       <c r="C108" t="n">
-        <v>12.4314154187123</v>
+        <v>11.886537280159</v>
       </c>
       <c r="D108" t="n">
-        <v>13.704166210194</v>
+        <v>12.7210381861353</v>
       </c>
       <c r="E108" t="n">
-        <v>14.2227421921749</v>
+        <v>13.9901617722672</v>
       </c>
       <c r="F108" t="n">
-        <v>15.8776725075911</v>
+        <v>13.3750097502678</v>
       </c>
       <c r="G108" t="n">
-        <v>16.7738778975098</v>
+        <v>16.0169285968525</v>
       </c>
       <c r="H108" t="n">
-        <v>6.19563288839815</v>
+        <v>16.6047140012631</v>
       </c>
       <c r="I108" t="n">
-        <v>5.93599689923387</v>
+        <v>19.4772469408699</v>
       </c>
       <c r="J108" t="n">
-        <v>7.30307804249282</v>
+        <v>19.20013686228</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.34030369174885</v>
+        <v>9.29610499041164</v>
       </c>
       <c r="B109" t="n">
-        <v>10.6564321954962</v>
+        <v>10.2899593031173</v>
       </c>
       <c r="C109" t="n">
-        <v>11.4887082269533</v>
+        <v>12.4626342644085</v>
       </c>
       <c r="D109" t="n">
-        <v>13.4266158027197</v>
+        <v>12.4125163067628</v>
       </c>
       <c r="E109" t="n">
-        <v>13.4468170358794</v>
+        <v>14.5133976583507</v>
       </c>
       <c r="F109" t="n">
-        <v>14.5178098034117</v>
+        <v>15.4269187592204</v>
       </c>
       <c r="G109" t="n">
-        <v>16.0319921557072</v>
+        <v>15.2845318683883</v>
       </c>
       <c r="H109" t="n">
-        <v>18.6006752494293</v>
+        <v>16.4429882670589</v>
       </c>
       <c r="I109" t="n">
-        <v>17.3641033550738</v>
+        <v>7.22770205421406</v>
       </c>
       <c r="J109" t="n">
-        <v>18.2850247044821</v>
+        <v>7.26138666896913</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-5.12480930565256</v>
+        <v>9.483736276073</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.62553121685443</v>
+        <v>11.865382327567</v>
       </c>
       <c r="C110" t="n">
-        <v>-6.16705653246836</v>
+        <v>12.4508853545642</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.27327846620986</v>
+        <v>12.6368658838874</v>
       </c>
       <c r="E110" t="n">
-        <v>-6.89388163751695</v>
+        <v>14.3258126541307</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.44225909014099</v>
+        <v>15.1582225988032</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.84973513113742</v>
+        <v>15.0853095972481</v>
       </c>
       <c r="H110" t="n">
-        <v>7.43832928701153</v>
+        <v>15.759741632927</v>
       </c>
       <c r="I110" t="n">
-        <v>6.73202464322532</v>
+        <v>16.7403831505082</v>
       </c>
       <c r="J110" t="n">
-        <v>7.72921269339571</v>
+        <v>18.8221062283057</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-4.67518180946764</v>
+        <v>2.16674392408292</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.24919960616127</v>
+        <v>2.22235929819163</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.25440140794717</v>
+        <v>2.90158595224224</v>
       </c>
       <c r="D111" t="n">
-        <v>-5.88196004089334</v>
+        <v>3.76860556875144</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.02277431467664</v>
+        <v>4.67987310480549</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.6160860109567</v>
+        <v>4.80013765639846</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.39589715025507</v>
+        <v>5.8293811944337</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.687446331634</v>
+        <v>5.77191743217988</v>
       </c>
       <c r="I111" t="n">
-        <v>-9.44645599289739</v>
+        <v>6.43798171016415</v>
       </c>
       <c r="J111" t="n">
-        <v>-9.67086891270578</v>
+        <v>7.04647638077361</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.10798251599804</v>
+        <v>2.10790660371073</v>
       </c>
       <c r="B112" t="n">
-        <v>3.14789489084994</v>
+        <v>3.12088713007181</v>
       </c>
       <c r="C112" t="n">
-        <v>3.21402345195936</v>
+        <v>3.13647364472228</v>
       </c>
       <c r="D112" t="n">
-        <v>3.59762121281754</v>
+        <v>4.88474400289161</v>
       </c>
       <c r="E112" t="n">
-        <v>4.16307001215562</v>
+        <v>4.38916926780121</v>
       </c>
       <c r="F112" t="n">
-        <v>5.72155897589198</v>
+        <v>5.17353118542282</v>
       </c>
       <c r="G112" t="n">
-        <v>5.73018920528553</v>
+        <v>5.33614591320652</v>
       </c>
       <c r="H112" t="n">
-        <v>5.88494749243861</v>
+        <v>6.55004767755002</v>
       </c>
       <c r="I112" t="n">
-        <v>6.22524160287298</v>
+        <v>6.2789026935404</v>
       </c>
       <c r="J112" t="n">
-        <v>6.65057661283637</v>
+        <v>6.53666435043157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.78964742069099</v>
+        <v>11.5601456134131</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.66263140219662</v>
+        <v>10.9603562956133</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.11579533980334</v>
+        <v>13.4183097036286</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.56914594010879</v>
+        <v>13.6790499301361</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.18940585849117</v>
+        <v>14.2540062929547</v>
       </c>
       <c r="F113" t="n">
-        <v>-7.5397721732922</v>
+        <v>17.6406174513273</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.83301883425917</v>
+        <v>16.1203076917413</v>
       </c>
       <c r="H113" t="n">
-        <v>-8.45132525425583</v>
+        <v>17.9774145869661</v>
       </c>
       <c r="I113" t="n">
-        <v>-9.07065890846072</v>
+        <v>18.9509514945677</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.72900696024102</v>
+        <v>19.205757102115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2.35437190156515</v>
+        <v>8.762586851089</v>
       </c>
       <c r="B114" t="n">
-        <v>2.96211478127693</v>
+        <v>10.711139532895</v>
       </c>
       <c r="C114" t="n">
-        <v>3.41295785884427</v>
+        <v>11.9281108514631</v>
       </c>
       <c r="D114" t="n">
-        <v>3.64862198494821</v>
+        <v>13.05297953339</v>
       </c>
       <c r="E114" t="n">
-        <v>4.17475444786795</v>
+        <v>14.5397825308576</v>
       </c>
       <c r="F114" t="n">
-        <v>4.62676130096777</v>
+        <v>15.7241729376497</v>
       </c>
       <c r="G114" t="n">
-        <v>5.87671901475289</v>
+        <v>15.5511563530581</v>
       </c>
       <c r="H114" t="n">
-        <v>18.009062840979</v>
+        <v>16.4060363891084</v>
       </c>
       <c r="I114" t="n">
-        <v>19.1789779238852</v>
+        <v>18.0431947126218</v>
       </c>
       <c r="J114" t="n">
-        <v>18.3502795788014</v>
+        <v>20.6277640262331</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-5.11869604001005</v>
+        <v>11.5229900431924</v>
       </c>
       <c r="B115" t="n">
-        <v>-5.23421021465245</v>
+        <v>11.9947933189962</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.23126892469619</v>
+        <v>11.7537930846601</v>
       </c>
       <c r="D115" t="n">
-        <v>-6.57402889899574</v>
+        <v>13.500846290684</v>
       </c>
       <c r="E115" t="n">
-        <v>-6.68836892514042</v>
+        <v>15.2638122523282</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.45452115147065</v>
+        <v>13.6616110982278</v>
       </c>
       <c r="G115" t="n">
-        <v>-8.05593450999836</v>
+        <v>16.5892831604559</v>
       </c>
       <c r="H115" t="n">
-        <v>-8.76552349317197</v>
+        <v>17.3690270459736</v>
       </c>
       <c r="I115" t="n">
-        <v>-8.86689121290362</v>
+        <v>17.5827284679157</v>
       </c>
       <c r="J115" t="n">
-        <v>-9.14437050844226</v>
+        <v>19.5185125986642</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.7193716263896</v>
+        <v>10.602409365033</v>
       </c>
       <c r="B116" t="n">
-        <v>11.9482269432977</v>
+        <v>11.1703622100475</v>
       </c>
       <c r="C116" t="n">
-        <v>12.2316391465764</v>
+        <v>12.8161378724058</v>
       </c>
       <c r="D116" t="n">
-        <v>-6.20731210258035</v>
+        <v>12.1842522472459</v>
       </c>
       <c r="E116" t="n">
-        <v>-7.12375274540037</v>
+        <v>14.0888226307525</v>
       </c>
       <c r="F116" t="n">
-        <v>-7.58397559584666</v>
+        <v>15.5900339861753</v>
       </c>
       <c r="G116" t="n">
-        <v>-8.22012332237827</v>
+        <v>15.5278625694164</v>
       </c>
       <c r="H116" t="n">
-        <v>6.24491069462773</v>
+        <v>17.0923215009604</v>
       </c>
       <c r="I116" t="n">
-        <v>6.75486612957568</v>
+        <v>19.2732036066685</v>
       </c>
       <c r="J116" t="n">
-        <v>6.42616105038859</v>
+        <v>18.4888279067225</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.80062534836536</v>
+        <v>9.80440388280423</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.25297013521262</v>
+        <v>9.79402093384701</v>
       </c>
       <c r="C117" t="n">
-        <v>-5.46966981245833</v>
+        <v>3.89781766942682</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.10204495951171</v>
+        <v>4.69623750607776</v>
       </c>
       <c r="E117" t="n">
-        <v>14.1142816998882</v>
+        <v>4.55766902432572</v>
       </c>
       <c r="F117" t="n">
-        <v>15.711764276357</v>
+        <v>5.11273821205178</v>
       </c>
       <c r="G117" t="n">
-        <v>16.6650953585024</v>
+        <v>4.91553462516351</v>
       </c>
       <c r="H117" t="n">
-        <v>17.0777420625798</v>
+        <v>6.28676445821861</v>
       </c>
       <c r="I117" t="n">
-        <v>17.2696340789163</v>
+        <v>7.11370229598975</v>
       </c>
       <c r="J117" t="n">
-        <v>19.7643762709394</v>
+        <v>6.83996630400246</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.2268959742483</v>
+        <v>-4.5825214676329</v>
       </c>
       <c r="B118" t="n">
-        <v>3.36920262168851</v>
+        <v>-5.52792139698209</v>
       </c>
       <c r="C118" t="n">
-        <v>4.10406127836733</v>
+        <v>-6.2267830386685</v>
       </c>
       <c r="D118" t="n">
-        <v>3.80408481648156</v>
+        <v>-6.45802357834878</v>
       </c>
       <c r="E118" t="n">
-        <v>4.40252534059829</v>
+        <v>-7.17963839661027</v>
       </c>
       <c r="F118" t="n">
-        <v>5.57194478984842</v>
+        <v>-7.19367509255095</v>
       </c>
       <c r="G118" t="n">
-        <v>5.5175500660796</v>
+        <v>-8.05224224222894</v>
       </c>
       <c r="H118" t="n">
-        <v>6.10596536597014</v>
+        <v>-8.58361025553077</v>
       </c>
       <c r="I118" t="n">
-        <v>6.62160230847346</v>
+        <v>-9.07810232682958</v>
       </c>
       <c r="J118" t="n">
-        <v>7.02351249822173</v>
+        <v>-9.44040743134764</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10.0122154584381</v>
+        <v>11.1956023204282</v>
       </c>
       <c r="B119" t="n">
-        <v>9.9768982447983</v>
+        <v>11.0694033736441</v>
       </c>
       <c r="C119" t="n">
-        <v>11.2428195447641</v>
+        <v>12.1986398064268</v>
       </c>
       <c r="D119" t="n">
-        <v>13.4358986117793</v>
+        <v>12.6095104790517</v>
       </c>
       <c r="E119" t="n">
-        <v>14.3631301310881</v>
+        <v>14.7652253411998</v>
       </c>
       <c r="F119" t="n">
-        <v>14.3767385828652</v>
+        <v>15.5021345935516</v>
       </c>
       <c r="G119" t="n">
-        <v>15.2118828754797</v>
+        <v>16.8889946248003</v>
       </c>
       <c r="H119" t="n">
-        <v>15.7243960360751</v>
+        <v>16.1166523886287</v>
       </c>
       <c r="I119" t="n">
-        <v>17.6553787961392</v>
+        <v>17.9792740915022</v>
       </c>
       <c r="J119" t="n">
-        <v>19.2876265285796</v>
+        <v>7.463483259543</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.84964927113577</v>
+        <v>9.33404937167402</v>
       </c>
       <c r="B120" t="n">
-        <v>3.10156003038633</v>
+        <v>11.4906208481631</v>
       </c>
       <c r="C120" t="n">
-        <v>3.25465743927973</v>
+        <v>11.2136362741325</v>
       </c>
       <c r="D120" t="n">
-        <v>4.00032737882679</v>
+        <v>13.6129122887015</v>
       </c>
       <c r="E120" t="n">
-        <v>3.57992077628868</v>
+        <v>4.89204924110944</v>
       </c>
       <c r="F120" t="n">
-        <v>4.58800407273106</v>
+        <v>3.9575387384515</v>
       </c>
       <c r="G120" t="n">
-        <v>5.37101735853697</v>
+        <v>6.03738832213339</v>
       </c>
       <c r="H120" t="n">
-        <v>6.30229918631961</v>
+        <v>6.53014371128501</v>
       </c>
       <c r="I120" t="n">
-        <v>6.97735218997373</v>
+        <v>5.92197291536277</v>
       </c>
       <c r="J120" t="n">
-        <v>7.21455569034667</v>
+        <v>6.85303783924964</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.71260230186209</v>
+        <v>11.1378427866298</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.18489676276191</v>
+        <v>3.60309830073973</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.12563264534415</v>
+        <v>3.60079946087142</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.58012670515876</v>
+        <v>3.62789529496971</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.02797181308706</v>
+        <v>4.55994253934441</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.27163012797612</v>
+        <v>5.03513304679102</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.78055430521248</v>
+        <v>5.28708055117977</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.36194710538651</v>
+        <v>5.83324618174684</v>
       </c>
       <c r="I121" t="n">
-        <v>-9.22342491039871</v>
+        <v>6.33073265588849</v>
       </c>
       <c r="J121" t="n">
-        <v>-8.94407116492209</v>
+        <v>5.34834804873365</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.04494642060673</v>
+        <v>10.0060328273002</v>
       </c>
       <c r="B122" t="n">
-        <v>10.807398299401</v>
+        <v>11.1487382171865</v>
       </c>
       <c r="C122" t="n">
-        <v>11.2730917415381</v>
+        <v>11.2769385897091</v>
       </c>
       <c r="D122" t="n">
-        <v>11.9810779488787</v>
+        <v>14.1227397726569</v>
       </c>
       <c r="E122" t="n">
-        <v>12.5777237292676</v>
+        <v>14.4762417898767</v>
       </c>
       <c r="F122" t="n">
-        <v>14.1169966821614</v>
+        <v>14.6843409139613</v>
       </c>
       <c r="G122" t="n">
-        <v>16.0090183982727</v>
+        <v>15.6810559658837</v>
       </c>
       <c r="H122" t="n">
-        <v>17.6351555519386</v>
+        <v>16.1981140567947</v>
       </c>
       <c r="I122" t="n">
-        <v>19.2312556050706</v>
+        <v>18.9953162223897</v>
       </c>
       <c r="J122" t="n">
-        <v>18.4998503646666</v>
+        <v>18.6089780912576</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.0615745084121</v>
+        <v>10.7887848739006</v>
       </c>
       <c r="B123" t="n">
-        <v>11.3123241338349</v>
+        <v>10.6947250328386</v>
       </c>
       <c r="C123" t="n">
-        <v>10.7768110238757</v>
+        <v>12.0558404469803</v>
       </c>
       <c r="D123" t="n">
-        <v>13.7891917874896</v>
+        <v>14.1536144051304</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1304011869015</v>
+        <v>14.006147880079</v>
       </c>
       <c r="F123" t="n">
-        <v>14.9364834075588</v>
+        <v>16.0379894690861</v>
       </c>
       <c r="G123" t="n">
-        <v>17.0623216011915</v>
+        <v>16.2614323359214</v>
       </c>
       <c r="H123" t="n">
-        <v>15.9726389165751</v>
+        <v>17.0366716700564</v>
       </c>
       <c r="I123" t="n">
-        <v>18.1232991842476</v>
+        <v>17.4498990687023</v>
       </c>
       <c r="J123" t="n">
-        <v>-9.53296640818164</v>
+        <v>17.5966970587525</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.3366161611062</v>
+        <v>-4.97060912033672</v>
       </c>
       <c r="B124" t="n">
-        <v>11.956676597738</v>
+        <v>-5.50473184463829</v>
       </c>
       <c r="C124" t="n">
-        <v>11.7302375509054</v>
+        <v>-5.89200601282506</v>
       </c>
       <c r="D124" t="n">
-        <v>14.1970117361777</v>
+        <v>-6.74015616808333</v>
       </c>
       <c r="E124" t="n">
-        <v>14.739909031453</v>
+        <v>-6.89634545763269</v>
       </c>
       <c r="F124" t="n">
-        <v>15.1646278335804</v>
+        <v>-7.23998012625226</v>
       </c>
       <c r="G124" t="n">
-        <v>15.9541182499378</v>
+        <v>-8.31337202560194</v>
       </c>
       <c r="H124" t="n">
-        <v>17.3936418267649</v>
+        <v>-8.22994688293175</v>
       </c>
       <c r="I124" t="n">
-        <v>17.8642297779653</v>
+        <v>-9.45893817505309</v>
       </c>
       <c r="J124" t="n">
-        <v>19.7403641540752</v>
+        <v>-9.34061281092664</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10.4394771976182</v>
+        <v>-4.89907656695345</v>
       </c>
       <c r="B125" t="n">
-        <v>11.08106356228</v>
+        <v>-5.36674848594926</v>
       </c>
       <c r="C125" t="n">
-        <v>12.3714041249966</v>
+        <v>11.1781109950849</v>
       </c>
       <c r="D125" t="n">
-        <v>5.43696890464654</v>
+        <v>12.2586178192547</v>
       </c>
       <c r="E125" t="n">
-        <v>4.09374533181717</v>
+        <v>13.4244327263787</v>
       </c>
       <c r="F125" t="n">
-        <v>4.93119761380053</v>
+        <v>15.0235705249076</v>
       </c>
       <c r="G125" t="n">
-        <v>4.831231833266</v>
+        <v>16.2310841233312</v>
       </c>
       <c r="H125" t="n">
-        <v>5.33743193023209</v>
+        <v>18.528787915765</v>
       </c>
       <c r="I125" t="n">
-        <v>6.9591312157319</v>
+        <v>17.6392675572798</v>
       </c>
       <c r="J125" t="n">
-        <v>6.38862477741926</v>
+        <v>17.9176655013116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.13103579232669</v>
+        <v>10.4046533753928</v>
       </c>
       <c r="B126" t="n">
-        <v>3.18873328464461</v>
+        <v>9.8736339498961</v>
       </c>
       <c r="C126" t="n">
-        <v>4.47014808892344</v>
+        <v>12.3058536134995</v>
       </c>
       <c r="D126" t="n">
-        <v>3.33158679776056</v>
+        <v>12.9900988960195</v>
       </c>
       <c r="E126" t="n">
-        <v>4.19799082571254</v>
+        <v>13.442950498153</v>
       </c>
       <c r="F126" t="n">
-        <v>5.8438511408081</v>
+        <v>15.1675043686251</v>
       </c>
       <c r="G126" t="n">
-        <v>5.66751446437222</v>
+        <v>15.3868073522999</v>
       </c>
       <c r="H126" t="n">
-        <v>7.224059632516</v>
+        <v>17.7034733821716</v>
       </c>
       <c r="I126" t="n">
-        <v>6.27919217732052</v>
+        <v>17.2181823392602</v>
       </c>
       <c r="J126" t="n">
-        <v>7.21490691733556</v>
+        <v>18.3290035873993</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.95320858661678</v>
+        <v>2.39376501609997</v>
       </c>
       <c r="B127" t="n">
-        <v>12.4394947944919</v>
+        <v>3.647050323379</v>
       </c>
       <c r="C127" t="n">
-        <v>11.9111659691577</v>
+        <v>12.190270172227</v>
       </c>
       <c r="D127" t="n">
-        <v>13.950057628931</v>
+        <v>13.2233534560323</v>
       </c>
       <c r="E127" t="n">
-        <v>13.2983262699829</v>
+        <v>13.8786991326139</v>
       </c>
       <c r="F127" t="n">
-        <v>14.1499458732871</v>
+        <v>15.4796763660754</v>
       </c>
       <c r="G127" t="n">
-        <v>15.0618041733008</v>
+        <v>16.4952483688689</v>
       </c>
       <c r="H127" t="n">
-        <v>17.3485298867751</v>
+        <v>18.0166660048559</v>
       </c>
       <c r="I127" t="n">
-        <v>18.1572856334895</v>
+        <v>18.5526561952769</v>
       </c>
       <c r="J127" t="n">
-        <v>19.3693538866463</v>
+        <v>19.9208082079775</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-5.1215765358185</v>
+        <v>9.35995103140665</v>
       </c>
       <c r="B128" t="n">
-        <v>11.6063008524921</v>
+        <v>10.49740857474</v>
       </c>
       <c r="C128" t="n">
-        <v>3.26887334989126</v>
+        <v>12.9429310451114</v>
       </c>
       <c r="D128" t="n">
-        <v>4.62099269495755</v>
+        <v>12.8031798557208</v>
       </c>
       <c r="E128" t="n">
-        <v>4.85607373961632</v>
+        <v>14.499726912109</v>
       </c>
       <c r="F128" t="n">
-        <v>4.67402063009285</v>
+        <v>15.6807756847219</v>
       </c>
       <c r="G128" t="n">
-        <v>5.6919416152</v>
+        <v>15.353498939355</v>
       </c>
       <c r="H128" t="n">
-        <v>6.17740794533705</v>
+        <v>16.5332302150919</v>
       </c>
       <c r="I128" t="n">
-        <v>6.67936708698274</v>
+        <v>17.5074288599213</v>
       </c>
       <c r="J128" t="n">
-        <v>7.05119080754632</v>
+        <v>18.8315784076968</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-5.13523669817893</v>
+        <v>9.44239256754742</v>
       </c>
       <c r="B129" t="n">
-        <v>-5.63179975054722</v>
+        <v>12.0874523581932</v>
       </c>
       <c r="C129" t="n">
-        <v>-6.49772977916963</v>
+        <v>12.6100839180565</v>
       </c>
       <c r="D129" t="n">
-        <v>13.4108729702322</v>
+        <v>12.2978801005766</v>
       </c>
       <c r="E129" t="n">
-        <v>12.9429592071635</v>
+        <v>12.8487371930137</v>
       </c>
       <c r="F129" t="n">
-        <v>14.5105063495595</v>
+        <v>15.8529372118307</v>
       </c>
       <c r="G129" t="n">
-        <v>15.8426721213338</v>
+        <v>16.3945310686633</v>
       </c>
       <c r="H129" t="n">
-        <v>16.9662350584385</v>
+        <v>16.8324267578448</v>
       </c>
       <c r="I129" t="n">
-        <v>18.1113282750381</v>
+        <v>17.7366668808081</v>
       </c>
       <c r="J129" t="n">
-        <v>19.1238862027311</v>
+        <v>19.9281651934778</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.4766997950164</v>
+        <v>10.3760686828183</v>
       </c>
       <c r="B130" t="n">
-        <v>10.0372074098078</v>
+        <v>12.0191139227254</v>
       </c>
       <c r="C130" t="n">
-        <v>11.6469691399359</v>
+        <v>14.3832014627371</v>
       </c>
       <c r="D130" t="n">
-        <v>13.3730178266771</v>
+        <v>4.22938808075613</v>
       </c>
       <c r="E130" t="n">
-        <v>14.3301603878406</v>
+        <v>4.2448822377521</v>
       </c>
       <c r="F130" t="n">
-        <v>5.28279479204385</v>
+        <v>4.25320691529855</v>
       </c>
       <c r="G130" t="n">
-        <v>5.61059493242667</v>
+        <v>5.87254130669993</v>
       </c>
       <c r="H130" t="n">
-        <v>6.40027106996412</v>
+        <v>17.6310536161283</v>
       </c>
       <c r="I130" t="n">
-        <v>6.21123558926692</v>
+        <v>18.8352672969746</v>
       </c>
       <c r="J130" t="n">
-        <v>7.7246081626593</v>
+        <v>20.4162242321724</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-6.00153453221206</v>
+        <v>9.73742840791385</v>
       </c>
       <c r="B131" t="n">
-        <v>-6.07123606168681</v>
+        <v>10.5487589347863</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.13258594874424</v>
+        <v>12.4233852506733</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.50963568241192</v>
+        <v>14.428763601819</v>
       </c>
       <c r="E131" t="n">
-        <v>-7.21204634498224</v>
+        <v>13.729030651745</v>
       </c>
       <c r="F131" t="n">
-        <v>-7.26948128761204</v>
+        <v>15.0845306979535</v>
       </c>
       <c r="G131" t="n">
-        <v>-8.09174048768527</v>
+        <v>17.1204054343686</v>
       </c>
       <c r="H131" t="n">
-        <v>-8.8595357074714</v>
+        <v>16.803047256033</v>
       </c>
       <c r="I131" t="n">
-        <v>-9.02978955750157</v>
+        <v>16.9287551928162</v>
       </c>
       <c r="J131" t="n">
-        <v>-9.36439979840105</v>
+        <v>18.6853610557248</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.7379133889595</v>
+        <v>-5.24345148684918</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.33030279815914</v>
+        <v>-5.31592093142983</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.30318420735298</v>
+        <v>-5.86705561874752</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.98876691253585</v>
+        <v>-6.28883819622964</v>
       </c>
       <c r="E132" t="n">
-        <v>-7.48193535811711</v>
+        <v>-6.98655571563003</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.72839830024345</v>
+        <v>-7.3013304335548</v>
       </c>
       <c r="G132" t="n">
-        <v>-8.17278122193874</v>
+        <v>-8.08285993463495</v>
       </c>
       <c r="H132" t="n">
-        <v>-8.58705778233658</v>
+        <v>-8.51652990035489</v>
       </c>
       <c r="I132" t="n">
-        <v>-8.96922846552241</v>
+        <v>-9.165662898358</v>
       </c>
       <c r="J132" t="n">
-        <v>-9.69876299109866</v>
+        <v>-9.91240135346992</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8.47131108481472</v>
+        <v>-5.23882195567896</v>
       </c>
       <c r="B133" t="n">
-        <v>12.5912532592231</v>
+        <v>-5.62242745442108</v>
       </c>
       <c r="C133" t="n">
-        <v>12.0983171147713</v>
+        <v>-6.22947843905829</v>
       </c>
       <c r="D133" t="n">
-        <v>12.9486846979047</v>
+        <v>-6.71092592694446</v>
       </c>
       <c r="E133" t="n">
-        <v>13.256012864555</v>
+        <v>-7.26135311882065</v>
       </c>
       <c r="F133" t="n">
-        <v>15.7423455262196</v>
+        <v>-7.11586919848855</v>
       </c>
       <c r="G133" t="n">
-        <v>16.9020244867001</v>
+        <v>4.96747264490073</v>
       </c>
       <c r="H133" t="n">
-        <v>17.6867436444179</v>
+        <v>6.07040336748485</v>
       </c>
       <c r="I133" t="n">
-        <v>17.7671056042345</v>
+        <v>6.76754287114866</v>
       </c>
       <c r="J133" t="n">
-        <v>6.88695806347229</v>
+        <v>6.8916438104176</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.16745715805804</v>
+        <v>2.37306722658431</v>
       </c>
       <c r="B134" t="n">
-        <v>3.48998047866269</v>
+        <v>3.2064937084873</v>
       </c>
       <c r="C134" t="n">
-        <v>3.89219991891227</v>
+        <v>4.18924584223397</v>
       </c>
       <c r="D134" t="n">
-        <v>4.29946058387722</v>
+        <v>5.00587093665885</v>
       </c>
       <c r="E134" t="n">
-        <v>5.25001813208471</v>
+        <v>4.93399713884864</v>
       </c>
       <c r="F134" t="n">
-        <v>4.26148178027307</v>
+        <v>5.47841729200522</v>
       </c>
       <c r="G134" t="n">
-        <v>5.75159937763476</v>
+        <v>5.1522507548003</v>
       </c>
       <c r="H134" t="n">
-        <v>5.8683230017565</v>
+        <v>6.23495227090189</v>
       </c>
       <c r="I134" t="n">
-        <v>6.73711892527134</v>
+        <v>5.98564916558948</v>
       </c>
       <c r="J134" t="n">
-        <v>6.88034795890894</v>
+        <v>6.41331988584929</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.19151837378638</v>
+        <v>9.19522323357355</v>
       </c>
       <c r="B135" t="n">
-        <v>3.45904947089813</v>
+        <v>11.7386565591559</v>
       </c>
       <c r="C135" t="n">
-        <v>3.07810027461128</v>
+        <v>11.0982260335545</v>
       </c>
       <c r="D135" t="n">
-        <v>4.1499961125075</v>
+        <v>13.5897528823968</v>
       </c>
       <c r="E135" t="n">
-        <v>4.39857430764587</v>
+        <v>13.15000058507</v>
       </c>
       <c r="F135" t="n">
-        <v>4.96466873567616</v>
+        <v>14.2633702763174</v>
       </c>
       <c r="G135" t="n">
-        <v>6.31310062544174</v>
+        <v>16.294121014934</v>
       </c>
       <c r="H135" t="n">
-        <v>5.77700359296647</v>
+        <v>16.5936210227576</v>
       </c>
       <c r="I135" t="n">
-        <v>6.49299290023824</v>
+        <v>18.4554685626619</v>
       </c>
       <c r="J135" t="n">
-        <v>7.02829522156057</v>
+        <v>18.9547677822134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.51716055506291</v>
+        <v>9.12763996055273</v>
       </c>
       <c r="B136" t="n">
-        <v>10.9425227916199</v>
+        <v>11.2608657230355</v>
       </c>
       <c r="C136" t="n">
-        <v>11.1902011797501</v>
+        <v>11.7647899815078</v>
       </c>
       <c r="D136" t="n">
-        <v>12.9682241382072</v>
+        <v>12.7644015387973</v>
       </c>
       <c r="E136" t="n">
-        <v>14.2628343552721</v>
+        <v>13.3797409303797</v>
       </c>
       <c r="F136" t="n">
-        <v>14.9266681017164</v>
+        <v>15.3272530739892</v>
       </c>
       <c r="G136" t="n">
-        <v>15.1887989980086</v>
+        <v>17.0313003679859</v>
       </c>
       <c r="H136" t="n">
-        <v>15.7274836604437</v>
+        <v>-8.47765846053633</v>
       </c>
       <c r="I136" t="n">
-        <v>18.2488832570723</v>
+        <v>-8.72387122223015</v>
       </c>
       <c r="J136" t="n">
-        <v>7.85767183023047</v>
+        <v>-9.76875687449777</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.881254652536</v>
+        <v>9.9989616585231</v>
       </c>
       <c r="B137" t="n">
-        <v>10.2305963093072</v>
+        <v>10.5711685653753</v>
       </c>
       <c r="C137" t="n">
-        <v>12.667531588021</v>
+        <v>13.6392559052464</v>
       </c>
       <c r="D137" t="n">
-        <v>13.026464030794</v>
+        <v>12.6798138534943</v>
       </c>
       <c r="E137" t="n">
-        <v>13.4905232069295</v>
+        <v>14.0498316711029</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.42795761707843</v>
+        <v>15.1036031278391</v>
       </c>
       <c r="G137" t="n">
-        <v>-7.88149674644045</v>
+        <v>17.2771318805943</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.28701807035822</v>
+        <v>16.3938553839208</v>
       </c>
       <c r="I137" t="n">
-        <v>-9.36787676528193</v>
+        <v>18.3599077585221</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.20070147146784</v>
+        <v>18.7420441701678</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>11.4671724882474</v>
+        <v>2.3237174082077</v>
       </c>
       <c r="B138" t="n">
-        <v>11.168934500627</v>
+        <v>3.51223546747678</v>
       </c>
       <c r="C138" t="n">
-        <v>11.1480170451606</v>
+        <v>3.70528475277534</v>
       </c>
       <c r="D138" t="n">
-        <v>13.3456828785432</v>
+        <v>3.64649993495611</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.64698834716085</v>
+        <v>4.06726350119049</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.65984092619345</v>
+        <v>5.22673591054018</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.884775046008</v>
+        <v>5.27865927747577</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.55153746474049</v>
+        <v>5.20479189935129</v>
       </c>
       <c r="I138" t="n">
-        <v>-9.10831085569991</v>
+        <v>6.39292820433081</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.64208165642523</v>
+        <v>6.72498474212421</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.43041308695362</v>
+        <v>10.5823070507846</v>
       </c>
       <c r="B139" t="n">
-        <v>2.16532451890896</v>
+        <v>10.0876805071211</v>
       </c>
       <c r="C139" t="n">
-        <v>3.65321190181494</v>
+        <v>12.7721489527184</v>
       </c>
       <c r="D139" t="n">
-        <v>4.24067796180965</v>
+        <v>13.9932509027613</v>
       </c>
       <c r="E139" t="n">
-        <v>4.35091130854382</v>
+        <v>13.9788687995484</v>
       </c>
       <c r="F139" t="n">
-        <v>5.27252486819909</v>
+        <v>16.3118316923172</v>
       </c>
       <c r="G139" t="n">
-        <v>4.9660123146875</v>
+        <v>16.4262283386486</v>
       </c>
       <c r="H139" t="n">
-        <v>4.95178545551459</v>
+        <v>17.0472588471485</v>
       </c>
       <c r="I139" t="n">
-        <v>5.66417329269253</v>
+        <v>17.5348467980364</v>
       </c>
       <c r="J139" t="n">
-        <v>6.79348046103006</v>
+        <v>19.2713257210116</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.27117939861263</v>
+        <v>9.6820047316717</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.36622108715981</v>
+        <v>10.8701867518096</v>
       </c>
       <c r="C140" t="n">
-        <v>-6.05806649606327</v>
+        <v>11.0167414113029</v>
       </c>
       <c r="D140" t="n">
-        <v>-5.96379801320222</v>
+        <v>13.5469271020247</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.13795007151258</v>
+        <v>15.0344411217136</v>
       </c>
       <c r="F140" t="n">
-        <v>-7.57100730925782</v>
+        <v>16.0154112048016</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.11854364364219</v>
+        <v>16.9682686173286</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.32745131399633</v>
+        <v>16.2874665628426</v>
       </c>
       <c r="I140" t="n">
-        <v>-8.51867529063916</v>
+        <v>18.0293190046198</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.72825278623118</v>
+        <v>18.9871036576448</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>11.4944702691371</v>
+        <v>10.2308910385596</v>
       </c>
       <c r="B141" t="n">
-        <v>10.8344533179238</v>
+        <v>10.3504706014453</v>
       </c>
       <c r="C141" t="n">
-        <v>11.6908361153744</v>
+        <v>-6.1104534760538</v>
       </c>
       <c r="D141" t="n">
-        <v>12.4332181513209</v>
+        <v>-6.65726987304453</v>
       </c>
       <c r="E141" t="n">
-        <v>5.36146284949289</v>
+        <v>-6.91898748503888</v>
       </c>
       <c r="F141" t="n">
-        <v>5.28527543697114</v>
+        <v>-7.37006362334056</v>
       </c>
       <c r="G141" t="n">
-        <v>5.87640903240342</v>
+        <v>-8.13113029346518</v>
       </c>
       <c r="H141" t="n">
-        <v>6.29457556776103</v>
+        <v>-9.0128319107825</v>
       </c>
       <c r="I141" t="n">
-        <v>6.99855603334879</v>
+        <v>-8.94539838846475</v>
       </c>
       <c r="J141" t="n">
-        <v>6.48300604838855</v>
+        <v>19.2495454566092</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.2334275222478</v>
+        <v>9.18690405341877</v>
       </c>
       <c r="B142" t="n">
-        <v>10.676259214324</v>
+        <v>9.98823604304989</v>
       </c>
       <c r="C142" t="n">
-        <v>11.0596440352778</v>
+        <v>-6.15064323040059</v>
       </c>
       <c r="D142" t="n">
-        <v>12.6609778312899</v>
+        <v>-6.50426673780577</v>
       </c>
       <c r="E142" t="n">
-        <v>13.6526531635047</v>
+        <v>-7.25395454445712</v>
       </c>
       <c r="F142" t="n">
-        <v>15.664652193015</v>
+        <v>-7.53290334841553</v>
       </c>
       <c r="G142" t="n">
-        <v>5.21542357820455</v>
+        <v>-8.13603441609273</v>
       </c>
       <c r="H142" t="n">
-        <v>5.18619591879973</v>
+        <v>-8.83766845152418</v>
       </c>
       <c r="I142" t="n">
-        <v>5.14590694749756</v>
+        <v>-9.18498245715512</v>
       </c>
       <c r="J142" t="n">
-        <v>7.51475636557955</v>
+        <v>-9.11817372023168</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10.3931650727218</v>
+        <v>-5.38808363281668</v>
       </c>
       <c r="B143" t="n">
-        <v>10.7659847217614</v>
+        <v>-5.52235624727888</v>
       </c>
       <c r="C143" t="n">
-        <v>-5.98695992234833</v>
+        <v>-5.91290033530538</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.1838848417583</v>
+        <v>-6.4361837680147</v>
       </c>
       <c r="E143" t="n">
-        <v>-7.27171515409065</v>
+        <v>-7.27162081540335</v>
       </c>
       <c r="F143" t="n">
-        <v>-7.89889082208691</v>
+        <v>-7.56312803726647</v>
       </c>
       <c r="G143" t="n">
-        <v>-7.50409786453771</v>
+        <v>-8.2150761650399</v>
       </c>
       <c r="H143" t="n">
-        <v>-8.36989015144533</v>
+        <v>-8.29439942190982</v>
       </c>
       <c r="I143" t="n">
-        <v>-9.40381055685737</v>
+        <v>-8.89497852418209</v>
       </c>
       <c r="J143" t="n">
-        <v>-9.13834312645238</v>
+        <v>-9.41834830472064</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-4.97951332118531</v>
+        <v>2.16193769367736</v>
       </c>
       <c r="B144" t="n">
-        <v>-5.04269460555438</v>
+        <v>2.55118043770612</v>
       </c>
       <c r="C144" t="n">
-        <v>-6.18833287979587</v>
+        <v>-6.15387568163482</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.86682950091431</v>
+        <v>-6.51095956168398</v>
       </c>
       <c r="E144" t="n">
-        <v>-6.73556805079553</v>
+        <v>-7.28454199406883</v>
       </c>
       <c r="F144" t="n">
-        <v>-7.34256434268562</v>
+        <v>-7.51344395537362</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.81392929064744</v>
+        <v>15.7365057856296</v>
       </c>
       <c r="H144" t="n">
-        <v>-8.49973016338608</v>
+        <v>16.9415647710194</v>
       </c>
       <c r="I144" t="n">
-        <v>-8.7744137545507</v>
+        <v>16.1515683448516</v>
       </c>
       <c r="J144" t="n">
-        <v>-9.06452546668948</v>
+        <v>19.2173538561407</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9.90123036139256</v>
+        <v>9.67985033927771</v>
       </c>
       <c r="B145" t="n">
-        <v>10.5101822328242</v>
+        <v>10.4712798775562</v>
       </c>
       <c r="C145" t="n">
-        <v>13.431503792154</v>
+        <v>11.4877648000442</v>
       </c>
       <c r="D145" t="n">
-        <v>13.6152225228342</v>
+        <v>12.6828942328823</v>
       </c>
       <c r="E145" t="n">
-        <v>-6.83251882781953</v>
+        <v>13.7616817326075</v>
       </c>
       <c r="F145" t="n">
-        <v>-7.22033711566636</v>
+        <v>14.2769291929288</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.17352763896405</v>
+        <v>14.4569170885573</v>
       </c>
       <c r="H145" t="n">
-        <v>-8.32835904760352</v>
+        <v>16.0925397694809</v>
       </c>
       <c r="I145" t="n">
-        <v>-8.92149834831608</v>
+        <v>17.3124400325496</v>
       </c>
       <c r="J145" t="n">
-        <v>-9.50582319827269</v>
+        <v>-9.73612980966744</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-5.25128410007942</v>
+        <v>2.46566190630778</v>
       </c>
       <c r="B146" t="n">
-        <v>9.30931342063851</v>
+        <v>3.05465285439124</v>
       </c>
       <c r="C146" t="n">
-        <v>12.3830056522416</v>
+        <v>3.42135550097411</v>
       </c>
       <c r="D146" t="n">
-        <v>4.30947777644107</v>
+        <v>12.8015457493332</v>
       </c>
       <c r="E146" t="n">
-        <v>5.20502922769895</v>
+        <v>14.8152259881846</v>
       </c>
       <c r="F146" t="n">
-        <v>5.25345504025869</v>
+        <v>15.1533703645333</v>
       </c>
       <c r="G146" t="n">
-        <v>5.23338624336496</v>
+        <v>17.6067363641613</v>
       </c>
       <c r="H146" t="n">
-        <v>6.10798103961915</v>
+        <v>17.8484219425253</v>
       </c>
       <c r="I146" t="n">
-        <v>5.83236806157091</v>
+        <v>18.1291447380307</v>
       </c>
       <c r="J146" t="n">
-        <v>6.05385542454475</v>
+        <v>19.1490148646663</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-4.5971404954137</v>
+        <v>9.98699682599156</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.16035376277025</v>
+        <v>9.90558309107344</v>
       </c>
       <c r="C147" t="n">
-        <v>-6.09441197195613</v>
+        <v>12.5365753976052</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.57782470053362</v>
+        <v>12.0490126306376</v>
       </c>
       <c r="E147" t="n">
-        <v>-6.79844347288456</v>
+        <v>14.7502650600598</v>
       </c>
       <c r="F147" t="n">
-        <v>-7.32013987132277</v>
+        <v>14.2871983952774</v>
       </c>
       <c r="G147" t="n">
-        <v>-7.51575861913144</v>
+        <v>15.9510161877025</v>
       </c>
       <c r="H147" t="n">
-        <v>6.33871869503967</v>
+        <v>16.8731114110211</v>
       </c>
       <c r="I147" t="n">
-        <v>6.29606722235646</v>
+        <v>18.5805643215524</v>
       </c>
       <c r="J147" t="n">
-        <v>6.41454070423152</v>
+        <v>19.6541306313921</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>11.0379983500289</v>
+        <v>-5.28083894099429</v>
       </c>
       <c r="B148" t="n">
-        <v>10.7551735811451</v>
+        <v>-5.45284159352097</v>
       </c>
       <c r="C148" t="n">
-        <v>11.9085854107536</v>
+        <v>-5.74023615508163</v>
       </c>
       <c r="D148" t="n">
-        <v>13.2367590720523</v>
+        <v>-6.18828143774174</v>
       </c>
       <c r="E148" t="n">
-        <v>13.8880254766569</v>
+        <v>4.94982282987823</v>
       </c>
       <c r="F148" t="n">
-        <v>15.020571358997</v>
+        <v>5.26642725402925</v>
       </c>
       <c r="G148" t="n">
-        <v>16.9496668523622</v>
+        <v>5.24874776181772</v>
       </c>
       <c r="H148" t="n">
-        <v>-8.27560980119247</v>
+        <v>6.31625987119396</v>
       </c>
       <c r="I148" t="n">
-        <v>-8.92984601121296</v>
+        <v>6.4286046718379</v>
       </c>
       <c r="J148" t="n">
-        <v>-10.0141633496161</v>
+        <v>7.85458875762329</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.03255255322996</v>
+        <v>2.24845861694754</v>
       </c>
       <c r="B149" t="n">
-        <v>11.2690060763036</v>
+        <v>2.9096859689922</v>
       </c>
       <c r="C149" t="n">
-        <v>11.0331103524519</v>
+        <v>3.67162545978137</v>
       </c>
       <c r="D149" t="n">
-        <v>12.2302728852876</v>
+        <v>3.40392404126144</v>
       </c>
       <c r="E149" t="n">
-        <v>14.632637445511</v>
+        <v>3.91058749273662</v>
       </c>
       <c r="F149" t="n">
-        <v>14.2716780097564</v>
+        <v>5.13457615672703</v>
       </c>
       <c r="G149" t="n">
-        <v>15.3289662056917</v>
+        <v>4.20480677121127</v>
       </c>
       <c r="H149" t="n">
-        <v>18.3160898491833</v>
+        <v>5.38100993431874</v>
       </c>
       <c r="I149" t="n">
-        <v>18.2298996220175</v>
+        <v>6.28888001832354</v>
       </c>
       <c r="J149" t="n">
-        <v>-9.51629078894508</v>
+        <v>7.2318274080579</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.05159927380239</v>
+        <v>10.1498788126347</v>
       </c>
       <c r="B150" t="n">
-        <v>10.974448371787</v>
+        <v>11.4588097453731</v>
       </c>
       <c r="C150" t="n">
-        <v>11.4217791457166</v>
+        <v>11.479037130037</v>
       </c>
       <c r="D150" t="n">
-        <v>4.29292743098394</v>
+        <v>12.9907254892621</v>
       </c>
       <c r="E150" t="n">
-        <v>4.93433306575503</v>
+        <v>15.0512245643498</v>
       </c>
       <c r="F150" t="n">
-        <v>4.93149458347426</v>
+        <v>14.7839000621577</v>
       </c>
       <c r="G150" t="n">
-        <v>5.62664195564564</v>
+        <v>15.9472090483671</v>
       </c>
       <c r="H150" t="n">
-        <v>6.9199284137763</v>
+        <v>17.6800233687006</v>
       </c>
       <c r="I150" t="n">
-        <v>5.91387776118789</v>
+        <v>17.6375578515198</v>
       </c>
       <c r="J150" t="n">
-        <v>7.09226576033476</v>
+        <v>19.8009364292313</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9.27789831061557</v>
+        <v>10.2502282184572</v>
       </c>
       <c r="B151" t="n">
-        <v>10.5962566594328</v>
+        <v>11.9144422533429</v>
       </c>
       <c r="C151" t="n">
-        <v>12.5327503324936</v>
+        <v>12.7563789279487</v>
       </c>
       <c r="D151" t="n">
-        <v>12.480534563228</v>
+        <v>13.0240902094322</v>
       </c>
       <c r="E151" t="n">
-        <v>12.9341261130239</v>
+        <v>14.4918820396163</v>
       </c>
       <c r="F151" t="n">
-        <v>14.1886464361205</v>
+        <v>14.1985360152661</v>
       </c>
       <c r="G151" t="n">
-        <v>16.0487031132937</v>
+        <v>15.8947274030436</v>
       </c>
       <c r="H151" t="n">
-        <v>16.9838579524611</v>
+        <v>16.4248559873968</v>
       </c>
       <c r="I151" t="n">
-        <v>18.9023529137682</v>
+        <v>17.866519504034</v>
       </c>
       <c r="J151" t="n">
-        <v>18.5714971676619</v>
+        <v>19.3257799050205</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8.82400398985916</v>
+        <v>-5.27685875219499</v>
       </c>
       <c r="B152" t="n">
-        <v>4.02535858914451</v>
+        <v>-5.45941464825488</v>
       </c>
       <c r="C152" t="n">
-        <v>2.46216036162952</v>
+        <v>-5.76665271616945</v>
       </c>
       <c r="D152" t="n">
-        <v>4.83940545357579</v>
+        <v>-6.1982615688344</v>
       </c>
       <c r="E152" t="n">
-        <v>4.2701920705054</v>
+        <v>-7.26029938654312</v>
       </c>
       <c r="F152" t="n">
-        <v>5.04712229234103</v>
+        <v>-8.07581452729118</v>
       </c>
       <c r="G152" t="n">
-        <v>5.56425907839892</v>
+        <v>-8.01136937121961</v>
       </c>
       <c r="H152" t="n">
-        <v>6.55074921606257</v>
+        <v>-9.00304089782318</v>
       </c>
       <c r="I152" t="n">
-        <v>6.64720230335668</v>
+        <v>-8.6900647837592</v>
       </c>
       <c r="J152" t="n">
-        <v>6.91989609062805</v>
+        <v>-9.68369123706282</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.67209307157226</v>
+        <v>-5.29632735995432</v>
       </c>
       <c r="B153" t="n">
-        <v>3.00635084614856</v>
+        <v>-5.64228962250715</v>
       </c>
       <c r="C153" t="n">
-        <v>3.75826467097883</v>
+        <v>-5.55164676244521</v>
       </c>
       <c r="D153" t="n">
-        <v>4.28037964841595</v>
+        <v>-6.50502471725545</v>
       </c>
       <c r="E153" t="n">
-        <v>4.45699538017082</v>
+        <v>-7.25584565294899</v>
       </c>
       <c r="F153" t="n">
-        <v>4.52692540053083</v>
+        <v>-7.87989960250019</v>
       </c>
       <c r="G153" t="n">
-        <v>5.60014196191542</v>
+        <v>-8.12143956186731</v>
       </c>
       <c r="H153" t="n">
-        <v>6.47758108140707</v>
+        <v>-8.60391081529815</v>
       </c>
       <c r="I153" t="n">
-        <v>6.53512049410282</v>
+        <v>-9.01330727459522</v>
       </c>
       <c r="J153" t="n">
-        <v>7.27775803071066</v>
+        <v>-9.58095263648681</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8.42953983290916</v>
+        <v>2.63777521441901</v>
       </c>
       <c r="B154" t="n">
-        <v>3.6041424750255</v>
+        <v>2.91775859656243</v>
       </c>
       <c r="C154" t="n">
-        <v>3.79221535952218</v>
+        <v>3.08927138060575</v>
       </c>
       <c r="D154" t="n">
-        <v>3.7783263732406</v>
+        <v>4.94645522204094</v>
       </c>
       <c r="E154" t="n">
-        <v>4.69029330772259</v>
+        <v>3.54871833188182</v>
       </c>
       <c r="F154" t="n">
-        <v>5.48714257428032</v>
+        <v>5.20345829673159</v>
       </c>
       <c r="G154" t="n">
-        <v>5.17105681894915</v>
+        <v>5.65199091487723</v>
       </c>
       <c r="H154" t="n">
-        <v>4.72811639472395</v>
+        <v>5.47737809068282</v>
       </c>
       <c r="I154" t="n">
-        <v>6.83608131379271</v>
+        <v>6.34144951011734</v>
       </c>
       <c r="J154" t="n">
-        <v>7.08114229379813</v>
+        <v>7.703530951797</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>11.1893202693128</v>
+        <v>11.549450116953</v>
       </c>
       <c r="B155" t="n">
-        <v>11.6663943855211</v>
+        <v>10.5563351511169</v>
       </c>
       <c r="C155" t="n">
-        <v>11.5803152075747</v>
+        <v>10.1711340847677</v>
       </c>
       <c r="D155" t="n">
-        <v>12.3630616779328</v>
+        <v>13.2266431363176</v>
       </c>
       <c r="E155" t="n">
-        <v>14.0700735975675</v>
+        <v>14.1563372259177</v>
       </c>
       <c r="F155" t="n">
-        <v>14.368585584558</v>
+        <v>15.3603957389528</v>
       </c>
       <c r="G155" t="n">
-        <v>15.5252344879441</v>
+        <v>15.3876647843704</v>
       </c>
       <c r="H155" t="n">
-        <v>16.5497123654761</v>
+        <v>6.55166094986192</v>
       </c>
       <c r="I155" t="n">
-        <v>16.5047305601785</v>
+        <v>5.69135071296918</v>
       </c>
       <c r="J155" t="n">
-        <v>19.5143506947421</v>
+        <v>6.67635831893332</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.6361082831301</v>
+        <v>-4.86372386588191</v>
       </c>
       <c r="B156" t="n">
-        <v>-5.68341923091705</v>
+        <v>-5.44184858649347</v>
       </c>
       <c r="C156" t="n">
-        <v>-5.71253160334762</v>
+        <v>-6.06953607656592</v>
       </c>
       <c r="D156" t="n">
-        <v>-6.43676811064901</v>
+        <v>-6.51818894530368</v>
       </c>
       <c r="E156" t="n">
-        <v>-7.16524760740831</v>
+        <v>-7.43403812504721</v>
       </c>
       <c r="F156" t="n">
-        <v>-6.82262517707608</v>
+        <v>-7.33364163992808</v>
       </c>
       <c r="G156" t="n">
-        <v>-7.86747750695805</v>
+        <v>-8.29437156706191</v>
       </c>
       <c r="H156" t="n">
-        <v>-8.33963192100238</v>
+        <v>-8.5159574025506</v>
       </c>
       <c r="I156" t="n">
-        <v>-9.06689941903855</v>
+        <v>-8.88654428990093</v>
       </c>
       <c r="J156" t="n">
-        <v>-9.34747211998123</v>
+        <v>-9.34969890109057</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.2508801831086</v>
+        <v>8.62280283527777</v>
       </c>
       <c r="B157" t="n">
-        <v>2.88307167544115</v>
+        <v>10.9134907987724</v>
       </c>
       <c r="C157" t="n">
-        <v>2.86644856754328</v>
+        <v>12.5691507263295</v>
       </c>
       <c r="D157" t="n">
-        <v>4.83598343745875</v>
+        <v>12.289823046624</v>
       </c>
       <c r="E157" t="n">
-        <v>4.78602624203379</v>
+        <v>13.4157933982296</v>
       </c>
       <c r="F157" t="n">
-        <v>5.30653628967963</v>
+        <v>15.1608748824146</v>
       </c>
       <c r="G157" t="n">
-        <v>5.91695396683151</v>
+        <v>15.5966949254981</v>
       </c>
       <c r="H157" t="n">
-        <v>5.89415323734853</v>
+        <v>16.0798712947121</v>
       </c>
       <c r="I157" t="n">
-        <v>6.15532811739956</v>
+        <v>-9.00017936377946</v>
       </c>
       <c r="J157" t="n">
-        <v>6.13783278875755</v>
+        <v>-9.46904704950292</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-5.5937661635567</v>
+        <v>9.58034969339305</v>
       </c>
       <c r="B158" t="n">
-        <v>-5.67261942429974</v>
+        <v>12.1419917211777</v>
       </c>
       <c r="C158" t="n">
-        <v>-5.96082675867795</v>
+        <v>12.6055361534155</v>
       </c>
       <c r="D158" t="n">
-        <v>-6.26331558333445</v>
+        <v>11.980262249436</v>
       </c>
       <c r="E158" t="n">
-        <v>-7.10341953684728</v>
+        <v>13.5582881852815</v>
       </c>
       <c r="F158" t="n">
-        <v>-7.84931107355372</v>
+        <v>15.2717354731735</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.89338270061461</v>
+        <v>15.9312129472517</v>
       </c>
       <c r="H158" t="n">
-        <v>-7.87618446593786</v>
+        <v>17.6707369936969</v>
       </c>
       <c r="I158" t="n">
-        <v>-8.73386666864979</v>
+        <v>17.7422070834521</v>
       </c>
       <c r="J158" t="n">
-        <v>-9.37419951770493</v>
+        <v>18.365772870167</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.78917407141241</v>
+        <v>2.34710867293711</v>
       </c>
       <c r="B159" t="n">
-        <v>11.5968646391446</v>
+        <v>2.8255127052657</v>
       </c>
       <c r="C159" t="n">
-        <v>11.7484074306</v>
+        <v>3.60701681628141</v>
       </c>
       <c r="D159" t="n">
-        <v>13.6592805420769</v>
+        <v>4.1257457472733</v>
       </c>
       <c r="E159" t="n">
-        <v>14.2526628385447</v>
+        <v>4.79293819488395</v>
       </c>
       <c r="F159" t="n">
-        <v>15.9177268904967</v>
+        <v>4.79098875125207</v>
       </c>
       <c r="G159" t="n">
-        <v>17.0003333531342</v>
+        <v>5.3167663726651</v>
       </c>
       <c r="H159" t="n">
-        <v>16.0613871190237</v>
+        <v>6.23931555212207</v>
       </c>
       <c r="I159" t="n">
-        <v>5.65609965656788</v>
+        <v>6.67435684725937</v>
       </c>
       <c r="J159" t="n">
-        <v>6.30955735760087</v>
+        <v>6.48405488144741</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.13155409690983</v>
+        <v>2.84223347754671</v>
       </c>
       <c r="B160" t="n">
-        <v>11.3283955977199</v>
+        <v>2.93687613741545</v>
       </c>
       <c r="C160" t="n">
-        <v>11.3762022600127</v>
+        <v>3.26802693927891</v>
       </c>
       <c r="D160" t="n">
-        <v>12.587712990386</v>
+        <v>5.0874733971002</v>
       </c>
       <c r="E160" t="n">
-        <v>14.2253041862446</v>
+        <v>5.25682288631717</v>
       </c>
       <c r="F160" t="n">
-        <v>14.8370539928612</v>
+        <v>5.1992264390714</v>
       </c>
       <c r="G160" t="n">
-        <v>15.1360872871807</v>
+        <v>4.74635172248013</v>
       </c>
       <c r="H160" t="n">
-        <v>16.391086277912</v>
+        <v>5.15558893688103</v>
       </c>
       <c r="I160" t="n">
-        <v>18.2847424802549</v>
+        <v>6.94912142416716</v>
       </c>
       <c r="J160" t="n">
-        <v>20.4097830871916</v>
+        <v>6.69866926839185</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.228976566344</v>
+        <v>-5.07610245515861</v>
       </c>
       <c r="B161" t="n">
-        <v>11.3236740038312</v>
+        <v>-5.36271728449138</v>
       </c>
       <c r="C161" t="n">
-        <v>11.8129607483756</v>
+        <v>-6.2084592438755</v>
       </c>
       <c r="D161" t="n">
-        <v>12.3780475943356</v>
+        <v>-6.59739755177908</v>
       </c>
       <c r="E161" t="n">
-        <v>14.5717707783779</v>
+        <v>-7.2204143629776</v>
       </c>
       <c r="F161" t="n">
-        <v>15.3222863636696</v>
+        <v>-7.61630249214459</v>
       </c>
       <c r="G161" t="n">
-        <v>15.3676443911307</v>
+        <v>-8.34347712072061</v>
       </c>
       <c r="H161" t="n">
-        <v>17.9047902769606</v>
+        <v>-8.49292060757941</v>
       </c>
       <c r="I161" t="n">
-        <v>17.0609892077283</v>
+        <v>-8.9668952764729</v>
       </c>
       <c r="J161" t="n">
-        <v>20.0628012820877</v>
+        <v>-9.50703038723725</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.6551995103826</v>
+        <v>10.1695145283181</v>
       </c>
       <c r="B162" t="n">
-        <v>11.1826093553069</v>
+        <v>11.5071702156282</v>
       </c>
       <c r="C162" t="n">
-        <v>12.5534784427965</v>
+        <v>13.0294774154932</v>
       </c>
       <c r="D162" t="n">
-        <v>14.0616826302745</v>
+        <v>13.102098359073</v>
       </c>
       <c r="E162" t="n">
-        <v>14.7390593205605</v>
+        <v>14.2991735075332</v>
       </c>
       <c r="F162" t="n">
-        <v>15.3965750458629</v>
+        <v>14.1858227707661</v>
       </c>
       <c r="G162" t="n">
-        <v>14.861199899637</v>
+        <v>15.2872163985031</v>
       </c>
       <c r="H162" t="n">
-        <v>17.3824129413824</v>
+        <v>17.4123036081367</v>
       </c>
       <c r="I162" t="n">
-        <v>17.5905939933612</v>
+        <v>16.4144864974952</v>
       </c>
       <c r="J162" t="n">
-        <v>18.4827798125604</v>
+        <v>18.4938067864251</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.4311855426447</v>
+        <v>-4.44435030589642</v>
       </c>
       <c r="B163" t="n">
-        <v>10.320547242375</v>
+        <v>-5.50958055445806</v>
       </c>
       <c r="C163" t="n">
-        <v>10.9986474075909</v>
+        <v>-6.26265949927366</v>
       </c>
       <c r="D163" t="n">
-        <v>12.4835603253742</v>
+        <v>-6.90089797105078</v>
       </c>
       <c r="E163" t="n">
-        <v>13.8145623624616</v>
+        <v>-7.30384814129462</v>
       </c>
       <c r="F163" t="n">
-        <v>16.7643774023781</v>
+        <v>-7.56963482884183</v>
       </c>
       <c r="G163" t="n">
-        <v>15.6658649594456</v>
+        <v>-7.96532405266043</v>
       </c>
       <c r="H163" t="n">
-        <v>16.4246633260666</v>
+        <v>-8.21632624941083</v>
       </c>
       <c r="I163" t="n">
-        <v>18.2162354310178</v>
+        <v>-8.6818905650183</v>
       </c>
       <c r="J163" t="n">
-        <v>20.5154640886453</v>
+        <v>-9.62991706170662</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.8819176035632</v>
+        <v>9.41143836881651</v>
       </c>
       <c r="B164" t="n">
-        <v>11.0665127472447</v>
+        <v>10.7972660429502</v>
       </c>
       <c r="C164" t="n">
-        <v>13.4153841673898</v>
+        <v>11.7455607336489</v>
       </c>
       <c r="D164" t="n">
-        <v>14.2812889515889</v>
+        <v>12.5131545218428</v>
       </c>
       <c r="E164" t="n">
-        <v>-7.26216789318241</v>
+        <v>13.8185555138576</v>
       </c>
       <c r="F164" t="n">
-        <v>-7.66982506229977</v>
+        <v>14.8091123934464</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.53732674652779</v>
+        <v>16.5095358357916</v>
       </c>
       <c r="H164" t="n">
-        <v>-8.49682959573413</v>
+        <v>16.9365494693171</v>
       </c>
       <c r="I164" t="n">
-        <v>6.01781225563752</v>
+        <v>19.2485845719972</v>
       </c>
       <c r="J164" t="n">
-        <v>6.39588692337353</v>
+        <v>17.560563035074</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>9.26262461492301</v>
+        <v>10.450845886063</v>
       </c>
       <c r="B165" t="n">
-        <v>10.9604506767878</v>
+        <v>11.858524632286</v>
       </c>
       <c r="C165" t="n">
-        <v>13.2208559456536</v>
+        <v>11.0463676388429</v>
       </c>
       <c r="D165" t="n">
-        <v>13.0472754818375</v>
+        <v>13.8756988718652</v>
       </c>
       <c r="E165" t="n">
-        <v>13.802416993244</v>
+        <v>14.9704160208012</v>
       </c>
       <c r="F165" t="n">
-        <v>14.4338592919744</v>
+        <v>13.5164186038349</v>
       </c>
       <c r="G165" t="n">
-        <v>16.6960280628819</v>
+        <v>14.9874815429748</v>
       </c>
       <c r="H165" t="n">
-        <v>6.63142895300102</v>
+        <v>17.7589699790513</v>
       </c>
       <c r="I165" t="n">
-        <v>6.38511108258292</v>
+        <v>18.2254630291668</v>
       </c>
       <c r="J165" t="n">
-        <v>6.5336244994371</v>
+        <v>17.550906115289</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3.1158518267219</v>
+        <v>11.0474856367787</v>
       </c>
       <c r="B166" t="n">
-        <v>3.44535218348974</v>
+        <v>11.5733640784681</v>
       </c>
       <c r="C166" t="n">
-        <v>3.35427637494085</v>
+        <v>13.0210420620524</v>
       </c>
       <c r="D166" t="n">
-        <v>4.2571626964604</v>
+        <v>13.833796496665</v>
       </c>
       <c r="E166" t="n">
-        <v>4.79979239502481</v>
+        <v>14.188809436313</v>
       </c>
       <c r="F166" t="n">
-        <v>4.97986972924674</v>
+        <v>14.8201291600688</v>
       </c>
       <c r="G166" t="n">
-        <v>5.85810165084265</v>
+        <v>16.5443894780878</v>
       </c>
       <c r="H166" t="n">
-        <v>6.9324865509101</v>
+        <v>18.0903294718512</v>
       </c>
       <c r="I166" t="n">
-        <v>6.65122311235199</v>
+        <v>17.3173607175404</v>
       </c>
       <c r="J166" t="n">
-        <v>7.19249047324096</v>
+        <v>19.5570365647145</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-5.32543478212292</v>
+        <v>2.57000534524544</v>
       </c>
       <c r="B167" t="n">
-        <v>-5.45801454203336</v>
+        <v>2.65345941927365</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.10675885422292</v>
+        <v>3.93926320079833</v>
       </c>
       <c r="D167" t="n">
-        <v>-5.93752495414198</v>
+        <v>4.41578087413011</v>
       </c>
       <c r="E167" t="n">
-        <v>-6.84509432096333</v>
+        <v>4.36185077007018</v>
       </c>
       <c r="F167" t="n">
-        <v>-7.44010991828927</v>
+        <v>4.52296801194536</v>
       </c>
       <c r="G167" t="n">
-        <v>-8.41316665063805</v>
+        <v>5.5524897755163</v>
       </c>
       <c r="H167" t="n">
-        <v>-8.58017174879965</v>
+        <v>6.41427748680331</v>
       </c>
       <c r="I167" t="n">
-        <v>-9.20723335132873</v>
+        <v>5.96033284150291</v>
       </c>
       <c r="J167" t="n">
-        <v>-9.76594919516366</v>
+        <v>6.89283568458421</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.21482690080649</v>
+        <v>2.6107115002536</v>
       </c>
       <c r="B168" t="n">
-        <v>2.71270821626493</v>
+        <v>4.06192858698759</v>
       </c>
       <c r="C168" t="n">
-        <v>2.95050337491022</v>
+        <v>3.50949543724371</v>
       </c>
       <c r="D168" t="n">
-        <v>3.47469686896756</v>
+        <v>4.37840124555158</v>
       </c>
       <c r="E168" t="n">
-        <v>4.55140033291152</v>
+        <v>4.13466629973407</v>
       </c>
       <c r="F168" t="n">
-        <v>5.11336517336378</v>
+        <v>5.26565094468854</v>
       </c>
       <c r="G168" t="n">
-        <v>4.73223994226527</v>
+        <v>5.2075657132595</v>
       </c>
       <c r="H168" t="n">
-        <v>5.26004341307574</v>
+        <v>6.3085682341082</v>
       </c>
       <c r="I168" t="n">
-        <v>6.65721810304081</v>
+        <v>6.305557518836</v>
       </c>
       <c r="J168" t="n">
-        <v>6.40116604397571</v>
+        <v>5.99774619026786</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.1416465249175</v>
+        <v>10.9559807619025</v>
       </c>
       <c r="B169" t="n">
-        <v>3.19467874805307</v>
+        <v>11.18783125855</v>
       </c>
       <c r="C169" t="n">
-        <v>3.29858511858183</v>
+        <v>12.8188963522345</v>
       </c>
       <c r="D169" t="n">
-        <v>3.58291654245895</v>
+        <v>-6.54492464676739</v>
       </c>
       <c r="E169" t="n">
-        <v>4.58788465598667</v>
+        <v>-6.96124686039221</v>
       </c>
       <c r="F169" t="n">
-        <v>4.50992382098113</v>
+        <v>-7.58212096482649</v>
       </c>
       <c r="G169" t="n">
-        <v>4.22643973046209</v>
+        <v>-8.24211763531327</v>
       </c>
       <c r="H169" t="n">
-        <v>6.53333406271446</v>
+        <v>-8.25363007801471</v>
       </c>
       <c r="I169" t="n">
-        <v>5.52358645417166</v>
+        <v>-9.05315970808207</v>
       </c>
       <c r="J169" t="n">
-        <v>7.30500159879824</v>
+        <v>18.4560370115067</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.9232298186764</v>
+        <v>10.2832958105764</v>
       </c>
       <c r="B170" t="n">
-        <v>10.5998155622817</v>
+        <v>10.9937814716209</v>
       </c>
       <c r="C170" t="n">
-        <v>10.722107164131</v>
+        <v>12.1654208753354</v>
       </c>
       <c r="D170" t="n">
-        <v>13.4536295261096</v>
+        <v>12.1902661528554</v>
       </c>
       <c r="E170" t="n">
-        <v>13.7218087728377</v>
+        <v>13.4390296288592</v>
       </c>
       <c r="F170" t="n">
-        <v>14.7381197459324</v>
+        <v>14.6148822390095</v>
       </c>
       <c r="G170" t="n">
-        <v>15.0011286199888</v>
+        <v>15.3214778727071</v>
       </c>
       <c r="H170" t="n">
-        <v>18.8632230291328</v>
+        <v>16.6626550420593</v>
       </c>
       <c r="I170" t="n">
-        <v>17.9837996309452</v>
+        <v>17.5526446423276</v>
       </c>
       <c r="J170" t="n">
-        <v>19.1417603707334</v>
+        <v>18.3377738274083</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.6664967082181</v>
+        <v>-4.6098925029018</v>
       </c>
       <c r="B171" t="n">
-        <v>2.71732212074605</v>
+        <v>-5.46594988486222</v>
       </c>
       <c r="C171" t="n">
-        <v>3.11227880444152</v>
+        <v>-5.86403808638555</v>
       </c>
       <c r="D171" t="n">
-        <v>3.79319011845323</v>
+        <v>-6.58836256097487</v>
       </c>
       <c r="E171" t="n">
-        <v>4.71796173353749</v>
+        <v>-6.48358129976306</v>
       </c>
       <c r="F171" t="n">
-        <v>4.77921419225339</v>
+        <v>-7.33410553863813</v>
       </c>
       <c r="G171" t="n">
-        <v>5.6053625860508</v>
+        <v>-8.14685431788944</v>
       </c>
       <c r="H171" t="n">
-        <v>6.00964650053767</v>
+        <v>-8.97220757038609</v>
       </c>
       <c r="I171" t="n">
-        <v>6.76023271275508</v>
+        <v>-9.32115167276895</v>
       </c>
       <c r="J171" t="n">
-        <v>7.57304091110963</v>
+        <v>-9.732076482039</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>11.2854771188727</v>
+        <v>-5.26112034237485</v>
       </c>
       <c r="B172" t="n">
-        <v>11.2109497496614</v>
+        <v>-5.50039370747769</v>
       </c>
       <c r="C172" t="n">
-        <v>11.8605705412811</v>
+        <v>-6.08615256811133</v>
       </c>
       <c r="D172" t="n">
-        <v>13.2335649783927</v>
+        <v>-6.41271924356727</v>
       </c>
       <c r="E172" t="n">
-        <v>-6.74879499587722</v>
+        <v>-7.30754875484791</v>
       </c>
       <c r="F172" t="n">
-        <v>-7.1200404676327</v>
+        <v>14.1571808597654</v>
       </c>
       <c r="G172" t="n">
-        <v>-8.07004668377402</v>
+        <v>16.7198652599562</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.71653249494552</v>
+        <v>17.7938273481468</v>
       </c>
       <c r="I172" t="n">
-        <v>-9.19336331947288</v>
+        <v>18.2347449661891</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.42836477516526</v>
+        <v>17.7145336978475</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>9.89198717698318</v>
+        <v>9.25313255927442</v>
       </c>
       <c r="B173" t="n">
-        <v>10.9861035217436</v>
+        <v>10.5915410414795</v>
       </c>
       <c r="C173" t="n">
-        <v>12.3843190499819</v>
+        <v>12.5085132243445</v>
       </c>
       <c r="D173" t="n">
-        <v>12.2252705206869</v>
+        <v>13.3001923871315</v>
       </c>
       <c r="E173" t="n">
-        <v>14.6436765362762</v>
+        <v>13.5691103123963</v>
       </c>
       <c r="F173" t="n">
-        <v>14.871849932778</v>
+        <v>15.2919770315717</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.70542042068744</v>
+        <v>16.4757441856519</v>
       </c>
       <c r="H173" t="n">
-        <v>16.8729534842247</v>
+        <v>16.4332523076504</v>
       </c>
       <c r="I173" t="n">
-        <v>18.2414720574581</v>
+        <v>18.3220200676875</v>
       </c>
       <c r="J173" t="n">
-        <v>18.7854249127637</v>
+        <v>18.6207316900432</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10.617067243314</v>
+        <v>1.74542663216654</v>
       </c>
       <c r="B174" t="n">
-        <v>9.35424493847136</v>
+        <v>2.57223002243095</v>
       </c>
       <c r="C174" t="n">
-        <v>12.5873933821412</v>
+        <v>2.88479083189997</v>
       </c>
       <c r="D174" t="n">
-        <v>13.3431743742664</v>
+        <v>4.0236491289792</v>
       </c>
       <c r="E174" t="n">
-        <v>14.4752902396523</v>
+        <v>4.44973048998142</v>
       </c>
       <c r="F174" t="n">
-        <v>5.34592921521169</v>
+        <v>5.23727624048536</v>
       </c>
       <c r="G174" t="n">
-        <v>4.96581759488645</v>
+        <v>4.67925597586059</v>
       </c>
       <c r="H174" t="n">
-        <v>6.41846150190812</v>
+        <v>6.27017955601728</v>
       </c>
       <c r="I174" t="n">
-        <v>6.49920994066257</v>
+        <v>6.326898436877</v>
       </c>
       <c r="J174" t="n">
-        <v>6.52292378020298</v>
+        <v>6.68566932370019</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-4.90231836595491</v>
+        <v>3.31788879013977</v>
       </c>
       <c r="B175" t="n">
-        <v>-5.73610456862893</v>
+        <v>13.0804119315098</v>
       </c>
       <c r="C175" t="n">
-        <v>-6.04900709218623</v>
+        <v>11.1078823696789</v>
       </c>
       <c r="D175" t="n">
-        <v>-6.83500093290324</v>
+        <v>13.4363132977963</v>
       </c>
       <c r="E175" t="n">
-        <v>-7.11580124927227</v>
+        <v>13.2381826952731</v>
       </c>
       <c r="F175" t="n">
-        <v>-7.06783002068353</v>
+        <v>14.5535269797887</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.98783155722156</v>
+        <v>16.2081587883938</v>
       </c>
       <c r="H175" t="n">
-        <v>18.1564953037067</v>
+        <v>16.2591357838388</v>
       </c>
       <c r="I175" t="n">
-        <v>17.9718847434636</v>
+        <v>16.7630678217697</v>
       </c>
       <c r="J175" t="n">
-        <v>18.2249588999831</v>
+        <v>18.3245283857931</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.99429512168147</v>
+        <v>10.8508321448902</v>
       </c>
       <c r="B176" t="n">
-        <v>2.84249855327729</v>
+        <v>11.2424290205176</v>
       </c>
       <c r="C176" t="n">
-        <v>4.09079154228331</v>
+        <v>13.0689704794199</v>
       </c>
       <c r="D176" t="n">
-        <v>3.49218431173383</v>
+        <v>14.098352470826</v>
       </c>
       <c r="E176" t="n">
-        <v>4.03477918360201</v>
+        <v>14.0022299281286</v>
       </c>
       <c r="F176" t="n">
-        <v>5.02328296703205</v>
+        <v>15.2507066809429</v>
       </c>
       <c r="G176" t="n">
-        <v>4.95381750378</v>
+        <v>18.0116414613557</v>
       </c>
       <c r="H176" t="n">
-        <v>5.61277724623972</v>
+        <v>17.5177568586458</v>
       </c>
       <c r="I176" t="n">
-        <v>5.72857626820148</v>
+        <v>17.5327716209676</v>
       </c>
       <c r="J176" t="n">
-        <v>6.5992989999612</v>
+        <v>19.1402563013902</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-4.86871318211915</v>
+        <v>2.53517152635029</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.48914919159052</v>
+        <v>3.32048753971304</v>
       </c>
       <c r="C177" t="n">
-        <v>-6.02804225770439</v>
+        <v>4.23367890305166</v>
       </c>
       <c r="D177" t="n">
-        <v>-6.22930374070934</v>
+        <v>3.19847734287285</v>
       </c>
       <c r="E177" t="n">
-        <v>-7.127359509053</v>
+        <v>4.0121776864807</v>
       </c>
       <c r="F177" t="n">
-        <v>13.9238615118318</v>
+        <v>5.08253587269439</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.88447865876532</v>
+        <v>5.62910757550251</v>
       </c>
       <c r="H177" t="n">
-        <v>-7.85096429796406</v>
+        <v>5.2586115164284</v>
       </c>
       <c r="I177" t="n">
-        <v>-9.07262303748776</v>
+        <v>6.19296059528796</v>
       </c>
       <c r="J177" t="n">
-        <v>-9.39999592907478</v>
+        <v>6.95187739510911</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-5.00321508149271</v>
+        <v>9.50826164954838</v>
       </c>
       <c r="B178" t="n">
-        <v>-5.71052349420071</v>
+        <v>11.9381507900182</v>
       </c>
       <c r="C178" t="n">
-        <v>-6.05785840660374</v>
+        <v>10.8859521302855</v>
       </c>
       <c r="D178" t="n">
-        <v>-6.4175412398192</v>
+        <v>-6.66639897329547</v>
       </c>
       <c r="E178" t="n">
-        <v>-7.09381343434394</v>
+        <v>13.3106710491823</v>
       </c>
       <c r="F178" t="n">
-        <v>-7.5962104696162</v>
+        <v>13.3372946296928</v>
       </c>
       <c r="G178" t="n">
-        <v>-7.88417283556466</v>
+        <v>17.6237960489249</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.57501653901253</v>
+        <v>17.8271655766273</v>
       </c>
       <c r="I178" t="n">
-        <v>-9.54373719473589</v>
+        <v>18.9540245355469</v>
       </c>
       <c r="J178" t="n">
-        <v>-9.88183423719192</v>
+        <v>18.3956244415379</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.3356530324137</v>
+        <v>9.91219995461951</v>
       </c>
       <c r="B179" t="n">
-        <v>10.6444424459126</v>
+        <v>10.6359715749952</v>
       </c>
       <c r="C179" t="n">
-        <v>11.8852997427166</v>
+        <v>11.0796778979442</v>
       </c>
       <c r="D179" t="n">
-        <v>13.0967684436283</v>
+        <v>13.3244409946874</v>
       </c>
       <c r="E179" t="n">
-        <v>13.8517755926954</v>
+        <v>12.8795319713243</v>
       </c>
       <c r="F179" t="n">
-        <v>14.263340519734</v>
+        <v>14.0103562750514</v>
       </c>
       <c r="G179" t="n">
-        <v>15.6177476973273</v>
+        <v>15.4612856427485</v>
       </c>
       <c r="H179" t="n">
-        <v>17.4260796000316</v>
+        <v>17.5425456087088</v>
       </c>
       <c r="I179" t="n">
-        <v>17.8912117069922</v>
+        <v>17.346757866021</v>
       </c>
       <c r="J179" t="n">
-        <v>6.67602646109303</v>
+        <v>18.8037011997914</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10.7223537805956</v>
+        <v>9.7055201301828</v>
       </c>
       <c r="B180" t="n">
-        <v>13.28896677819</v>
+        <v>11.0399416118246</v>
       </c>
       <c r="C180" t="n">
-        <v>12.3468257416584</v>
+        <v>11.8073410418598</v>
       </c>
       <c r="D180" t="n">
-        <v>14.33218168383</v>
+        <v>12.1919829914077</v>
       </c>
       <c r="E180" t="n">
-        <v>14.4338373234737</v>
+        <v>13.4614122038739</v>
       </c>
       <c r="F180" t="n">
-        <v>15.4830657918077</v>
+        <v>4.63370164180215</v>
       </c>
       <c r="G180" t="n">
-        <v>16.188858321069</v>
+        <v>5.91776672058623</v>
       </c>
       <c r="H180" t="n">
-        <v>6.32715147780388</v>
+        <v>6.77490302612808</v>
       </c>
       <c r="I180" t="n">
-        <v>6.14177483695363</v>
+        <v>6.78285923384971</v>
       </c>
       <c r="J180" t="n">
-        <v>7.23248723028164</v>
+        <v>6.94572079667085</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-5.3535610011502</v>
+        <v>-4.8912499269477</v>
       </c>
       <c r="B181" t="n">
-        <v>-5.62876663779035</v>
+        <v>10.0658896678575</v>
       </c>
       <c r="C181" t="n">
-        <v>-5.68858770003608</v>
+        <v>9.92459125976811</v>
       </c>
       <c r="D181" t="n">
-        <v>-6.36799837274991</v>
+        <v>13.0552233049728</v>
       </c>
       <c r="E181" t="n">
-        <v>-7.12284825426273</v>
+        <v>14.6781362150367</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.76742571983237</v>
+        <v>15.002142018623</v>
       </c>
       <c r="G181" t="n">
-        <v>-7.99354417776817</v>
+        <v>16.3285989814024</v>
       </c>
       <c r="H181" t="n">
-        <v>-8.15435399360254</v>
+        <v>17.6068867045844</v>
       </c>
       <c r="I181" t="n">
-        <v>-8.7142898448093</v>
+        <v>17.6457459747548</v>
       </c>
       <c r="J181" t="n">
-        <v>-9.09516092962428</v>
+        <v>-9.32016358671668</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2.23545973905189</v>
+        <v>-5.20138973910562</v>
       </c>
       <c r="B182" t="n">
-        <v>2.50335929987629</v>
+        <v>-5.31107268401692</v>
       </c>
       <c r="C182" t="n">
-        <v>2.85657779075173</v>
+        <v>-6.02986968078717</v>
       </c>
       <c r="D182" t="n">
-        <v>4.56833678376605</v>
+        <v>-6.60227273212386</v>
       </c>
       <c r="E182" t="n">
-        <v>4.71820872401721</v>
+        <v>-6.90577634192376</v>
       </c>
       <c r="F182" t="n">
-        <v>4.92360073544313</v>
+        <v>-7.25200156255764</v>
       </c>
       <c r="G182" t="n">
-        <v>4.79678693151658</v>
+        <v>-7.99769923790717</v>
       </c>
       <c r="H182" t="n">
-        <v>6.58937813291535</v>
+        <v>-8.64951482011757</v>
       </c>
       <c r="I182" t="n">
-        <v>6.5133971232396</v>
+        <v>18.5566062158509</v>
       </c>
       <c r="J182" t="n">
-        <v>7.24756774881405</v>
+        <v>19.1170911607207</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-4.90998972367057</v>
+        <v>9.3128703014113</v>
       </c>
       <c r="B183" t="n">
-        <v>-5.62395356189841</v>
+        <v>9.72318681178153</v>
       </c>
       <c r="C183" t="n">
-        <v>-5.78270405134545</v>
+        <v>12.4352906605028</v>
       </c>
       <c r="D183" t="n">
-        <v>-6.20556902421601</v>
+        <v>12.9946242386483</v>
       </c>
       <c r="E183" t="n">
-        <v>-7.15421049918612</v>
+        <v>14.7482414415585</v>
       </c>
       <c r="F183" t="n">
-        <v>-7.51017009390152</v>
+        <v>14.3761598747876</v>
       </c>
       <c r="G183" t="n">
-        <v>-7.89373344939582</v>
+        <v>17.0938831166409</v>
       </c>
       <c r="H183" t="n">
-        <v>-7.97784812335903</v>
+        <v>17.7067006648731</v>
       </c>
       <c r="I183" t="n">
-        <v>17.8461795448319</v>
+        <v>17.7096267718251</v>
       </c>
       <c r="J183" t="n">
-        <v>7.32533628164196</v>
+        <v>17.5752028466625</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2.63615446732889</v>
+        <v>10.0912655001061</v>
       </c>
       <c r="B184" t="n">
-        <v>3.24018758627123</v>
+        <v>12.3926612900913</v>
       </c>
       <c r="C184" t="n">
-        <v>3.01836891809689</v>
+        <v>10.4017518109513</v>
       </c>
       <c r="D184" t="n">
-        <v>4.17925626341177</v>
+        <v>12.4519353541955</v>
       </c>
       <c r="E184" t="n">
-        <v>4.22655168209516</v>
+        <v>13.640544682346</v>
       </c>
       <c r="F184" t="n">
-        <v>5.36619844694175</v>
+        <v>15.8529358836234</v>
       </c>
       <c r="G184" t="n">
-        <v>5.26115961543964</v>
+        <v>16.5529107329029</v>
       </c>
       <c r="H184" t="n">
-        <v>5.99665044073197</v>
+        <v>17.696949501419</v>
       </c>
       <c r="I184" t="n">
-        <v>6.86311853789087</v>
+        <v>19.0256723733174</v>
       </c>
       <c r="J184" t="n">
-        <v>6.61981458336344</v>
+        <v>18.8115143028594</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-5.25715341397234</v>
+        <v>-5.31752651585907</v>
       </c>
       <c r="B185" t="n">
-        <v>-5.68371974231419</v>
+        <v>-5.8463388607242</v>
       </c>
       <c r="C185" t="n">
-        <v>11.3789186558319</v>
+        <v>-5.86932359316208</v>
       </c>
       <c r="D185" t="n">
-        <v>3.83406420604302</v>
+        <v>-6.6039288939706</v>
       </c>
       <c r="E185" t="n">
-        <v>5.34487022428936</v>
+        <v>-7.09957389094661</v>
       </c>
       <c r="F185" t="n">
-        <v>4.33517334814695</v>
+        <v>-7.61466928693204</v>
       </c>
       <c r="G185" t="n">
-        <v>5.28789094211999</v>
+        <v>-7.46705162100668</v>
       </c>
       <c r="H185" t="n">
-        <v>6.36512882099783</v>
+        <v>-8.6209807981141</v>
       </c>
       <c r="I185" t="n">
-        <v>5.57131506435418</v>
+        <v>-9.21816387213427</v>
       </c>
       <c r="J185" t="n">
-        <v>6.44107896652075</v>
+        <v>-9.34182756777522</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.39602274773313</v>
+        <v>9.00094721415643</v>
       </c>
       <c r="B186" t="n">
-        <v>11.6643855266439</v>
+        <v>2.95529746824741</v>
       </c>
       <c r="C186" t="n">
-        <v>12.3571787384132</v>
+        <v>3.59864605908258</v>
       </c>
       <c r="D186" t="n">
-        <v>12.5389202822165</v>
+        <v>4.64670097339219</v>
       </c>
       <c r="E186" t="n">
-        <v>13.7221190487731</v>
+        <v>4.11896554265335</v>
       </c>
       <c r="F186" t="n">
-        <v>14.3747010521249</v>
+        <v>4.84511768704817</v>
       </c>
       <c r="G186" t="n">
-        <v>5.27155746662507</v>
+        <v>6.15628434404906</v>
       </c>
       <c r="H186" t="n">
-        <v>5.71662893564778</v>
+        <v>6.60682376759882</v>
       </c>
       <c r="I186" t="n">
-        <v>6.85958588204086</v>
+        <v>6.75521987885539</v>
       </c>
       <c r="J186" t="n">
-        <v>7.01905514289479</v>
+        <v>7.11487882245624</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.17299803202707</v>
+        <v>-5.42310908105888</v>
       </c>
       <c r="B187" t="n">
-        <v>3.41737410487087</v>
+        <v>-5.7520703882453</v>
       </c>
       <c r="C187" t="n">
-        <v>3.52079777452993</v>
+        <v>-5.45938450553954</v>
       </c>
       <c r="D187" t="n">
-        <v>4.45240511501978</v>
+        <v>-6.50268154150713</v>
       </c>
       <c r="E187" t="n">
-        <v>4.56406953233829</v>
+        <v>-6.62009407623595</v>
       </c>
       <c r="F187" t="n">
-        <v>5.32156417754427</v>
+        <v>-7.4309072423785</v>
       </c>
       <c r="G187" t="n">
-        <v>4.91174573641686</v>
+        <v>-8.03237848423176</v>
       </c>
       <c r="H187" t="n">
-        <v>6.04143419498507</v>
+        <v>-8.24715195031111</v>
       </c>
       <c r="I187" t="n">
-        <v>6.54333406634153</v>
+        <v>-9.13337631856299</v>
       </c>
       <c r="J187" t="n">
-        <v>7.45861074601824</v>
+        <v>-9.37494887046558</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9.3065151956343</v>
+        <v>-4.71803193185503</v>
       </c>
       <c r="B188" t="n">
-        <v>10.7099534025984</v>
+        <v>10.8292887868712</v>
       </c>
       <c r="C188" t="n">
-        <v>12.577585838231</v>
+        <v>13.4364390903308</v>
       </c>
       <c r="D188" t="n">
-        <v>12.5632813185506</v>
+        <v>11.8684770073401</v>
       </c>
       <c r="E188" t="n">
-        <v>13.0282059525616</v>
+        <v>13.4155367457019</v>
       </c>
       <c r="F188" t="n">
-        <v>16.0162559590664</v>
+        <v>15.5319718460437</v>
       </c>
       <c r="G188" t="n">
-        <v>15.3521487483286</v>
+        <v>16.701312983758</v>
       </c>
       <c r="H188" t="n">
-        <v>5.23699716149403</v>
+        <v>18.5612363694505</v>
       </c>
       <c r="I188" t="n">
-        <v>6.25787914728954</v>
+        <v>17.2147558565925</v>
       </c>
       <c r="J188" t="n">
-        <v>6.8931991736266</v>
+        <v>19.1572921706249</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-4.84857993666365</v>
+        <v>-4.96281847767257</v>
       </c>
       <c r="B189" t="n">
-        <v>-5.22389480952962</v>
+        <v>11.2283945862362</v>
       </c>
       <c r="C189" t="n">
-        <v>-6.10916081825329</v>
+        <v>11.8532598423958</v>
       </c>
       <c r="D189" t="n">
-        <v>-6.58792305474153</v>
+        <v>13.262418144215</v>
       </c>
       <c r="E189" t="n">
-        <v>-7.52247794420401</v>
+        <v>13.0096788704167</v>
       </c>
       <c r="F189" t="n">
-        <v>-7.97830485138246</v>
+        <v>14.5141271715969</v>
       </c>
       <c r="G189" t="n">
-        <v>-7.95009353645788</v>
+        <v>15.270843784137</v>
       </c>
       <c r="H189" t="n">
-        <v>18.3082231825562</v>
+        <v>17.372410032872</v>
       </c>
       <c r="I189" t="n">
-        <v>17.2174551684809</v>
+        <v>19.0452935437443</v>
       </c>
       <c r="J189" t="n">
-        <v>20.3294519248982</v>
+        <v>19.4206041637662</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-4.92325744648335</v>
+        <v>1.73453932073403</v>
       </c>
       <c r="B190" t="n">
-        <v>-5.65826631371337</v>
+        <v>3.01503974577773</v>
       </c>
       <c r="C190" t="n">
-        <v>-6.04607907366645</v>
+        <v>4.28773119568758</v>
       </c>
       <c r="D190" t="n">
-        <v>-6.69210337848637</v>
+        <v>3.76483949447475</v>
       </c>
       <c r="E190" t="n">
-        <v>-6.61140090306294</v>
+        <v>4.73730933234036</v>
       </c>
       <c r="F190" t="n">
-        <v>-7.09412367212669</v>
+        <v>4.60269101186195</v>
       </c>
       <c r="G190" t="n">
-        <v>15.7846087997824</v>
+        <v>5.47305875349909</v>
       </c>
       <c r="H190" t="n">
-        <v>16.8807061534135</v>
+        <v>5.05992278040447</v>
       </c>
       <c r="I190" t="n">
-        <v>18.0761692616611</v>
+        <v>6.42392360828723</v>
       </c>
       <c r="J190" t="n">
-        <v>19.4507754598384</v>
+        <v>7.80395279203134</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2.32095109798733</v>
+        <v>2.91703993879202</v>
       </c>
       <c r="B191" t="n">
-        <v>3.53118004111254</v>
+        <v>2.85253352762965</v>
       </c>
       <c r="C191" t="n">
-        <v>3.42472631181872</v>
+        <v>3.15814816651618</v>
       </c>
       <c r="D191" t="n">
-        <v>4.01774688249464</v>
+        <v>3.18429504426024</v>
       </c>
       <c r="E191" t="n">
-        <v>3.88857743007392</v>
+        <v>5.61597463086172</v>
       </c>
       <c r="F191" t="n">
-        <v>5.0312242682901</v>
+        <v>5.75061326089465</v>
       </c>
       <c r="G191" t="n">
-        <v>6.09043755822293</v>
+        <v>5.60620251385809</v>
       </c>
       <c r="H191" t="n">
-        <v>6.38573432276356</v>
+        <v>5.12057173206498</v>
       </c>
       <c r="I191" t="n">
-        <v>6.17055287164042</v>
+        <v>6.43694215231671</v>
       </c>
       <c r="J191" t="n">
-        <v>7.24210181650166</v>
+        <v>7.30970026726488</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-5.036914021389</v>
+        <v>11.1490221225926</v>
       </c>
       <c r="B192" t="n">
-        <v>-6.06496147158165</v>
+        <v>11.9030168440059</v>
       </c>
       <c r="C192" t="n">
-        <v>-6.44833134157014</v>
+        <v>11.8491446696293</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.75060211737472</v>
+        <v>12.205615041028</v>
       </c>
       <c r="E192" t="n">
-        <v>-7.24544690069016</v>
+        <v>12.6361563528788</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.11638821143419</v>
+        <v>14.9180178069314</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.59494920077193</v>
+        <v>15.2579099933811</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.4424778186282</v>
+        <v>18.099413978571</v>
       </c>
       <c r="I192" t="n">
-        <v>-9.24389376337174</v>
+        <v>18.9654147355217</v>
       </c>
       <c r="J192" t="n">
-        <v>-9.38442863028374</v>
+        <v>19.9934209576457</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.1724395522115</v>
+        <v>-5.0449870971762</v>
       </c>
       <c r="B193" t="n">
-        <v>11.7475051003244</v>
+        <v>-5.15617836399821</v>
       </c>
       <c r="C193" t="n">
-        <v>10.7092855083017</v>
+        <v>-5.92401322959698</v>
       </c>
       <c r="D193" t="n">
-        <v>13.0729650748566</v>
+        <v>-6.51718157396444</v>
       </c>
       <c r="E193" t="n">
-        <v>14.1209840554417</v>
+        <v>-6.58067218841743</v>
       </c>
       <c r="F193" t="n">
-        <v>14.2971655702141</v>
+        <v>-7.43641976373439</v>
       </c>
       <c r="G193" t="n">
-        <v>17.4162057913662</v>
+        <v>-7.84213792240821</v>
       </c>
       <c r="H193" t="n">
-        <v>17.4317937735027</v>
+        <v>-8.75048434441007</v>
       </c>
       <c r="I193" t="n">
-        <v>17.7504211994919</v>
+        <v>-9.03359223450693</v>
       </c>
       <c r="J193" t="n">
-        <v>18.8795121631142</v>
+        <v>-9.88237179436831</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10.4378548362136</v>
+        <v>9.87747599504679</v>
       </c>
       <c r="B194" t="n">
-        <v>10.925120911973</v>
+        <v>11.4114519722837</v>
       </c>
       <c r="C194" t="n">
-        <v>4.13607623027319</v>
+        <v>12.6363810807405</v>
       </c>
       <c r="D194" t="n">
-        <v>3.57868710980681</v>
+        <v>12.7977335041257</v>
       </c>
       <c r="E194" t="n">
-        <v>4.91417166733</v>
+        <v>14.3783656671294</v>
       </c>
       <c r="F194" t="n">
-        <v>4.79017266847512</v>
+        <v>14.6569448222346</v>
       </c>
       <c r="G194" t="n">
-        <v>4.2405658190153</v>
+        <v>15.7983266347206</v>
       </c>
       <c r="H194" t="n">
-        <v>6.12581043177559</v>
+        <v>17.5685145584224</v>
       </c>
       <c r="I194" t="n">
-        <v>6.18736344744399</v>
+        <v>18.0161162216072</v>
       </c>
       <c r="J194" t="n">
-        <v>6.46224109384581</v>
+        <v>19.6222667031423</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>10.5447940248903</v>
+        <v>-4.86803630967345</v>
       </c>
       <c r="B195" t="n">
-        <v>10.7330453205688</v>
+        <v>-5.99285483195278</v>
       </c>
       <c r="C195" t="n">
-        <v>12.2822228870128</v>
+        <v>-5.8617906802426</v>
       </c>
       <c r="D195" t="n">
-        <v>13.7684476073732</v>
+        <v>-6.64451809439136</v>
       </c>
       <c r="E195" t="n">
-        <v>14.4769561659234</v>
+        <v>4.8627939317056</v>
       </c>
       <c r="F195" t="n">
-        <v>15.2342629359219</v>
+        <v>6.08379633659865</v>
       </c>
       <c r="G195" t="n">
-        <v>16.584908024784</v>
+        <v>5.84274013074974</v>
       </c>
       <c r="H195" t="n">
-        <v>17.369969401864</v>
+        <v>6.31067879268733</v>
       </c>
       <c r="I195" t="n">
-        <v>17.9362384466352</v>
+        <v>6.49817208189502</v>
       </c>
       <c r="J195" t="n">
-        <v>19.7720247650258</v>
+        <v>7.26380022253746</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-5.40644025202024</v>
+        <v>2.26049536673693</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.76592640878685</v>
+        <v>2.67059729705127</v>
       </c>
       <c r="C196" t="n">
-        <v>-6.15180589114569</v>
+        <v>4.37703963123244</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.6721414767301</v>
+        <v>3.35168632115324</v>
       </c>
       <c r="E196" t="n">
-        <v>-7.27260326030712</v>
+        <v>4.19684140993608</v>
       </c>
       <c r="F196" t="n">
-        <v>14.6702364311407</v>
+        <v>4.79734527090814</v>
       </c>
       <c r="G196" t="n">
-        <v>14.9531578350763</v>
+        <v>5.22312596494819</v>
       </c>
       <c r="H196" t="n">
-        <v>18.1853417374484</v>
+        <v>5.3648089850376</v>
       </c>
       <c r="I196" t="n">
-        <v>18.0183983172469</v>
+        <v>6.0433702098486</v>
       </c>
       <c r="J196" t="n">
-        <v>18.0578622881931</v>
+        <v>7.17870941568107</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-4.9086854257656</v>
+        <v>2.23113285715828</v>
       </c>
       <c r="B197" t="n">
-        <v>-5.64663073164448</v>
+        <v>3.14921476810579</v>
       </c>
       <c r="C197" t="n">
-        <v>-6.06084555217002</v>
+        <v>3.66165590961618</v>
       </c>
       <c r="D197" t="n">
-        <v>4.59243128097966</v>
+        <v>12.767578197529</v>
       </c>
       <c r="E197" t="n">
-        <v>4.43507707620048</v>
+        <v>12.6292958321895</v>
       </c>
       <c r="F197" t="n">
-        <v>4.54326817994935</v>
+        <v>-7.76953664771539</v>
       </c>
       <c r="G197" t="n">
-        <v>5.75411904984109</v>
+        <v>-8.01092526683577</v>
       </c>
       <c r="H197" t="n">
-        <v>15.9679389121512</v>
+        <v>-8.43540417549766</v>
       </c>
       <c r="I197" t="n">
-        <v>18.79005203835</v>
+        <v>-8.95656066663096</v>
       </c>
       <c r="J197" t="n">
-        <v>17.8894486161984</v>
+        <v>-8.95891486868535</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.9544915134778</v>
+        <v>9.00115877870372</v>
       </c>
       <c r="B198" t="n">
-        <v>11.9252553592745</v>
+        <v>11.1950094293462</v>
       </c>
       <c r="C198" t="n">
-        <v>11.2060038165005</v>
+        <v>12.0855297253922</v>
       </c>
       <c r="D198" t="n">
-        <v>13.6051392986905</v>
+        <v>-6.07120278229594</v>
       </c>
       <c r="E198" t="n">
-        <v>13.0338404182273</v>
+        <v>-6.96571612500772</v>
       </c>
       <c r="F198" t="n">
-        <v>14.8339050411323</v>
+        <v>-7.26199348583315</v>
       </c>
       <c r="G198" t="n">
-        <v>-8.01272238884424</v>
+        <v>-8.25145446010586</v>
       </c>
       <c r="H198" t="n">
-        <v>-8.43437246525555</v>
+        <v>16.7152560208157</v>
       </c>
       <c r="I198" t="n">
-        <v>-9.05558958392456</v>
+        <v>17.9331263633899</v>
       </c>
       <c r="J198" t="n">
-        <v>-9.66751546051925</v>
+        <v>18.3275032369228</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3.55114209758414</v>
+        <v>8.92815772492711</v>
       </c>
       <c r="B199" t="n">
-        <v>3.41103491026281</v>
+        <v>11.6830425875326</v>
       </c>
       <c r="C199" t="n">
-        <v>3.69511443925379</v>
+        <v>10.6105031258856</v>
       </c>
       <c r="D199" t="n">
-        <v>2.79963272036136</v>
+        <v>14.4075307370849</v>
       </c>
       <c r="E199" t="n">
-        <v>4.70374906027535</v>
+        <v>14.3165093265078</v>
       </c>
       <c r="F199" t="n">
-        <v>4.19746169692701</v>
+        <v>14.7133249404173</v>
       </c>
       <c r="G199" t="n">
-        <v>6.51019062546435</v>
+        <v>16.1326691138092</v>
       </c>
       <c r="H199" t="n">
-        <v>5.5963698857007</v>
+        <v>16.2516430397029</v>
       </c>
       <c r="I199" t="n">
-        <v>7.52726554151894</v>
+        <v>16.9717386299385</v>
       </c>
       <c r="J199" t="n">
-        <v>6.69327064864256</v>
+        <v>17.584477307803</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>9.27271435805163</v>
+        <v>8.45601354988781</v>
       </c>
       <c r="B200" t="n">
-        <v>10.9300056482711</v>
+        <v>10.0618113136824</v>
       </c>
       <c r="C200" t="n">
-        <v>11.6077567067631</v>
+        <v>12.1793786336735</v>
       </c>
       <c r="D200" t="n">
-        <v>13.0078169577953</v>
+        <v>13.1066773456997</v>
       </c>
       <c r="E200" t="n">
-        <v>14.4316750060911</v>
+        <v>13.6084530246449</v>
       </c>
       <c r="F200" t="n">
-        <v>14.6505449221317</v>
+        <v>16.9279312332277</v>
       </c>
       <c r="G200" t="n">
-        <v>16.987640130098</v>
+        <v>16.6751846587726</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.90541121895162</v>
+        <v>16.5830770177505</v>
       </c>
       <c r="I200" t="n">
-        <v>-8.84676331037952</v>
+        <v>18.6568298856122</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.58427834046022</v>
+        <v>19.4170349766383</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.59687312135976</v>
+        <v>-5.11902466051444</v>
       </c>
       <c r="B201" t="n">
-        <v>11.6554343881704</v>
+        <v>-5.75514992964283</v>
       </c>
       <c r="C201" t="n">
-        <v>11.2874641885525</v>
+        <v>-5.97115872736</v>
       </c>
       <c r="D201" t="n">
-        <v>12.3344426644223</v>
+        <v>-6.57898339704276</v>
       </c>
       <c r="E201" t="n">
-        <v>13.3980319720189</v>
+        <v>-6.69937045206992</v>
       </c>
       <c r="F201" t="n">
-        <v>4.96794502471016</v>
+        <v>-7.58347034531295</v>
       </c>
       <c r="G201" t="n">
-        <v>6.40115871423599</v>
+        <v>-7.9465171485153</v>
       </c>
       <c r="H201" t="n">
-        <v>7.32071755259701</v>
+        <v>-8.45866543431327</v>
       </c>
       <c r="I201" t="n">
-        <v>7.21825077393463</v>
+        <v>-9.24830455398059</v>
       </c>
       <c r="J201" t="n">
-        <v>6.54366805664628</v>
+        <v>-9.66719579375585</v>
       </c>
     </row>
   </sheetData>
